--- a/Imbalance Benchmark.xlsx
+++ b/Imbalance Benchmark.xlsx
@@ -1493,92 +1493,62 @@
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>72.330 (1.217)</t>
+          <t>80.030 (0.646)</t>
         </is>
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>64.699 (1.630)</t>
+          <t>76.116 (0.889)</t>
         </is>
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>64.335 (2.545)</t>
+          <t>76.418 (1.255)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.110 (0.489)</t>
+          <t>84.970 (0.527)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>77.426 (0.466)</t>
+          <t>82.680 (0.728)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>78.527 (0.579)</t>
+          <t>83.301 (0.667)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>54.990 (1.000)</t>
+          <t>64.710 (0.803)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>48.458 (0.949)</t>
+          <t>58.119 (0.733)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>43.434 (1.230)</t>
+          <t>51.492 (1.577)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>69.850 (0.636)</t>
+          <t>70.960 (0.450)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>63.212 (0.822)</t>
+          <t>64.043 (0.501)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>62.497 (1.220)</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>53.120 (0.839)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>43.354 (0.677)</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>36.547 (0.938)</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>76.160 (0.776)</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>68.321 (1.361)</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>69.765 (1.653)</t>
+          <t>60.787 (0.863)</t>
         </is>
       </c>
     </row>
@@ -1783,6 +1753,36 @@
       <c r="M12" t="inlineStr">
         <is>
           <t>67.518 (0.550)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>67.900 (2.106)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>65.440 (3.259)</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>64.121 (2.769)</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>80.200 (0.346)</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>77.456 (0.460)</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>77.953 (0.362)</t>
         </is>
       </c>
     </row>
@@ -1922,47 +1922,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>40.236 (0.246)</t>
+          <t>90.933 (0.159)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>46.773 (0.122)</t>
+          <t>83.850 (0.553)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>30.392 (0.655)</t>
+          <t>83.799 (0.841)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>59.613 (1.875)</t>
+          <t>72.892 (3.246)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>42.245 (1.002)</t>
+          <t>36.448 (7.049)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>31.268 (1.680)</t>
+          <t>33.942 (7.430)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>33.851 (0.451)</t>
+          <t>92.796 (0.091)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>47.117 (0.730)</t>
+          <t>88.617 (0.233)</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>22.937 (0.533)</t>
+          <t>89.867 (0.179)</t>
         </is>
       </c>
     </row>
@@ -1979,6 +1979,51 @@
           <t>GraphSMOTE 21'</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>91.534 (0.274)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>86.850 (0.520)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>88.133 (0.511)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>71.735 (1.678)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>40.059 (1.465)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>37.582 (1.500)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>92.450 (0.084)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>87.804 (0.243)</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>89.186 (0.194)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -1995,32 +2040,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>84.525 (0.545)</t>
+          <t>90.961 (0.396)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>87.164 (0.637)</t>
+          <t>91.290 (0.150)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>82.242 (0.450)</t>
+          <t>88.617 (0.373)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>75.000 (0.939)</t>
+          <t>82.284 (0.812)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>81.585 (0.520)</t>
+          <t>87.639 (0.231)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>72.979 (0.904)</t>
+          <t>79.302 (0.672)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>92.172 (0.225)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>90.492 (0.177)</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>85.814 (3.212)</t>
         </is>
       </c>
     </row>
@@ -2051,34 +2111,49 @@
           <t>GraphSHA 23‘</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>92.112 (0.176)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>91.075 (0.149)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>89.862 (0.165)</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>74.404 (0.518)</t>
+          <t>84.051 (0.403)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>74.952 (0.307)</t>
+          <t>84.767 (0.537)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>64.739 (0.723)</t>
+          <t>81.291 (0.436)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>83.468 (0.449)</t>
+          <t>92.533 (0.060)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>84.553 (0.364)</t>
+          <t>90.140 (0.143)</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>74.560 (2.376)</t>
+          <t>84.724 (2.489)</t>
         </is>
       </c>
     </row>

--- a/Imbalance Benchmark.xlsx
+++ b/Imbalance Benchmark.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Node-level class imbalance " sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Node-level topology imbalance " sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Node-level class imbalance " sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Node-level topology imbalance " sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1386,92 +1386,182 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>74.630 (0.389)</t>
+          <t>72.710 (1.209)</t>
         </is>
       </c>
       <c r="C4" s="6" t="inlineStr">
         <is>
-          <t>63.921 (0.599)</t>
+          <t>60.193 (1.883)</t>
         </is>
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>64.400 (0.683)</t>
+          <t>60.106 (2.872)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.110 (0.228)</t>
+          <t>81.520 (0.230)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>76.379 (0.440)</t>
+          <t>75.605 (0.487)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>78.888 (0.267)</t>
+          <t>78.168 (0.350)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>53.590 (0.593)</t>
+          <t>51.110 (0.922)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>46.771 (0.587)</t>
+          <t>44.357 (0.917)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>41.587 (0.902)</t>
+          <t>37.349 (1.739)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>67.860 (0.615)</t>
+          <t>66.820 (0.653)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>61.475 (0.618)</t>
+          <t>60.396 (0.721)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>60.621 (0.702)</t>
+          <t>59.441 (0.933)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>52.180 (1.070)</t>
+          <t>51.590 (0.717)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>42.597 (0.863)</t>
+          <t>42.121 (0.579)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>35.444 (1.248)</t>
+          <t>34.782 (0.833)</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>77.180 (1.012)</t>
+          <t>73.490 (1.206)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>68.702 (1.736)</t>
+          <t>62.454 (2.007)</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>69.988 (2.159)</t>
+          <t>61.060 (3.163)</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>29.781 (0.525)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>28.508 (0.482)</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>17.243 (0.662)</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>30.746 (0.692)</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>29.613 (0.648)</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>20.747 (0.557)</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>19.971 (0.349)</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>20.294 (0.337)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>10.991 (0.358)</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>20.480 (0.329)</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>20.610 (0.336)</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>12.978 (0.838)</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>26.336 (0.260)</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>20.711 (0.208)</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>10.939 (0.466)</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>27.645 (0.274)</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>21.792 (0.224)</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>13.623 (0.386)</t>
         </is>
       </c>
     </row>
@@ -1493,62 +1583,62 @@
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>80.030 (0.646)</t>
+          <t>76.630 (0.917)</t>
         </is>
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>76.116 (0.889)</t>
+          <t>70.784 (1.298)</t>
         </is>
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>76.418 (1.255)</t>
+          <t>68.626 (2.117)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.970 (0.527)</t>
+          <t>84.590 (0.325)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>82.680 (0.728)</t>
+          <t>82.249 (0.528)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>83.301 (0.667)</t>
+          <t>82.953 (0.413)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>64.710 (0.803)</t>
+          <t>63.710 (0.354)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>58.119 (0.733)</t>
+          <t>57.188 (0.363)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>51.492 (1.577)</t>
+          <t>48.924 (0.246)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>70.960 (0.450)</t>
+          <t>70.110 (0.393)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>64.043 (0.501)</t>
+          <t>63.118 (0.345)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>60.787 (0.863)</t>
+          <t>59.263 (0.543)</t>
         </is>
       </c>
     </row>
@@ -1570,92 +1660,107 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>78.800 (0.368)</t>
+          <t>79.270 (0.476)</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>74.947 (0.470)</t>
+          <t>76.029 (0.494)</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>74.638 (0.498)</t>
+          <t>75.660 (0.522)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.780 (0.442)</t>
+          <t>83.800 (0.371)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>83.438 (0.462)</t>
+          <t>83.279 (0.270)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>82.260 (0.429)</t>
+          <t>82.046 (0.319)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>67.080 (0.616)</t>
+          <t>66.830 (0.602)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>61.162 (0.610)</t>
+          <t>61.136 (0.584)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>60.563 (0.577)</t>
+          <t>60.570 (0.655)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>72.930 (0.353)</t>
+          <t>72.750 (0.344)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>69.598 (0.286)</t>
+          <t>68.676 (0.295)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>69.503 (0.300)</t>
+          <t>68.692 (0.301)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>79.390 (0.341)</t>
+          <t>79.390 (0.296)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>75.111 (0.571)</t>
+          <t>75.451 (0.743)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>75.793 (0.460)</t>
+          <t>75.978 (0.445)</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>84.190 (0.536)</t>
+          <t>83.660 (0.222)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>84.003 (0.420)</t>
+          <t>83.491 (0.253)</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>83.083 (0.546)</t>
+          <t>82.460 (0.245)</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>27.579 (0.788)</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>25.798 (0.777)</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>24.501 (0.628)</t>
         </is>
       </c>
     </row>
@@ -1695,102 +1800,42 @@
           <t>GraphSHA 23‘</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>79.030 (0.492)</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>73.523 (0.699)</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>74.703 (0.627)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.590 (0.418)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>80.833 (0.872)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>81.416 (0.645)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>64.050 (1.140)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>58.503 (1.167)</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>58.116 (1.302)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>71.340 (0.440)</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>67.582 (0.529)</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>67.518 (0.550)</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>67.900 (2.106)</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>65.440 (3.259)</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>64.121 (2.769)</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>80.200 (0.346)</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>77.456 (0.460)</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>77.953 (0.362)</t>
-        </is>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n"/>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="6" t="n"/>
-      <c r="D13" s="6" t="n"/>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>79.350 (0.334)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>73.949 (0.348)</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>75.236 (0.295)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.110 (0.307)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>82.031 (0.469)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>82.343 (0.441)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1920,51 +1965,6 @@
           <t>Vanilla (GCN)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>90.933 (0.159)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>83.850 (0.553)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>83.799 (0.841)</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>72.892 (3.246)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>36.448 (7.049)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>33.942 (7.430)</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>92.796 (0.091)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>88.617 (0.233)</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>89.867 (0.179)</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -1979,51 +1979,6 @@
           <t>GraphSMOTE 21'</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>91.534 (0.274)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>86.850 (0.520)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>88.133 (0.511)</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>71.735 (1.678)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>40.059 (1.465)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>37.582 (1.500)</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>92.450 (0.084)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>87.804 (0.243)</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>89.186 (0.194)</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -2038,51 +1993,6 @@
           <t>GraphENS 22'</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>90.961 (0.396)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>91.290 (0.150)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>88.617 (0.373)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>82.284 (0.812)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>87.639 (0.231)</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>79.302 (0.672)</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>92.172 (0.225)</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>90.492 (0.177)</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>85.814 (3.212)</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -2109,51 +2019,6 @@
       <c r="A29" s="4" t="inlineStr">
         <is>
           <t>GraphSHA 23‘</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>92.112 (0.176)</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>91.075 (0.149)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>89.862 (0.165)</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>84.051 (0.403)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>84.767 (0.537)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>81.291 (0.436)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>92.533 (0.060)</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>90.140 (0.143)</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>84.724 (2.489)</t>
         </is>
       </c>
     </row>
@@ -2813,52 +2678,52 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Z37:AE37"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:M18"/>
     <mergeCell ref="N18:S18"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="T1:Y1"/>
     <mergeCell ref="H19:M19"/>
     <mergeCell ref="N19:S19"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="H37:M37"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="N37:S37"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="Z37:AE37"/>
+    <mergeCell ref="AF37:AK37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
     <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N55:S55"/>
-    <mergeCell ref="AF37:AK37"/>
-    <mergeCell ref="H38:J38"/>
     <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="T38:V38"/>
     <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H1:M1"/>
     <mergeCell ref="H54:M54"/>
     <mergeCell ref="N54:S54"/>
+    <mergeCell ref="B55:G55"/>
     <mergeCell ref="H55:M55"/>
-    <mergeCell ref="N37:S37"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="N55:S55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Imbalance Benchmark.xlsx
+++ b/Imbalance Benchmark.xlsx
@@ -1035,14 +1035,46 @@
           <t>91.553 (0.798)</t>
         </is>
       </c>
-      <c r="F4" s="11" t="n"/>
-      <c r="G4" s="11" t="n"/>
-      <c r="H4" s="11" t="n"/>
-      <c r="I4" s="11" t="n"/>
-      <c r="J4" s="11" t="n"/>
-      <c r="K4" s="11" t="n"/>
-      <c r="L4" s="11" t="n"/>
-      <c r="M4" s="11" t="n"/>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>76.363 (0.129)</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>69.165 (0.257)</t>
+        </is>
+      </c>
+      <c r="H4" s="11" t="inlineStr">
+        <is>
+          <t>71.153 (0.301)</t>
+        </is>
+      </c>
+      <c r="I4" s="11" t="inlineStr">
+        <is>
+          <t>95.039 (0.084)</t>
+        </is>
+      </c>
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>80.412 (0.777)</t>
+        </is>
+      </c>
+      <c r="K4" s="11" t="inlineStr">
+        <is>
+          <t>79.981 (0.629)</t>
+        </is>
+      </c>
+      <c r="L4" s="11" t="inlineStr">
+        <is>
+          <t>78.262 (0.909)</t>
+        </is>
+      </c>
+      <c r="M4" s="11" t="inlineStr">
+        <is>
+          <t>96.079 (0.471)</t>
+        </is>
+      </c>
       <c r="N4" s="11" t="inlineStr">
         <is>
           <t>42.481 (0.242)</t>
@@ -1063,14 +1095,46 @@
           <t>80.258 (0.321)</t>
         </is>
       </c>
-      <c r="R4" s="11" t="n"/>
-      <c r="S4" s="11" t="n"/>
-      <c r="T4" s="11" t="n"/>
-      <c r="U4" s="11" t="n"/>
-      <c r="V4" s="11" t="n"/>
-      <c r="W4" s="11" t="n"/>
-      <c r="X4" s="11" t="n"/>
-      <c r="Y4" s="11" t="n"/>
+      <c r="R4" s="11" t="inlineStr">
+        <is>
+          <t>52.963 (0.549)</t>
+        </is>
+      </c>
+      <c r="S4" s="11" t="inlineStr">
+        <is>
+          <t>47.611 (0.484)</t>
+        </is>
+      </c>
+      <c r="T4" s="11" t="inlineStr">
+        <is>
+          <t>43.711 (0.541)</t>
+        </is>
+      </c>
+      <c r="U4" s="11" t="inlineStr">
+        <is>
+          <t>86.567 (0.187)</t>
+        </is>
+      </c>
+      <c r="V4" s="11" t="inlineStr">
+        <is>
+          <t>66.389 (0.855)</t>
+        </is>
+      </c>
+      <c r="W4" s="11" t="inlineStr">
+        <is>
+          <t>62.624 (0.600)</t>
+        </is>
+      </c>
+      <c r="X4" s="11" t="inlineStr">
+        <is>
+          <t>61.832 (0.776)</t>
+        </is>
+      </c>
+      <c r="Y4" s="11" t="inlineStr">
+        <is>
+          <t>89.738 (0.105)</t>
+        </is>
+      </c>
       <c r="Z4" s="11" t="inlineStr">
         <is>
           <t>47.306 (0.721)</t>
@@ -1091,14 +1155,46 @@
           <t>79.125 (1.414)</t>
         </is>
       </c>
-      <c r="AD4" s="11" t="n"/>
-      <c r="AE4" s="11" t="n"/>
-      <c r="AF4" s="11" t="n"/>
-      <c r="AG4" s="11" t="n"/>
-      <c r="AH4" s="11" t="n"/>
-      <c r="AI4" s="11" t="n"/>
-      <c r="AJ4" s="11" t="n"/>
-      <c r="AK4" s="11" t="n"/>
+      <c r="AD4" s="11" t="inlineStr">
+        <is>
+          <t>60.569 (0.189)</t>
+        </is>
+      </c>
+      <c r="AE4" s="11" t="inlineStr">
+        <is>
+          <t>52.404 (0.147)</t>
+        </is>
+      </c>
+      <c r="AF4" s="11" t="inlineStr">
+        <is>
+          <t>45.713 (0.155)</t>
+        </is>
+      </c>
+      <c r="AG4" s="11" t="inlineStr">
+        <is>
+          <t>92.229 (0.090)</t>
+        </is>
+      </c>
+      <c r="AH4" s="11" t="inlineStr">
+        <is>
+          <t>82.875 (0.153)</t>
+        </is>
+      </c>
+      <c r="AI4" s="11" t="inlineStr">
+        <is>
+          <t>83.126 (0.062)</t>
+        </is>
+      </c>
+      <c r="AJ4" s="11" t="inlineStr">
+        <is>
+          <t>82.029 (0.157)</t>
+        </is>
+      </c>
+      <c r="AK4" s="11" t="inlineStr">
+        <is>
+          <t>94.546 (0.041)</t>
+        </is>
+      </c>
       <c r="AL4" s="11" t="inlineStr">
         <is>
           <t>25.678 (0.115)</t>
@@ -1119,14 +1215,46 @@
           <t>57.857 (0.654)</t>
         </is>
       </c>
-      <c r="AP4" s="11" t="n"/>
-      <c r="AQ4" s="11" t="n"/>
-      <c r="AR4" s="11" t="n"/>
-      <c r="AS4" s="11" t="n"/>
-      <c r="AT4" s="11" t="n"/>
-      <c r="AU4" s="11" t="n"/>
-      <c r="AV4" s="11" t="n"/>
-      <c r="AW4" s="11" t="n"/>
+      <c r="AP4" s="11" t="inlineStr">
+        <is>
+          <t>26.351 (0.236)</t>
+        </is>
+      </c>
+      <c r="AQ4" s="11" t="inlineStr">
+        <is>
+          <t>26.751 (0.220)</t>
+        </is>
+      </c>
+      <c r="AR4" s="11" t="inlineStr">
+        <is>
+          <t>16.667 (0.523)</t>
+        </is>
+      </c>
+      <c r="AS4" s="11" t="inlineStr">
+        <is>
+          <t>57.703 (0.418)</t>
+        </is>
+      </c>
+      <c r="AT4" s="11" t="inlineStr">
+        <is>
+          <t>26.758 (1.889)</t>
+        </is>
+      </c>
+      <c r="AU4" s="11" t="inlineStr">
+        <is>
+          <t>28.040 (1.602)</t>
+        </is>
+      </c>
+      <c r="AV4" s="11" t="inlineStr">
+        <is>
+          <t>23.992 (1.975)</t>
+        </is>
+      </c>
+      <c r="AW4" s="11" t="inlineStr">
+        <is>
+          <t>63.484 (0.661)</t>
+        </is>
+      </c>
       <c r="AX4" s="11" t="inlineStr">
         <is>
           <t>15.171 (0.096)</t>
@@ -1147,23 +1275,106 @@
           <t>51.160 (0.055)</t>
         </is>
       </c>
-      <c r="BB4" s="11" t="n"/>
-      <c r="BC4" s="11" t="n"/>
-      <c r="BD4" s="11" t="n"/>
-      <c r="BE4" s="11" t="n"/>
-      <c r="BF4" s="11" t="n"/>
-      <c r="BG4" s="11" t="n"/>
-      <c r="BH4" s="11" t="n"/>
-      <c r="BI4" s="11" t="n"/>
-      <c r="BJ4" s="11" t="n"/>
-      <c r="BK4" s="11" t="n"/>
-      <c r="BL4" s="11" t="n"/>
-      <c r="BM4" s="11" t="n"/>
-      <c r="BN4" s="11" t="n"/>
-      <c r="BO4" s="11" t="n"/>
-      <c r="BP4" s="11" t="n"/>
-      <c r="BQ4" s="11" t="n"/>
-      <c r="BR4" s="11" t="n"/>
+      <c r="BB4" s="11" t="inlineStr">
+        <is>
+          <t>17.156 (0.168)</t>
+        </is>
+      </c>
+      <c r="BC4" s="11" t="inlineStr">
+        <is>
+          <t>20.834 (0.167)</t>
+        </is>
+      </c>
+      <c r="BD4" s="11" t="inlineStr">
+        <is>
+          <t>9.828 (0.485)</t>
+        </is>
+      </c>
+      <c r="BE4" s="11" t="inlineStr">
+        <is>
+          <t>51.695 (0.077)</t>
+        </is>
+      </c>
+      <c r="BF4" s="11" t="inlineStr">
+        <is>
+          <t>21.464 (0.871)</t>
+        </is>
+      </c>
+      <c r="BG4" s="11" t="inlineStr">
+        <is>
+          <t>21.466 (0.872)</t>
+        </is>
+      </c>
+      <c r="BH4" s="11" t="inlineStr">
+        <is>
+          <t>18.801 (1.616)</t>
+        </is>
+      </c>
+      <c r="BI4" s="11" t="inlineStr">
+        <is>
+          <t>51.320 (0.950)</t>
+        </is>
+      </c>
+      <c r="BJ4" s="11" t="inlineStr">
+        <is>
+          <t>21.704 (0.215)</t>
+        </is>
+      </c>
+      <c r="BK4" s="11" t="inlineStr">
+        <is>
+          <t>20.224 (0.124)</t>
+        </is>
+      </c>
+      <c r="BL4" s="11" t="inlineStr">
+        <is>
+          <t>9.007 (0.657)</t>
+        </is>
+      </c>
+      <c r="BM4" s="11" t="inlineStr">
+        <is>
+          <t>50.785 (0.785)</t>
+        </is>
+      </c>
+      <c r="BN4" s="11" t="inlineStr">
+        <is>
+          <t>24.056 (0.139)</t>
+        </is>
+      </c>
+      <c r="BO4" s="11" t="inlineStr">
+        <is>
+          <t>20.617 (0.098)</t>
+        </is>
+      </c>
+      <c r="BP4" s="11" t="inlineStr">
+        <is>
+          <t>12.182 (0.665)</t>
+        </is>
+      </c>
+      <c r="BQ4" s="11" t="inlineStr">
+        <is>
+          <t>52.054 (0.362)</t>
+        </is>
+      </c>
+      <c r="BR4" s="11" t="inlineStr">
+        <is>
+          <t>23.072 (0.378)</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>22.649 (0.328)</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>21.905 (0.355)</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>53.215 (0.582)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1171,74 +1382,298 @@
           <t>DRGCN 20‘</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
-      <c r="D5" s="11" t="n"/>
-      <c r="E5" s="11" t="n"/>
-      <c r="F5" s="11" t="n"/>
-      <c r="G5" s="11" t="n"/>
-      <c r="H5" s="11" t="n"/>
-      <c r="I5" s="11" t="n"/>
-      <c r="J5" s="11" t="n"/>
-      <c r="K5" s="11" t="n"/>
-      <c r="L5" s="11" t="n"/>
-      <c r="M5" s="11" t="n"/>
-      <c r="N5" s="11" t="n"/>
-      <c r="O5" s="11" t="n"/>
-      <c r="P5" s="11" t="n"/>
-      <c r="Q5" s="11" t="n"/>
-      <c r="R5" s="11" t="n"/>
-      <c r="S5" s="11" t="n"/>
-      <c r="T5" s="11" t="n"/>
-      <c r="U5" s="11" t="n"/>
-      <c r="V5" s="11" t="n"/>
-      <c r="W5" s="11" t="n"/>
-      <c r="X5" s="11" t="n"/>
-      <c r="Y5" s="11" t="n"/>
-      <c r="Z5" s="11" t="n"/>
-      <c r="AA5" s="11" t="n"/>
-      <c r="AB5" s="11" t="n"/>
-      <c r="AC5" s="11" t="n"/>
-      <c r="AD5" s="11" t="n"/>
-      <c r="AE5" s="11" t="n"/>
-      <c r="AF5" s="11" t="n"/>
-      <c r="AG5" s="11" t="n"/>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>61.987 (2.461)</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>49.108 (3.515)</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>47.466 (3.998)</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>89.798 (0.541)</t>
+        </is>
+      </c>
+      <c r="F5" s="11" t="inlineStr">
+        <is>
+          <t>71.349 (0.773)</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>63.038 (0.990)</t>
+        </is>
+      </c>
+      <c r="H5" s="11" t="inlineStr">
+        <is>
+          <t>64.434 (1.517)</t>
+        </is>
+      </c>
+      <c r="I5" s="11" t="inlineStr">
+        <is>
+          <t>92.675 (0.297)</t>
+        </is>
+      </c>
+      <c r="J5" s="11" t="inlineStr">
+        <is>
+          <t>77.780 (1.219)</t>
+        </is>
+      </c>
+      <c r="K5" s="11" t="inlineStr">
+        <is>
+          <t>77.201 (0.782)</t>
+        </is>
+      </c>
+      <c r="L5" s="11" t="inlineStr">
+        <is>
+          <t>75.455 (0.972)</t>
+        </is>
+      </c>
+      <c r="M5" s="11" t="inlineStr">
+        <is>
+          <t>95.007 (0.304)</t>
+        </is>
+      </c>
+      <c r="N5" s="11" t="inlineStr">
+        <is>
+          <t>45.691 (2.791)</t>
+        </is>
+      </c>
+      <c r="O5" s="11" t="inlineStr">
+        <is>
+          <t>41.398 (2.337)</t>
+        </is>
+      </c>
+      <c r="P5" s="11" t="inlineStr">
+        <is>
+          <t>34.830 (2.797)</t>
+        </is>
+      </c>
+      <c r="Q5" s="11" t="inlineStr">
+        <is>
+          <t>79.581 (1.237)</t>
+        </is>
+      </c>
+      <c r="R5" s="11" t="inlineStr">
+        <is>
+          <t>55.220 (1.817)</t>
+        </is>
+      </c>
+      <c r="S5" s="11" t="inlineStr">
+        <is>
+          <t>49.864 (1.681)</t>
+        </is>
+      </c>
+      <c r="T5" s="11" t="inlineStr">
+        <is>
+          <t>47.501 (1.463)</t>
+        </is>
+      </c>
+      <c r="U5" s="11" t="inlineStr">
+        <is>
+          <t>84.918 (0.628)</t>
+        </is>
+      </c>
+      <c r="V5" s="11" t="inlineStr">
+        <is>
+          <t>66.985 (1.703)</t>
+        </is>
+      </c>
+      <c r="W5" s="11" t="inlineStr">
+        <is>
+          <t>63.054 (0.818)</t>
+        </is>
+      </c>
+      <c r="X5" s="11" t="inlineStr">
+        <is>
+          <t>62.649 (1.093)</t>
+        </is>
+      </c>
+      <c r="Y5" s="11" t="inlineStr">
+        <is>
+          <t>89.322 (0.220)</t>
+        </is>
+      </c>
+      <c r="Z5" s="11" t="inlineStr">
+        <is>
+          <t>49.802 (4.329)</t>
+        </is>
+      </c>
+      <c r="AA5" s="11" t="inlineStr">
+        <is>
+          <t>44.868 (3.234)</t>
+        </is>
+      </c>
+      <c r="AB5" s="11" t="inlineStr">
+        <is>
+          <t>36.439 (4.286)</t>
+        </is>
+      </c>
+      <c r="AC5" s="11" t="inlineStr">
+        <is>
+          <t>84.190 (2.661)</t>
+        </is>
+      </c>
+      <c r="AD5" s="11" t="inlineStr">
+        <is>
+          <t>62.587 (4.622)</t>
+        </is>
+      </c>
+      <c r="AE5" s="11" t="inlineStr">
+        <is>
+          <t>56.403 (3.908)</t>
+        </is>
+      </c>
+      <c r="AF5" s="11" t="inlineStr">
+        <is>
+          <t>53.834 (4.775)</t>
+        </is>
+      </c>
+      <c r="AG5" s="11" t="inlineStr">
+        <is>
+          <t>92.043 (0.347)</t>
+        </is>
+      </c>
       <c r="AH5" s="11" t="n"/>
       <c r="AI5" s="11" t="n"/>
       <c r="AJ5" s="11" t="n"/>
       <c r="AK5" s="11" t="n"/>
-      <c r="AL5" s="11" t="n"/>
-      <c r="AM5" s="11" t="n"/>
-      <c r="AN5" s="11" t="n"/>
-      <c r="AO5" s="11" t="n"/>
-      <c r="AP5" s="11" t="n"/>
-      <c r="AQ5" s="11" t="n"/>
-      <c r="AR5" s="11" t="n"/>
-      <c r="AS5" s="11" t="n"/>
+      <c r="AL5" s="11" t="inlineStr">
+        <is>
+          <t>25.792 (0.436)</t>
+        </is>
+      </c>
+      <c r="AM5" s="11" t="inlineStr">
+        <is>
+          <t>27.114 (0.435)</t>
+        </is>
+      </c>
+      <c r="AN5" s="11" t="inlineStr">
+        <is>
+          <t>15.019 (0.262)</t>
+        </is>
+      </c>
+      <c r="AO5" s="11" t="inlineStr">
+        <is>
+          <t>55.790 (1.064)</t>
+        </is>
+      </c>
+      <c r="AP5" s="11" t="inlineStr">
+        <is>
+          <t>26.400 (0.354)</t>
+        </is>
+      </c>
+      <c r="AQ5" s="11" t="inlineStr">
+        <is>
+          <t>26.785 (0.347)</t>
+        </is>
+      </c>
+      <c r="AR5" s="11" t="inlineStr">
+        <is>
+          <t>17.215 (0.440)</t>
+        </is>
+      </c>
+      <c r="AS5" s="11" t="inlineStr">
+        <is>
+          <t>56.192 (0.660)</t>
+        </is>
+      </c>
       <c r="AT5" s="11" t="n"/>
       <c r="AU5" s="11" t="n"/>
       <c r="AV5" s="11" t="n"/>
       <c r="AW5" s="11" t="n"/>
-      <c r="AX5" s="11" t="n"/>
-      <c r="AY5" s="11" t="n"/>
-      <c r="AZ5" s="11" t="n"/>
-      <c r="BA5" s="11" t="n"/>
-      <c r="BB5" s="11" t="n"/>
-      <c r="BC5" s="11" t="n"/>
-      <c r="BD5" s="11" t="n"/>
-      <c r="BE5" s="11" t="n"/>
+      <c r="AX5" s="11" t="inlineStr">
+        <is>
+          <t>15.315 (0.425)</t>
+        </is>
+      </c>
+      <c r="AY5" s="11" t="inlineStr">
+        <is>
+          <t>20.568 (0.376)</t>
+        </is>
+      </c>
+      <c r="AZ5" s="11" t="inlineStr">
+        <is>
+          <t>8.826 (1.089)</t>
+        </is>
+      </c>
+      <c r="BA5" s="11" t="inlineStr">
+        <is>
+          <t>49.242 (0.391)</t>
+        </is>
+      </c>
+      <c r="BB5" s="11" t="inlineStr">
+        <is>
+          <t>17.108 (0.805)</t>
+        </is>
+      </c>
+      <c r="BC5" s="11" t="inlineStr">
+        <is>
+          <t>19.982 (0.447)</t>
+        </is>
+      </c>
+      <c r="BD5" s="11" t="inlineStr">
+        <is>
+          <t>11.010 (0.879)</t>
+        </is>
+      </c>
+      <c r="BE5" s="11" t="inlineStr">
+        <is>
+          <t>49.419 (0.675)</t>
+        </is>
+      </c>
       <c r="BF5" s="11" t="n"/>
       <c r="BG5" s="11" t="n"/>
       <c r="BH5" s="11" t="n"/>
       <c r="BI5" s="11" t="n"/>
-      <c r="BJ5" s="11" t="n"/>
-      <c r="BK5" s="11" t="n"/>
-      <c r="BL5" s="11" t="n"/>
-      <c r="BM5" s="11" t="n"/>
-      <c r="BN5" s="11" t="n"/>
-      <c r="BO5" s="11" t="n"/>
-      <c r="BP5" s="11" t="n"/>
-      <c r="BQ5" s="11" t="n"/>
+      <c r="BJ5" s="11" t="inlineStr">
+        <is>
+          <t>23.029 (0.592)</t>
+        </is>
+      </c>
+      <c r="BK5" s="11" t="inlineStr">
+        <is>
+          <t>21.034 (0.356)</t>
+        </is>
+      </c>
+      <c r="BL5" s="11" t="inlineStr">
+        <is>
+          <t>12.375 (1.048)</t>
+        </is>
+      </c>
+      <c r="BM5" s="11" t="inlineStr">
+        <is>
+          <t>54.866 (0.250)</t>
+        </is>
+      </c>
+      <c r="BN5" s="11" t="inlineStr">
+        <is>
+          <t>25.026 (0.231)</t>
+        </is>
+      </c>
+      <c r="BO5" s="11" t="inlineStr">
+        <is>
+          <t>22.101 (0.206)</t>
+        </is>
+      </c>
+      <c r="BP5" s="11" t="inlineStr">
+        <is>
+          <t>16.425 (0.573)</t>
+        </is>
+      </c>
+      <c r="BQ5" s="11" t="inlineStr">
+        <is>
+          <t>55.196 (0.277)</t>
+        </is>
+      </c>
       <c r="BR5" s="11" t="n"/>
     </row>
     <row r="6">
@@ -1249,105 +1684,364 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>72.232 (0.733)</t>
+          <t>69.806 (0.458)</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>67.330 (0.688)</t>
+          <t>58.913 (0.549)</t>
         </is>
       </c>
       <c r="D6" s="11" t="inlineStr">
         <is>
-          <t>62.079 (0.926)</t>
+          <t>58.926 (0.542)</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>95.935 (0.248)</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="n"/>
-      <c r="G6" s="11" t="n"/>
-      <c r="H6" s="11" t="n"/>
-      <c r="I6" s="11" t="n"/>
-      <c r="J6" s="11" t="n"/>
-      <c r="K6" s="11" t="n"/>
-      <c r="L6" s="11" t="n"/>
-      <c r="M6" s="11" t="n"/>
+          <t>93.289 (0.137)</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>77.213 (0.273)</t>
+        </is>
+      </c>
+      <c r="G6" s="11" t="inlineStr">
+        <is>
+          <t>70.536 (0.415)</t>
+        </is>
+      </c>
+      <c r="H6" s="11" t="inlineStr">
+        <is>
+          <t>72.710 (0.311)</t>
+        </is>
+      </c>
+      <c r="I6" s="11" t="inlineStr">
+        <is>
+          <t>95.143 (0.155)</t>
+        </is>
+      </c>
+      <c r="J6" s="11" t="inlineStr">
+        <is>
+          <t>78.918 (0.483)</t>
+        </is>
+      </c>
+      <c r="K6" s="11" t="inlineStr">
+        <is>
+          <t>78.041 (0.437)</t>
+        </is>
+      </c>
+      <c r="L6" s="11" t="inlineStr">
+        <is>
+          <t>77.027 (0.415)</t>
+        </is>
+      </c>
+      <c r="M6" s="11" t="inlineStr">
+        <is>
+          <t>95.876 (0.349)</t>
+        </is>
+      </c>
       <c r="N6" s="11" t="inlineStr">
         <is>
-          <t>53.720 (0.237)</t>
+          <t>45.724 (0.798)</t>
         </is>
       </c>
       <c r="O6" s="11" t="inlineStr">
         <is>
-          <t>50.416 (0.197)</t>
+          <t>41.601 (0.741)</t>
         </is>
       </c>
       <c r="P6" s="11" t="inlineStr">
         <is>
-          <t>40.702 (0.407)</t>
+          <t>35.398 (0.933)</t>
         </is>
       </c>
       <c r="Q6" s="11" t="inlineStr">
         <is>
-          <t>86.144 (0.269)</t>
-        </is>
-      </c>
-      <c r="R6" s="11" t="n"/>
-      <c r="S6" s="11" t="n"/>
-      <c r="T6" s="11" t="n"/>
-      <c r="U6" s="11" t="n"/>
-      <c r="V6" s="11" t="n"/>
-      <c r="W6" s="11" t="n"/>
-      <c r="X6" s="11" t="n"/>
-      <c r="Y6" s="11" t="n"/>
-      <c r="Z6" s="11" t="n"/>
-      <c r="AA6" s="11" t="n"/>
-      <c r="AB6" s="11" t="n"/>
-      <c r="AC6" s="11" t="n"/>
-      <c r="AD6" s="11" t="n"/>
-      <c r="AE6" s="11" t="n"/>
-      <c r="AF6" s="11" t="n"/>
-      <c r="AG6" s="11" t="n"/>
-      <c r="AH6" s="11" t="n"/>
-      <c r="AI6" s="11" t="n"/>
-      <c r="AJ6" s="11" t="n"/>
-      <c r="AK6" s="11" t="n"/>
-      <c r="AL6" s="11" t="n"/>
-      <c r="AM6" s="11" t="n"/>
-      <c r="AN6" s="11" t="n"/>
-      <c r="AO6" s="11" t="n"/>
-      <c r="AP6" s="11" t="n"/>
-      <c r="AQ6" s="11" t="n"/>
-      <c r="AR6" s="11" t="n"/>
-      <c r="AS6" s="11" t="n"/>
-      <c r="AT6" s="11" t="n"/>
-      <c r="AU6" s="11" t="n"/>
-      <c r="AV6" s="11" t="n"/>
-      <c r="AW6" s="11" t="n"/>
-      <c r="AX6" s="11" t="n"/>
-      <c r="AY6" s="11" t="n"/>
-      <c r="AZ6" s="11" t="n"/>
-      <c r="BA6" s="11" t="n"/>
-      <c r="BB6" s="11" t="n"/>
-      <c r="BC6" s="11" t="n"/>
-      <c r="BD6" s="11" t="n"/>
-      <c r="BE6" s="11" t="n"/>
-      <c r="BF6" s="11" t="n"/>
-      <c r="BG6" s="11" t="n"/>
-      <c r="BH6" s="11" t="n"/>
-      <c r="BI6" s="11" t="n"/>
-      <c r="BJ6" s="11" t="n"/>
-      <c r="BK6" s="11" t="n"/>
-      <c r="BL6" s="11" t="n"/>
-      <c r="BM6" s="11" t="n"/>
-      <c r="BN6" s="11" t="n"/>
-      <c r="BO6" s="11" t="n"/>
-      <c r="BP6" s="11" t="n"/>
-      <c r="BQ6" s="11" t="n"/>
-      <c r="BR6" s="11" t="n"/>
+          <t>82.563 (0.365)</t>
+        </is>
+      </c>
+      <c r="R6" s="11" t="inlineStr">
+        <is>
+          <t>53.549 (0.945)</t>
+        </is>
+      </c>
+      <c r="S6" s="11" t="inlineStr">
+        <is>
+          <t>48.272 (0.905)</t>
+        </is>
+      </c>
+      <c r="T6" s="11" t="inlineStr">
+        <is>
+          <t>45.209 (0.951)</t>
+        </is>
+      </c>
+      <c r="U6" s="11" t="inlineStr">
+        <is>
+          <t>86.585 (0.274)</t>
+        </is>
+      </c>
+      <c r="V6" s="11" t="inlineStr">
+        <is>
+          <t>65.504 (0.415)</t>
+        </is>
+      </c>
+      <c r="W6" s="11" t="inlineStr">
+        <is>
+          <t>62.160 (0.413)</t>
+        </is>
+      </c>
+      <c r="X6" s="11" t="inlineStr">
+        <is>
+          <t>61.199 (0.444)</t>
+        </is>
+      </c>
+      <c r="Y6" s="11" t="inlineStr">
+        <is>
+          <t>89.477 (0.126)</t>
+        </is>
+      </c>
+      <c r="Z6" s="11" t="inlineStr">
+        <is>
+          <t>47.971 (0.756)</t>
+        </is>
+      </c>
+      <c r="AA6" s="11" t="inlineStr">
+        <is>
+          <t>43.518 (0.569)</t>
+        </is>
+      </c>
+      <c r="AB6" s="11" t="inlineStr">
+        <is>
+          <t>34.784 (0.801)</t>
+        </is>
+      </c>
+      <c r="AC6" s="11" t="inlineStr">
+        <is>
+          <t>78.881 (1.272)</t>
+        </is>
+      </c>
+      <c r="AD6" s="11" t="inlineStr">
+        <is>
+          <t>60.112 (0.270)</t>
+        </is>
+      </c>
+      <c r="AE6" s="11" t="inlineStr">
+        <is>
+          <t>52.041 (0.210)</t>
+        </is>
+      </c>
+      <c r="AF6" s="11" t="inlineStr">
+        <is>
+          <t>45.348 (0.213)</t>
+        </is>
+      </c>
+      <c r="AG6" s="11" t="inlineStr">
+        <is>
+          <t>91.765 (0.092)</t>
+        </is>
+      </c>
+      <c r="AH6" s="11" t="inlineStr">
+        <is>
+          <t>81.846 (0.190)</t>
+        </is>
+      </c>
+      <c r="AI6" s="11" t="inlineStr">
+        <is>
+          <t>82.106 (0.143)</t>
+        </is>
+      </c>
+      <c r="AJ6" s="11" t="inlineStr">
+        <is>
+          <t>80.925 (0.181)</t>
+        </is>
+      </c>
+      <c r="AK6" s="11" t="inlineStr">
+        <is>
+          <t>93.938 (0.061)</t>
+        </is>
+      </c>
+      <c r="AL6" s="11" t="inlineStr">
+        <is>
+          <t>25.602 (0.121)</t>
+        </is>
+      </c>
+      <c r="AM6" s="11" t="inlineStr">
+        <is>
+          <t>26.914 (0.129)</t>
+        </is>
+      </c>
+      <c r="AN6" s="11" t="inlineStr">
+        <is>
+          <t>15.129 (0.157)</t>
+        </is>
+      </c>
+      <c r="AO6" s="11" t="inlineStr">
+        <is>
+          <t>56.822 (0.532)</t>
+        </is>
+      </c>
+      <c r="AP6" s="11" t="inlineStr">
+        <is>
+          <t>27.226 (0.206)</t>
+        </is>
+      </c>
+      <c r="AQ6" s="11" t="inlineStr">
+        <is>
+          <t>27.539 (0.201)</t>
+        </is>
+      </c>
+      <c r="AR6" s="11" t="inlineStr">
+        <is>
+          <t>18.719 (0.262)</t>
+        </is>
+      </c>
+      <c r="AS6" s="11" t="inlineStr">
+        <is>
+          <t>56.923 (0.226)</t>
+        </is>
+      </c>
+      <c r="AT6" s="11" t="inlineStr">
+        <is>
+          <t>25.052 (2.005)</t>
+        </is>
+      </c>
+      <c r="AU6" s="11" t="inlineStr">
+        <is>
+          <t>26.833 (2.006)</t>
+        </is>
+      </c>
+      <c r="AV6" s="11" t="inlineStr">
+        <is>
+          <t>22.931 (1.311)</t>
+        </is>
+      </c>
+      <c r="AW6" s="11" t="inlineStr">
+        <is>
+          <t>60.331 (3.339)</t>
+        </is>
+      </c>
+      <c r="AX6" s="11" t="inlineStr">
+        <is>
+          <t>15.409 (0.101)</t>
+        </is>
+      </c>
+      <c r="AY6" s="11" t="inlineStr">
+        <is>
+          <t>20.672 (0.142)</t>
+        </is>
+      </c>
+      <c r="AZ6" s="11" t="inlineStr">
+        <is>
+          <t>9.307 (0.292)</t>
+        </is>
+      </c>
+      <c r="BA6" s="11" t="inlineStr">
+        <is>
+          <t>51.493 (0.105)</t>
+        </is>
+      </c>
+      <c r="BB6" s="11" t="inlineStr">
+        <is>
+          <t>16.788 (0.143)</t>
+        </is>
+      </c>
+      <c r="BC6" s="11" t="inlineStr">
+        <is>
+          <t>20.632 (0.128)</t>
+        </is>
+      </c>
+      <c r="BD6" s="11" t="inlineStr">
+        <is>
+          <t>8.356 (0.364)</t>
+        </is>
+      </c>
+      <c r="BE6" s="11" t="inlineStr">
+        <is>
+          <t>51.705 (0.056)</t>
+        </is>
+      </c>
+      <c r="BF6" s="11" t="inlineStr">
+        <is>
+          <t>21.324 (0.217)</t>
+        </is>
+      </c>
+      <c r="BG6" s="11" t="inlineStr">
+        <is>
+          <t>21.338 (0.220)</t>
+        </is>
+      </c>
+      <c r="BH6" s="11" t="inlineStr">
+        <is>
+          <t>14.706 (1.383)</t>
+        </is>
+      </c>
+      <c r="BI6" s="11" t="inlineStr">
+        <is>
+          <t>51.209 (0.334)</t>
+        </is>
+      </c>
+      <c r="BJ6" s="11" t="inlineStr">
+        <is>
+          <t>21.760 (0.209)</t>
+        </is>
+      </c>
+      <c r="BK6" s="11" t="inlineStr">
+        <is>
+          <t>20.272 (0.117)</t>
+        </is>
+      </c>
+      <c r="BL6" s="11" t="inlineStr">
+        <is>
+          <t>9.052 (0.761)</t>
+        </is>
+      </c>
+      <c r="BM6" s="11" t="inlineStr">
+        <is>
+          <t>52.506 (2.313)</t>
+        </is>
+      </c>
+      <c r="BN6" s="11" t="inlineStr">
+        <is>
+          <t>25.077 (0.305)</t>
+        </is>
+      </c>
+      <c r="BO6" s="11" t="inlineStr">
+        <is>
+          <t>21.731 (0.311)</t>
+        </is>
+      </c>
+      <c r="BP6" s="11" t="inlineStr">
+        <is>
+          <t>16.260 (0.838)</t>
+        </is>
+      </c>
+      <c r="BQ6" s="11" t="inlineStr">
+        <is>
+          <t>53.792 (0.267)</t>
+        </is>
+      </c>
+      <c r="BR6" s="11" t="inlineStr">
+        <is>
+          <t>25.959 (0.305)</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>22.041 (0.320)</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>21.132 (0.711)</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>53.695 (0.360)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -1375,14 +2069,46 @@
           <t>88.377 (1.385)</t>
         </is>
       </c>
-      <c r="F7" s="11" t="n"/>
-      <c r="G7" s="11" t="n"/>
-      <c r="H7" s="11" t="n"/>
-      <c r="I7" s="11" t="n"/>
-      <c r="J7" s="11" t="n"/>
-      <c r="K7" s="11" t="n"/>
-      <c r="L7" s="11" t="n"/>
-      <c r="M7" s="11" t="n"/>
+      <c r="F7" s="11" t="inlineStr">
+        <is>
+          <t>73.475 (3.066)</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>67.782 (3.464)</t>
+        </is>
+      </c>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>68.693 (3.929)</t>
+        </is>
+      </c>
+      <c r="I7" s="11" t="inlineStr">
+        <is>
+          <t>92.894 (0.452)</t>
+        </is>
+      </c>
+      <c r="J7" s="11" t="inlineStr">
+        <is>
+          <t>80.578 (0.645)</t>
+        </is>
+      </c>
+      <c r="K7" s="11" t="inlineStr">
+        <is>
+          <t>80.204 (0.412)</t>
+        </is>
+      </c>
+      <c r="L7" s="11" t="inlineStr">
+        <is>
+          <t>78.600 (0.609)</t>
+        </is>
+      </c>
+      <c r="M7" s="11" t="inlineStr">
+        <is>
+          <t>96.494 (0.174)</t>
+        </is>
+      </c>
       <c r="N7" s="11" t="inlineStr">
         <is>
           <t>53.604 (3.324)</t>
@@ -1403,59 +2129,286 @@
           <t>81.371 (0.685)</t>
         </is>
       </c>
-      <c r="R7" s="11" t="n"/>
-      <c r="S7" s="11" t="n"/>
-      <c r="T7" s="11" t="n"/>
-      <c r="U7" s="11" t="n"/>
-      <c r="V7" s="11" t="n"/>
-      <c r="W7" s="11" t="n"/>
-      <c r="X7" s="11" t="n"/>
-      <c r="Y7" s="11" t="n"/>
-      <c r="Z7" s="11" t="n"/>
-      <c r="AA7" s="11" t="n"/>
-      <c r="AB7" s="11" t="n"/>
-      <c r="AC7" s="11" t="n"/>
-      <c r="AD7" s="11" t="n"/>
-      <c r="AE7" s="11" t="n"/>
-      <c r="AF7" s="11" t="n"/>
-      <c r="AG7" s="11" t="n"/>
-      <c r="AH7" s="11" t="n"/>
-      <c r="AI7" s="11" t="n"/>
-      <c r="AJ7" s="11" t="n"/>
-      <c r="AK7" s="11" t="n"/>
-      <c r="AL7" s="11" t="n"/>
-      <c r="AM7" s="11" t="n"/>
-      <c r="AN7" s="11" t="n"/>
-      <c r="AO7" s="11" t="n"/>
-      <c r="AP7" s="11" t="n"/>
-      <c r="AQ7" s="11" t="n"/>
-      <c r="AR7" s="11" t="n"/>
-      <c r="AS7" s="11" t="n"/>
-      <c r="AT7" s="11" t="n"/>
-      <c r="AU7" s="11" t="n"/>
-      <c r="AV7" s="11" t="n"/>
-      <c r="AW7" s="11" t="n"/>
-      <c r="AX7" s="11" t="n"/>
-      <c r="AY7" s="11" t="n"/>
-      <c r="AZ7" s="11" t="n"/>
-      <c r="BA7" s="11" t="n"/>
-      <c r="BB7" s="11" t="n"/>
-      <c r="BC7" s="11" t="n"/>
-      <c r="BD7" s="11" t="n"/>
-      <c r="BE7" s="11" t="n"/>
-      <c r="BF7" s="11" t="n"/>
-      <c r="BG7" s="11" t="n"/>
-      <c r="BH7" s="11" t="n"/>
-      <c r="BI7" s="11" t="n"/>
-      <c r="BJ7" s="11" t="n"/>
-      <c r="BK7" s="11" t="n"/>
-      <c r="BL7" s="11" t="n"/>
-      <c r="BM7" s="11" t="n"/>
-      <c r="BN7" s="11" t="n"/>
-      <c r="BO7" s="11" t="n"/>
-      <c r="BP7" s="11" t="n"/>
-      <c r="BQ7" s="11" t="n"/>
-      <c r="BR7" s="11" t="n"/>
+      <c r="R7" s="11" t="inlineStr">
+        <is>
+          <t>55.287 (3.000)</t>
+        </is>
+      </c>
+      <c r="S7" s="11" t="inlineStr">
+        <is>
+          <t>50.404 (3.034)</t>
+        </is>
+      </c>
+      <c r="T7" s="11" t="inlineStr">
+        <is>
+          <t>48.402 (3.580)</t>
+        </is>
+      </c>
+      <c r="U7" s="11" t="inlineStr">
+        <is>
+          <t>83.518 (0.506)</t>
+        </is>
+      </c>
+      <c r="V7" s="11" t="inlineStr">
+        <is>
+          <t>66.269 (0.602)</t>
+        </is>
+      </c>
+      <c r="W7" s="11" t="inlineStr">
+        <is>
+          <t>62.551 (0.375)</t>
+        </is>
+      </c>
+      <c r="X7" s="11" t="inlineStr">
+        <is>
+          <t>61.696 (0.536)</t>
+        </is>
+      </c>
+      <c r="Y7" s="11" t="inlineStr">
+        <is>
+          <t>89.965 (0.127)</t>
+        </is>
+      </c>
+      <c r="Z7" s="11" t="inlineStr">
+        <is>
+          <t>64.027 (0.615)</t>
+        </is>
+      </c>
+      <c r="AA7" s="11" t="inlineStr">
+        <is>
+          <t>55.558 (0.436)</t>
+        </is>
+      </c>
+      <c r="AB7" s="11" t="inlineStr">
+        <is>
+          <t>50.736 (1.931)</t>
+        </is>
+      </c>
+      <c r="AC7" s="11" t="inlineStr">
+        <is>
+          <t>87.515 (1.149)</t>
+        </is>
+      </c>
+      <c r="AD7" s="11" t="inlineStr">
+        <is>
+          <t>72.158 (1.509)</t>
+        </is>
+      </c>
+      <c r="AE7" s="11" t="inlineStr">
+        <is>
+          <t>67.338 (1.140)</t>
+        </is>
+      </c>
+      <c r="AF7" s="11" t="inlineStr">
+        <is>
+          <t>67.802 (1.410)</t>
+        </is>
+      </c>
+      <c r="AG7" s="11" t="inlineStr">
+        <is>
+          <t>90.533 (1.690)</t>
+        </is>
+      </c>
+      <c r="AH7" s="11" t="inlineStr">
+        <is>
+          <t>82.780 (0.111)</t>
+        </is>
+      </c>
+      <c r="AI7" s="11" t="inlineStr">
+        <is>
+          <t>83.109 (0.076)</t>
+        </is>
+      </c>
+      <c r="AJ7" s="11" t="inlineStr">
+        <is>
+          <t>81.963 (0.116)</t>
+        </is>
+      </c>
+      <c r="AK7" s="11" t="inlineStr">
+        <is>
+          <t>94.518 (0.033)</t>
+        </is>
+      </c>
+      <c r="AL7" s="11" t="inlineStr">
+        <is>
+          <t>23.720 (2.854)</t>
+        </is>
+      </c>
+      <c r="AM7" s="11" t="inlineStr">
+        <is>
+          <t>24.759 (2.934)</t>
+        </is>
+      </c>
+      <c r="AN7" s="11" t="inlineStr">
+        <is>
+          <t>14.116 (2.745)</t>
+        </is>
+      </c>
+      <c r="AO7" s="11" t="inlineStr">
+        <is>
+          <t>52.726 (2.838)</t>
+        </is>
+      </c>
+      <c r="AP7" s="11" t="inlineStr">
+        <is>
+          <t>24.376 (2.861)</t>
+        </is>
+      </c>
+      <c r="AQ7" s="11" t="inlineStr">
+        <is>
+          <t>24.499 (2.710)</t>
+        </is>
+      </c>
+      <c r="AR7" s="11" t="inlineStr">
+        <is>
+          <t>16.937 (2.138)</t>
+        </is>
+      </c>
+      <c r="AS7" s="11" t="inlineStr">
+        <is>
+          <t>53.114 (2.755)</t>
+        </is>
+      </c>
+      <c r="AT7" s="11" t="inlineStr">
+        <is>
+          <t>29.185 (2.256)</t>
+        </is>
+      </c>
+      <c r="AU7" s="11" t="inlineStr">
+        <is>
+          <t>29.654 (1.782)</t>
+        </is>
+      </c>
+      <c r="AV7" s="11" t="inlineStr">
+        <is>
+          <t>26.454 (2.533)</t>
+        </is>
+      </c>
+      <c r="AW7" s="11" t="inlineStr">
+        <is>
+          <t>64.903 (0.861)</t>
+        </is>
+      </c>
+      <c r="AX7" s="11" t="inlineStr">
+        <is>
+          <t>17.298 (3.160)</t>
+        </is>
+      </c>
+      <c r="AY7" s="11" t="inlineStr">
+        <is>
+          <t>19.813 (0.625)</t>
+        </is>
+      </c>
+      <c r="AZ7" s="11" t="inlineStr">
+        <is>
+          <t>10.620 (4.190)</t>
+        </is>
+      </c>
+      <c r="BA7" s="11" t="inlineStr">
+        <is>
+          <t>49.439 (0.706)</t>
+        </is>
+      </c>
+      <c r="BB7" s="11" t="inlineStr">
+        <is>
+          <t>18.750 (1.803)</t>
+        </is>
+      </c>
+      <c r="BC7" s="11" t="inlineStr">
+        <is>
+          <t>20.140 (0.736)</t>
+        </is>
+      </c>
+      <c r="BD7" s="11" t="inlineStr">
+        <is>
+          <t>13.905 (2.765)</t>
+        </is>
+      </c>
+      <c r="BE7" s="11" t="inlineStr">
+        <is>
+          <t>49.977 (0.739)</t>
+        </is>
+      </c>
+      <c r="BF7" s="11" t="inlineStr">
+        <is>
+          <t>21.610 (0.842)</t>
+        </is>
+      </c>
+      <c r="BG7" s="11" t="inlineStr">
+        <is>
+          <t>21.612 (0.842)</t>
+        </is>
+      </c>
+      <c r="BH7" s="11" t="inlineStr">
+        <is>
+          <t>18.757 (1.737)</t>
+        </is>
+      </c>
+      <c r="BI7" s="11" t="inlineStr">
+        <is>
+          <t>51.276 (0.527)</t>
+        </is>
+      </c>
+      <c r="BJ7" s="11" t="inlineStr">
+        <is>
+          <t>24.103 (1.264)</t>
+        </is>
+      </c>
+      <c r="BK7" s="11" t="inlineStr">
+        <is>
+          <t>22.210 (1.013)</t>
+        </is>
+      </c>
+      <c r="BL7" s="11" t="inlineStr">
+        <is>
+          <t>18.843 (2.869)</t>
+        </is>
+      </c>
+      <c r="BM7" s="11" t="inlineStr">
+        <is>
+          <t>53.603 (1.512)</t>
+        </is>
+      </c>
+      <c r="BN7" s="11" t="inlineStr">
+        <is>
+          <t>24.536 (3.377)</t>
+        </is>
+      </c>
+      <c r="BO7" s="11" t="inlineStr">
+        <is>
+          <t>23.831 (1.727)</t>
+        </is>
+      </c>
+      <c r="BP7" s="11" t="inlineStr">
+        <is>
+          <t>21.036 (3.160)</t>
+        </is>
+      </c>
+      <c r="BQ7" s="11" t="inlineStr">
+        <is>
+          <t>54.923 (1.989)</t>
+        </is>
+      </c>
+      <c r="BR7" s="11" t="inlineStr">
+        <is>
+          <t>22.554 (0.942)</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>22.572 (0.595)</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>21.550 (0.860)</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>53.662 (1.045)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -1483,14 +2436,46 @@
           <t>95.552 (0.131)</t>
         </is>
       </c>
-      <c r="F8" s="11" t="n"/>
-      <c r="G8" s="11" t="n"/>
-      <c r="H8" s="11" t="n"/>
-      <c r="I8" s="11" t="n"/>
-      <c r="J8" s="11" t="n"/>
-      <c r="K8" s="11" t="n"/>
-      <c r="L8" s="11" t="n"/>
-      <c r="M8" s="11" t="n"/>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>79.344 (0.494)</t>
+        </is>
+      </c>
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>78.543 (0.546)</t>
+        </is>
+      </c>
+      <c r="H8" s="11" t="inlineStr">
+        <is>
+          <t>77.164 (0.501)</t>
+        </is>
+      </c>
+      <c r="I8" s="11" t="inlineStr">
+        <is>
+          <t>96.315 (0.131)</t>
+        </is>
+      </c>
+      <c r="J8" s="11" t="inlineStr">
+        <is>
+          <t>80.412 (0.777)</t>
+        </is>
+      </c>
+      <c r="K8" s="11" t="inlineStr">
+        <is>
+          <t>79.981 (0.629)</t>
+        </is>
+      </c>
+      <c r="L8" s="11" t="inlineStr">
+        <is>
+          <t>78.262 (0.909)</t>
+        </is>
+      </c>
+      <c r="M8" s="11" t="inlineStr">
+        <is>
+          <t>96.079 (0.471)</t>
+        </is>
+      </c>
       <c r="N8" s="11" t="inlineStr">
         <is>
           <t>62.845 (0.723)</t>
@@ -1511,59 +2496,286 @@
           <t>85.909 (0.320)</t>
         </is>
       </c>
-      <c r="R8" s="11" t="n"/>
-      <c r="S8" s="11" t="n"/>
-      <c r="T8" s="11" t="n"/>
-      <c r="U8" s="11" t="n"/>
-      <c r="V8" s="11" t="n"/>
-      <c r="W8" s="11" t="n"/>
-      <c r="X8" s="11" t="n"/>
-      <c r="Y8" s="11" t="n"/>
-      <c r="Z8" s="11" t="n"/>
-      <c r="AA8" s="11" t="n"/>
-      <c r="AB8" s="11" t="n"/>
-      <c r="AC8" s="11" t="n"/>
-      <c r="AD8" s="11" t="n"/>
-      <c r="AE8" s="11" t="n"/>
-      <c r="AF8" s="11" t="n"/>
-      <c r="AG8" s="11" t="n"/>
-      <c r="AH8" s="11" t="n"/>
-      <c r="AI8" s="11" t="n"/>
-      <c r="AJ8" s="11" t="n"/>
-      <c r="AK8" s="11" t="n"/>
-      <c r="AL8" s="11" t="n"/>
-      <c r="AM8" s="11" t="n"/>
-      <c r="AN8" s="11" t="n"/>
-      <c r="AO8" s="11" t="n"/>
-      <c r="AP8" s="11" t="n"/>
-      <c r="AQ8" s="11" t="n"/>
-      <c r="AR8" s="11" t="n"/>
-      <c r="AS8" s="11" t="n"/>
-      <c r="AT8" s="11" t="n"/>
-      <c r="AU8" s="11" t="n"/>
-      <c r="AV8" s="11" t="n"/>
-      <c r="AW8" s="11" t="n"/>
-      <c r="AX8" s="11" t="n"/>
-      <c r="AY8" s="11" t="n"/>
-      <c r="AZ8" s="11" t="n"/>
-      <c r="BA8" s="11" t="n"/>
-      <c r="BB8" s="11" t="n"/>
-      <c r="BC8" s="11" t="n"/>
-      <c r="BD8" s="11" t="n"/>
-      <c r="BE8" s="11" t="n"/>
-      <c r="BF8" s="11" t="n"/>
-      <c r="BG8" s="11" t="n"/>
-      <c r="BH8" s="11" t="n"/>
-      <c r="BI8" s="11" t="n"/>
-      <c r="BJ8" s="11" t="n"/>
-      <c r="BK8" s="11" t="n"/>
-      <c r="BL8" s="11" t="n"/>
-      <c r="BM8" s="11" t="n"/>
-      <c r="BN8" s="11" t="n"/>
-      <c r="BO8" s="11" t="n"/>
-      <c r="BP8" s="11" t="n"/>
-      <c r="BQ8" s="11" t="n"/>
-      <c r="BR8" s="11" t="n"/>
+      <c r="R8" s="11" t="inlineStr">
+        <is>
+          <t>61.975 (0.764)</t>
+        </is>
+      </c>
+      <c r="S8" s="11" t="inlineStr">
+        <is>
+          <t>58.757 (0.953)</t>
+        </is>
+      </c>
+      <c r="T8" s="11" t="inlineStr">
+        <is>
+          <t>57.797 (0.959)</t>
+        </is>
+      </c>
+      <c r="U8" s="11" t="inlineStr">
+        <is>
+          <t>87.458 (0.434)</t>
+        </is>
+      </c>
+      <c r="V8" s="11" t="inlineStr">
+        <is>
+          <t>66.419 (0.857)</t>
+        </is>
+      </c>
+      <c r="W8" s="11" t="inlineStr">
+        <is>
+          <t>62.648 (0.598)</t>
+        </is>
+      </c>
+      <c r="X8" s="11" t="inlineStr">
+        <is>
+          <t>61.861 (0.774)</t>
+        </is>
+      </c>
+      <c r="Y8" s="11" t="inlineStr">
+        <is>
+          <t>89.737 (0.106)</t>
+        </is>
+      </c>
+      <c r="Z8" s="11" t="inlineStr">
+        <is>
+          <t>76.689 (0.310)</t>
+        </is>
+      </c>
+      <c r="AA8" s="11" t="inlineStr">
+        <is>
+          <t>73.622 (0.433)</t>
+        </is>
+      </c>
+      <c r="AB8" s="11" t="inlineStr">
+        <is>
+          <t>74.357 (0.401)</t>
+        </is>
+      </c>
+      <c r="AC8" s="11" t="inlineStr">
+        <is>
+          <t>91.381 (0.142)</t>
+        </is>
+      </c>
+      <c r="AD8" s="11" t="inlineStr">
+        <is>
+          <t>80.837 (0.168)</t>
+        </is>
+      </c>
+      <c r="AE8" s="11" t="inlineStr">
+        <is>
+          <t>79.472 (0.269)</t>
+        </is>
+      </c>
+      <c r="AF8" s="11" t="inlineStr">
+        <is>
+          <t>79.714 (0.240)</t>
+        </is>
+      </c>
+      <c r="AG8" s="11" t="inlineStr">
+        <is>
+          <t>93.260 (0.107)</t>
+        </is>
+      </c>
+      <c r="AH8" s="11" t="inlineStr">
+        <is>
+          <t>82.868 (0.152)</t>
+        </is>
+      </c>
+      <c r="AI8" s="11" t="inlineStr">
+        <is>
+          <t>83.123 (0.075)</t>
+        </is>
+      </c>
+      <c r="AJ8" s="11" t="inlineStr">
+        <is>
+          <t>82.027 (0.160)</t>
+        </is>
+      </c>
+      <c r="AK8" s="11" t="inlineStr">
+        <is>
+          <t>94.545 (0.042)</t>
+        </is>
+      </c>
+      <c r="AL8" s="11" t="inlineStr">
+        <is>
+          <t>26.264 (2.415)</t>
+        </is>
+      </c>
+      <c r="AM8" s="11" t="inlineStr">
+        <is>
+          <t>27.120 (2.607)</t>
+        </is>
+      </c>
+      <c r="AN8" s="11" t="inlineStr">
+        <is>
+          <t>20.801 (0.638)</t>
+        </is>
+      </c>
+      <c r="AO8" s="11" t="inlineStr">
+        <is>
+          <t>58.148 (1.915)</t>
+        </is>
+      </c>
+      <c r="AP8" s="11" t="inlineStr">
+        <is>
+          <t>24.338 (1.621)</t>
+        </is>
+      </c>
+      <c r="AQ8" s="11" t="inlineStr">
+        <is>
+          <t>24.799 (1.637)</t>
+        </is>
+      </c>
+      <c r="AR8" s="11" t="inlineStr">
+        <is>
+          <t>19.581 (0.990)</t>
+        </is>
+      </c>
+      <c r="AS8" s="11" t="inlineStr">
+        <is>
+          <t>58.538 (2.610)</t>
+        </is>
+      </c>
+      <c r="AT8" s="11" t="inlineStr">
+        <is>
+          <t>26.758 (1.889)</t>
+        </is>
+      </c>
+      <c r="AU8" s="11" t="inlineStr">
+        <is>
+          <t>28.040 (1.602)</t>
+        </is>
+      </c>
+      <c r="AV8" s="11" t="inlineStr">
+        <is>
+          <t>23.992 (1.975)</t>
+        </is>
+      </c>
+      <c r="AW8" s="11" t="inlineStr">
+        <is>
+          <t>63.484 (0.661)</t>
+        </is>
+      </c>
+      <c r="AX8" s="11" t="inlineStr">
+        <is>
+          <t>20.651 (2.303)</t>
+        </is>
+      </c>
+      <c r="AY8" s="11" t="inlineStr">
+        <is>
+          <t>22.028 (1.489)</t>
+        </is>
+      </c>
+      <c r="AZ8" s="11" t="inlineStr">
+        <is>
+          <t>17.959 (1.890)</t>
+        </is>
+      </c>
+      <c r="BA8" s="11" t="inlineStr">
+        <is>
+          <t>52.872 (0.551)</t>
+        </is>
+      </c>
+      <c r="BB8" s="11" t="inlineStr">
+        <is>
+          <t>20.046 (1.610)</t>
+        </is>
+      </c>
+      <c r="BC8" s="11" t="inlineStr">
+        <is>
+          <t>21.029 (1.000)</t>
+        </is>
+      </c>
+      <c r="BD8" s="11" t="inlineStr">
+        <is>
+          <t>16.731 (1.727)</t>
+        </is>
+      </c>
+      <c r="BE8" s="11" t="inlineStr">
+        <is>
+          <t>52.334 (0.770)</t>
+        </is>
+      </c>
+      <c r="BF8" s="11" t="inlineStr">
+        <is>
+          <t>21.464 (0.871)</t>
+        </is>
+      </c>
+      <c r="BG8" s="11" t="inlineStr">
+        <is>
+          <t>21.466 (0.872)</t>
+        </is>
+      </c>
+      <c r="BH8" s="11" t="inlineStr">
+        <is>
+          <t>18.801 (1.616)</t>
+        </is>
+      </c>
+      <c r="BI8" s="11" t="inlineStr">
+        <is>
+          <t>51.320 (0.950)</t>
+        </is>
+      </c>
+      <c r="BJ8" s="11" t="inlineStr">
+        <is>
+          <t>20.671 (2.472)</t>
+        </is>
+      </c>
+      <c r="BK8" s="11" t="inlineStr">
+        <is>
+          <t>20.990 (1.426)</t>
+        </is>
+      </c>
+      <c r="BL8" s="11" t="inlineStr">
+        <is>
+          <t>18.473 (2.445)</t>
+        </is>
+      </c>
+      <c r="BM8" s="11" t="inlineStr">
+        <is>
+          <t>50.914 (1.266)</t>
+        </is>
+      </c>
+      <c r="BN8" s="11" t="inlineStr">
+        <is>
+          <t>25.026 (0.380)</t>
+        </is>
+      </c>
+      <c r="BO8" s="11" t="inlineStr">
+        <is>
+          <t>25.642 (0.490)</t>
+        </is>
+      </c>
+      <c r="BP8" s="11" t="inlineStr">
+        <is>
+          <t>23.303 (0.382)</t>
+        </is>
+      </c>
+      <c r="BQ8" s="11" t="inlineStr">
+        <is>
+          <t>56.098 (0.132)</t>
+        </is>
+      </c>
+      <c r="BR8" s="11" t="inlineStr">
+        <is>
+          <t>23.074 (0.376)</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>22.651 (0.326)</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>21.906 (0.353)</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>53.215 (0.582)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -1591,14 +2803,46 @@
           <t>96.237 (0.044)</t>
         </is>
       </c>
-      <c r="F9" s="11" t="n"/>
-      <c r="G9" s="11" t="n"/>
-      <c r="H9" s="11" t="n"/>
-      <c r="I9" s="11" t="n"/>
-      <c r="J9" s="11" t="n"/>
-      <c r="K9" s="11" t="n"/>
-      <c r="L9" s="11" t="n"/>
-      <c r="M9" s="11" t="n"/>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>80.693 (0.267)</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="inlineStr">
+        <is>
+          <t>80.292 (0.374)</t>
+        </is>
+      </c>
+      <c r="H9" s="11" t="inlineStr">
+        <is>
+          <t>78.825 (0.324)</t>
+        </is>
+      </c>
+      <c r="I9" s="11" t="inlineStr">
+        <is>
+          <t>96.737 (0.073)</t>
+        </is>
+      </c>
+      <c r="J9" s="11" t="inlineStr">
+        <is>
+          <t>81.332 (0.619)</t>
+        </is>
+      </c>
+      <c r="K9" s="11" t="inlineStr">
+        <is>
+          <t>80.978 (0.329)</t>
+        </is>
+      </c>
+      <c r="L9" s="11" t="inlineStr">
+        <is>
+          <t>79.339 (0.610)</t>
+        </is>
+      </c>
+      <c r="M9" s="11" t="inlineStr">
+        <is>
+          <t>96.845 (0.044)</t>
+        </is>
+      </c>
       <c r="N9" s="11" t="inlineStr">
         <is>
           <t>64.298 (0.456)</t>
@@ -1619,14 +2863,46 @@
           <t>87.222 (0.245)</t>
         </is>
       </c>
-      <c r="R9" s="11" t="n"/>
-      <c r="S9" s="11" t="n"/>
-      <c r="T9" s="11" t="n"/>
-      <c r="U9" s="11" t="n"/>
-      <c r="V9" s="11" t="n"/>
-      <c r="W9" s="11" t="n"/>
-      <c r="X9" s="11" t="n"/>
-      <c r="Y9" s="11" t="n"/>
+      <c r="R9" s="11" t="inlineStr">
+        <is>
+          <t>64.157 (0.240)</t>
+        </is>
+      </c>
+      <c r="S9" s="11" t="inlineStr">
+        <is>
+          <t>60.876 (0.257)</t>
+        </is>
+      </c>
+      <c r="T9" s="11" t="inlineStr">
+        <is>
+          <t>60.119 (0.311)</t>
+        </is>
+      </c>
+      <c r="U9" s="11" t="inlineStr">
+        <is>
+          <t>88.405 (0.194)</t>
+        </is>
+      </c>
+      <c r="V9" s="11" t="inlineStr">
+        <is>
+          <t>66.258 (0.517)</t>
+        </is>
+      </c>
+      <c r="W9" s="11" t="inlineStr">
+        <is>
+          <t>62.993 (0.262)</t>
+        </is>
+      </c>
+      <c r="X9" s="11" t="inlineStr">
+        <is>
+          <t>61.945 (0.326)</t>
+        </is>
+      </c>
+      <c r="Y9" s="11" t="inlineStr">
+        <is>
+          <t>89.765 (0.077)</t>
+        </is>
+      </c>
       <c r="Z9" s="11" t="inlineStr">
         <is>
           <t>80.527 (0.175)</t>
@@ -1647,14 +2923,46 @@
           <t>93.141 (0.049)</t>
         </is>
       </c>
-      <c r="AD9" s="11" t="n"/>
-      <c r="AE9" s="11" t="n"/>
-      <c r="AF9" s="11" t="n"/>
-      <c r="AG9" s="11" t="n"/>
-      <c r="AH9" s="11" t="n"/>
-      <c r="AI9" s="11" t="n"/>
-      <c r="AJ9" s="11" t="n"/>
-      <c r="AK9" s="11" t="n"/>
+      <c r="AD9" s="11" t="inlineStr">
+        <is>
+          <t>81.467 (0.153)</t>
+        </is>
+      </c>
+      <c r="AE9" s="11" t="inlineStr">
+        <is>
+          <t>81.200 (0.183)</t>
+        </is>
+      </c>
+      <c r="AF9" s="11" t="inlineStr">
+        <is>
+          <t>80.750 (0.150)</t>
+        </is>
+      </c>
+      <c r="AG9" s="11" t="inlineStr">
+        <is>
+          <t>93.712 (0.070)</t>
+        </is>
+      </c>
+      <c r="AH9" s="11" t="inlineStr">
+        <is>
+          <t>74.561 (0.779)</t>
+        </is>
+      </c>
+      <c r="AI9" s="11" t="inlineStr">
+        <is>
+          <t>77.262 (0.623)</t>
+        </is>
+      </c>
+      <c r="AJ9" s="11" t="inlineStr">
+        <is>
+          <t>74.232 (0.769)</t>
+        </is>
+      </c>
+      <c r="AK9" s="11" t="inlineStr">
+        <is>
+          <t>92.622 (0.119)</t>
+        </is>
+      </c>
       <c r="AL9" s="11" t="inlineStr">
         <is>
           <t>23.471 (1.733)</t>
@@ -1675,35 +2983,166 @@
           <t>56.806 (2.372)</t>
         </is>
       </c>
-      <c r="AP9" s="11" t="n"/>
-      <c r="AQ9" s="11" t="n"/>
-      <c r="AR9" s="11" t="n"/>
-      <c r="AS9" s="11" t="n"/>
-      <c r="AT9" s="11" t="n"/>
-      <c r="AU9" s="11" t="n"/>
-      <c r="AV9" s="11" t="n"/>
-      <c r="AW9" s="11" t="n"/>
-      <c r="AX9" s="11" t="n"/>
-      <c r="AY9" s="11" t="n"/>
-      <c r="AZ9" s="11" t="n"/>
-      <c r="BA9" s="11" t="n"/>
-      <c r="BB9" s="11" t="n"/>
-      <c r="BC9" s="11" t="n"/>
-      <c r="BD9" s="11" t="n"/>
-      <c r="BE9" s="11" t="n"/>
-      <c r="BF9" s="11" t="n"/>
-      <c r="BG9" s="11" t="n"/>
-      <c r="BH9" s="11" t="n"/>
-      <c r="BI9" s="11" t="n"/>
-      <c r="BJ9" s="11" t="n"/>
-      <c r="BK9" s="11" t="n"/>
-      <c r="BL9" s="11" t="n"/>
-      <c r="BM9" s="11" t="n"/>
-      <c r="BN9" s="11" t="n"/>
-      <c r="BO9" s="11" t="n"/>
-      <c r="BP9" s="11" t="n"/>
-      <c r="BQ9" s="11" t="n"/>
-      <c r="BR9" s="11" t="n"/>
+      <c r="AP9" s="11" t="inlineStr">
+        <is>
+          <t>23.271 (1.376)</t>
+        </is>
+      </c>
+      <c r="AQ9" s="11" t="inlineStr">
+        <is>
+          <t>23.822 (1.459)</t>
+        </is>
+      </c>
+      <c r="AR9" s="11" t="inlineStr">
+        <is>
+          <t>19.994 (1.210)</t>
+        </is>
+      </c>
+      <c r="AS9" s="11" t="inlineStr">
+        <is>
+          <t>58.711 (1.956)</t>
+        </is>
+      </c>
+      <c r="AT9" s="11" t="inlineStr">
+        <is>
+          <t>28.558 (1.239)</t>
+        </is>
+      </c>
+      <c r="AU9" s="11" t="inlineStr">
+        <is>
+          <t>28.819 (0.758)</t>
+        </is>
+      </c>
+      <c r="AV9" s="11" t="inlineStr">
+        <is>
+          <t>25.400 (1.863)</t>
+        </is>
+      </c>
+      <c r="AW9" s="11" t="inlineStr">
+        <is>
+          <t>60.110 (1.556)</t>
+        </is>
+      </c>
+      <c r="AX9" s="11" t="inlineStr">
+        <is>
+          <t>23.476 (1.235)</t>
+        </is>
+      </c>
+      <c r="AY9" s="11" t="inlineStr">
+        <is>
+          <t>22.741 (0.840)</t>
+        </is>
+      </c>
+      <c r="AZ9" s="11" t="inlineStr">
+        <is>
+          <t>20.275 (1.481)</t>
+        </is>
+      </c>
+      <c r="BA9" s="11" t="inlineStr">
+        <is>
+          <t>52.985 (0.464)</t>
+        </is>
+      </c>
+      <c r="BB9" s="11" t="inlineStr">
+        <is>
+          <t>21.168 (0.945)</t>
+        </is>
+      </c>
+      <c r="BC9" s="11" t="inlineStr">
+        <is>
+          <t>21.112 (0.490)</t>
+        </is>
+      </c>
+      <c r="BD9" s="11" t="inlineStr">
+        <is>
+          <t>17.286 (0.940)</t>
+        </is>
+      </c>
+      <c r="BE9" s="11" t="inlineStr">
+        <is>
+          <t>51.169 (1.175)</t>
+        </is>
+      </c>
+      <c r="BF9" s="11" t="inlineStr">
+        <is>
+          <t>21.509 (0.936)</t>
+        </is>
+      </c>
+      <c r="BG9" s="11" t="inlineStr">
+        <is>
+          <t>21.513 (0.935)</t>
+        </is>
+      </c>
+      <c r="BH9" s="11" t="inlineStr">
+        <is>
+          <t>18.430 (2.121)</t>
+        </is>
+      </c>
+      <c r="BI9" s="11" t="inlineStr">
+        <is>
+          <t>51.671 (0.780)</t>
+        </is>
+      </c>
+      <c r="BJ9" s="11" t="inlineStr">
+        <is>
+          <t>21.916 (0.178)</t>
+        </is>
+      </c>
+      <c r="BK9" s="11" t="inlineStr">
+        <is>
+          <t>21.974 (0.146)</t>
+        </is>
+      </c>
+      <c r="BL9" s="11" t="inlineStr">
+        <is>
+          <t>21.331 (0.312)</t>
+        </is>
+      </c>
+      <c r="BM9" s="11" t="inlineStr">
+        <is>
+          <t>52.416 (0.143)</t>
+        </is>
+      </c>
+      <c r="BN9" s="11" t="inlineStr">
+        <is>
+          <t>24.530 (0.327)</t>
+        </is>
+      </c>
+      <c r="BO9" s="11" t="inlineStr">
+        <is>
+          <t>25.835 (0.296)</t>
+        </is>
+      </c>
+      <c r="BP9" s="11" t="inlineStr">
+        <is>
+          <t>24.012 (0.538)</t>
+        </is>
+      </c>
+      <c r="BQ9" s="11" t="inlineStr">
+        <is>
+          <t>55.718 (0.169)</t>
+        </is>
+      </c>
+      <c r="BR9" s="11" t="inlineStr">
+        <is>
+          <t>23.539 (0.503)</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>22.928 (0.452)</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>22.102 (0.535)</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>51.840 (0.457)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -1959,14 +3398,46 @@
           <t>95.725 (0.107)</t>
         </is>
       </c>
-      <c r="F13" s="11" t="n"/>
-      <c r="G13" s="11" t="n"/>
-      <c r="H13" s="11" t="n"/>
-      <c r="I13" s="11" t="n"/>
-      <c r="J13" s="11" t="n"/>
-      <c r="K13" s="11" t="n"/>
-      <c r="L13" s="11" t="n"/>
-      <c r="M13" s="11" t="n"/>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>80.032 (0.463)</t>
+        </is>
+      </c>
+      <c r="G13" s="11" t="inlineStr">
+        <is>
+          <t>77.105 (0.397)</t>
+        </is>
+      </c>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>77.661 (0.462)</t>
+        </is>
+      </c>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>96.265 (0.045)</t>
+        </is>
+      </c>
+      <c r="J13" s="11" t="inlineStr">
+        <is>
+          <t>80.412 (0.777)</t>
+        </is>
+      </c>
+      <c r="K13" s="11" t="inlineStr">
+        <is>
+          <t>79.981 (0.629)</t>
+        </is>
+      </c>
+      <c r="L13" s="11" t="inlineStr">
+        <is>
+          <t>78.259 (0.910)</t>
+        </is>
+      </c>
+      <c r="M13" s="11" t="inlineStr">
+        <is>
+          <t>96.079 (0.471)</t>
+        </is>
+      </c>
       <c r="N13" s="11" t="inlineStr">
         <is>
           <t>57.628 (0.819)</t>
@@ -1987,14 +3458,46 @@
           <t>85.099 (0.164)</t>
         </is>
       </c>
-      <c r="R13" s="11" t="n"/>
-      <c r="S13" s="11" t="n"/>
-      <c r="T13" s="11" t="n"/>
-      <c r="U13" s="11" t="n"/>
-      <c r="V13" s="11" t="n"/>
-      <c r="W13" s="11" t="n"/>
-      <c r="X13" s="11" t="n"/>
-      <c r="Y13" s="11" t="n"/>
+      <c r="R13" s="11" t="inlineStr">
+        <is>
+          <t>60.511 (0.608)</t>
+        </is>
+      </c>
+      <c r="S13" s="11" t="inlineStr">
+        <is>
+          <t>56.978 (0.743)</t>
+        </is>
+      </c>
+      <c r="T13" s="11" t="inlineStr">
+        <is>
+          <t>55.756 (0.848)</t>
+        </is>
+      </c>
+      <c r="U13" s="11" t="inlineStr">
+        <is>
+          <t>87.356 (0.222)</t>
+        </is>
+      </c>
+      <c r="V13" s="11" t="inlineStr">
+        <is>
+          <t>66.397 (0.847)</t>
+        </is>
+      </c>
+      <c r="W13" s="11" t="inlineStr">
+        <is>
+          <t>62.630 (0.593)</t>
+        </is>
+      </c>
+      <c r="X13" s="11" t="inlineStr">
+        <is>
+          <t>61.839 (0.767)</t>
+        </is>
+      </c>
+      <c r="Y13" s="11" t="inlineStr">
+        <is>
+          <t>89.738 (0.106)</t>
+        </is>
+      </c>
       <c r="Z13" s="11" t="inlineStr">
         <is>
           <t>70.682 (2.421)</t>
@@ -2015,14 +3518,46 @@
           <t>90.087 (3.594)</t>
         </is>
       </c>
-      <c r="AD13" s="11" t="n"/>
-      <c r="AE13" s="11" t="n"/>
-      <c r="AF13" s="11" t="n"/>
-      <c r="AG13" s="11" t="n"/>
-      <c r="AH13" s="11" t="n"/>
-      <c r="AI13" s="11" t="n"/>
-      <c r="AJ13" s="11" t="n"/>
-      <c r="AK13" s="11" t="n"/>
+      <c r="AD13" s="11" t="inlineStr">
+        <is>
+          <t>77.940 (0.363)</t>
+        </is>
+      </c>
+      <c r="AE13" s="11" t="inlineStr">
+        <is>
+          <t>75.177 (0.393)</t>
+        </is>
+      </c>
+      <c r="AF13" s="11" t="inlineStr">
+        <is>
+          <t>76.170 (0.371)</t>
+        </is>
+      </c>
+      <c r="AG13" s="11" t="inlineStr">
+        <is>
+          <t>93.144 (0.102)</t>
+        </is>
+      </c>
+      <c r="AH13" s="11" t="inlineStr">
+        <is>
+          <t>82.865 (0.144)</t>
+        </is>
+      </c>
+      <c r="AI13" s="11" t="inlineStr">
+        <is>
+          <t>83.127 (0.066)</t>
+        </is>
+      </c>
+      <c r="AJ13" s="11" t="inlineStr">
+        <is>
+          <t>82.023 (0.151)</t>
+        </is>
+      </c>
+      <c r="AK13" s="11" t="inlineStr">
+        <is>
+          <t>94.542 (0.040)</t>
+        </is>
+      </c>
       <c r="AL13" s="11" t="inlineStr">
         <is>
           <t>24.143 (1.296)</t>
@@ -2043,35 +3578,166 @@
           <t>55.995 (2.910)</t>
         </is>
       </c>
-      <c r="AP13" s="11" t="n"/>
-      <c r="AQ13" s="11" t="n"/>
-      <c r="AR13" s="11" t="n"/>
-      <c r="AS13" s="11" t="n"/>
-      <c r="AT13" s="11" t="n"/>
-      <c r="AU13" s="11" t="n"/>
-      <c r="AV13" s="11" t="n"/>
-      <c r="AW13" s="11" t="n"/>
-      <c r="AX13" s="11" t="n"/>
-      <c r="AY13" s="11" t="n"/>
-      <c r="AZ13" s="11" t="n"/>
-      <c r="BA13" s="11" t="n"/>
-      <c r="BB13" s="11" t="n"/>
-      <c r="BC13" s="11" t="n"/>
-      <c r="BD13" s="11" t="n"/>
-      <c r="BE13" s="11" t="n"/>
-      <c r="BF13" s="11" t="n"/>
-      <c r="BG13" s="11" t="n"/>
-      <c r="BH13" s="11" t="n"/>
-      <c r="BI13" s="11" t="n"/>
-      <c r="BJ13" s="11" t="n"/>
-      <c r="BK13" s="11" t="n"/>
-      <c r="BL13" s="11" t="n"/>
-      <c r="BM13" s="11" t="n"/>
-      <c r="BN13" s="11" t="n"/>
-      <c r="BO13" s="11" t="n"/>
-      <c r="BP13" s="11" t="n"/>
-      <c r="BQ13" s="11" t="n"/>
-      <c r="BR13" s="11" t="n"/>
+      <c r="AP13" s="11" t="inlineStr">
+        <is>
+          <t>23.731 (1.967)</t>
+        </is>
+      </c>
+      <c r="AQ13" s="11" t="inlineStr">
+        <is>
+          <t>24.165 (2.164)</t>
+        </is>
+      </c>
+      <c r="AR13" s="11" t="inlineStr">
+        <is>
+          <t>19.643 (1.262)</t>
+        </is>
+      </c>
+      <c r="AS13" s="11" t="inlineStr">
+        <is>
+          <t>58.193 (2.518)</t>
+        </is>
+      </c>
+      <c r="AT13" s="11" t="inlineStr">
+        <is>
+          <t>26.758 (1.889)</t>
+        </is>
+      </c>
+      <c r="AU13" s="11" t="inlineStr">
+        <is>
+          <t>28.040 (1.602)</t>
+        </is>
+      </c>
+      <c r="AV13" s="11" t="inlineStr">
+        <is>
+          <t>23.992 (1.975)</t>
+        </is>
+      </c>
+      <c r="AW13" s="11" t="inlineStr">
+        <is>
+          <t>63.484 (0.661)</t>
+        </is>
+      </c>
+      <c r="AX13" s="11" t="inlineStr">
+        <is>
+          <t>20.784 (2.194)</t>
+        </is>
+      </c>
+      <c r="AY13" s="11" t="inlineStr">
+        <is>
+          <t>22.053 (1.486)</t>
+        </is>
+      </c>
+      <c r="AZ13" s="11" t="inlineStr">
+        <is>
+          <t>17.873 (1.993)</t>
+        </is>
+      </c>
+      <c r="BA13" s="11" t="inlineStr">
+        <is>
+          <t>52.872 (0.550)</t>
+        </is>
+      </c>
+      <c r="BB13" s="11" t="inlineStr">
+        <is>
+          <t>20.046 (1.610)</t>
+        </is>
+      </c>
+      <c r="BC13" s="11" t="inlineStr">
+        <is>
+          <t>21.029 (1.000)</t>
+        </is>
+      </c>
+      <c r="BD13" s="11" t="inlineStr">
+        <is>
+          <t>16.731 (1.727)</t>
+        </is>
+      </c>
+      <c r="BE13" s="11" t="inlineStr">
+        <is>
+          <t>52.334 (0.770)</t>
+        </is>
+      </c>
+      <c r="BF13" s="11" t="inlineStr">
+        <is>
+          <t>21.464 (0.871)</t>
+        </is>
+      </c>
+      <c r="BG13" s="11" t="inlineStr">
+        <is>
+          <t>21.466 (0.872)</t>
+        </is>
+      </c>
+      <c r="BH13" s="11" t="inlineStr">
+        <is>
+          <t>18.801 (1.616)</t>
+        </is>
+      </c>
+      <c r="BI13" s="11" t="inlineStr">
+        <is>
+          <t>51.320 (0.950)</t>
+        </is>
+      </c>
+      <c r="BJ13" s="11" t="inlineStr">
+        <is>
+          <t>20.821 (2.645)</t>
+        </is>
+      </c>
+      <c r="BK13" s="11" t="inlineStr">
+        <is>
+          <t>20.835 (1.337)</t>
+        </is>
+      </c>
+      <c r="BL13" s="11" t="inlineStr">
+        <is>
+          <t>18.051 (2.327)</t>
+        </is>
+      </c>
+      <c r="BM13" s="11" t="inlineStr">
+        <is>
+          <t>50.718 (0.984)</t>
+        </is>
+      </c>
+      <c r="BN13" s="11" t="inlineStr">
+        <is>
+          <t>23.592 (1.009)</t>
+        </is>
+      </c>
+      <c r="BO13" s="11" t="inlineStr">
+        <is>
+          <t>22.539 (0.824)</t>
+        </is>
+      </c>
+      <c r="BP13" s="11" t="inlineStr">
+        <is>
+          <t>20.361 (0.970)</t>
+        </is>
+      </c>
+      <c r="BQ13" s="11" t="inlineStr">
+        <is>
+          <t>52.481 (1.053)</t>
+        </is>
+      </c>
+      <c r="BR13" s="11" t="inlineStr">
+        <is>
+          <t>23.072 (0.378)</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>22.649 (0.328)</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>21.905 (0.355)</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>53.215 (0.582)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n"/>
@@ -2515,30 +4181,126 @@
           <t>Vanilla (GCN)</t>
         </is>
       </c>
-      <c r="B22" s="11" t="n"/>
-      <c r="C22" s="11" t="n"/>
-      <c r="D22" s="11" t="n"/>
-      <c r="E22" s="11" t="n"/>
-      <c r="F22" s="11" t="n"/>
-      <c r="G22" s="11" t="n"/>
-      <c r="H22" s="11" t="n"/>
-      <c r="I22" s="11" t="n"/>
-      <c r="J22" s="11" t="n"/>
-      <c r="K22" s="11" t="n"/>
-      <c r="L22" s="11" t="n"/>
-      <c r="M22" s="11" t="n"/>
-      <c r="N22" s="11" t="n"/>
-      <c r="O22" s="11" t="n"/>
-      <c r="P22" s="11" t="n"/>
-      <c r="Q22" s="11" t="n"/>
-      <c r="R22" s="11" t="n"/>
-      <c r="S22" s="11" t="n"/>
-      <c r="T22" s="11" t="n"/>
-      <c r="U22" s="11" t="n"/>
-      <c r="V22" s="11" t="n"/>
-      <c r="W22" s="11" t="n"/>
-      <c r="X22" s="11" t="n"/>
-      <c r="Y22" s="11" t="n"/>
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t>41.923 (0.174)</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <t>22.249 (0.096)</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>16.082 (0.040)</t>
+        </is>
+      </c>
+      <c r="E22" s="11" t="inlineStr">
+        <is>
+          <t>70.818 (3.622)</t>
+        </is>
+      </c>
+      <c r="F22" s="11" t="inlineStr">
+        <is>
+          <t>47.676 (6.569)</t>
+        </is>
+      </c>
+      <c r="G22" s="11" t="inlineStr">
+        <is>
+          <t>26.858 (7.457)</t>
+        </is>
+      </c>
+      <c r="H22" s="11" t="inlineStr">
+        <is>
+          <t>21.922 (9.125)</t>
+        </is>
+      </c>
+      <c r="I22" s="11" t="inlineStr">
+        <is>
+          <t>85.235 (6.452)</t>
+        </is>
+      </c>
+      <c r="J22" s="11" t="inlineStr">
+        <is>
+          <t>78.844 (4.909)</t>
+        </is>
+      </c>
+      <c r="K22" s="11" t="inlineStr">
+        <is>
+          <t>80.748 (2.008)</t>
+        </is>
+      </c>
+      <c r="L22" s="11" t="inlineStr">
+        <is>
+          <t>75.301 (4.694)</t>
+        </is>
+      </c>
+      <c r="M22" s="11" t="inlineStr">
+        <is>
+          <t>95.038 (2.707)</t>
+        </is>
+      </c>
+      <c r="N22" s="11" t="inlineStr">
+        <is>
+          <t>56.133 (1.784)</t>
+        </is>
+      </c>
+      <c r="O22" s="11" t="inlineStr">
+        <is>
+          <t>22.828 (2.072)</t>
+        </is>
+      </c>
+      <c r="P22" s="11" t="inlineStr">
+        <is>
+          <t>19.920 (2.575)</t>
+        </is>
+      </c>
+      <c r="Q22" s="11" t="inlineStr">
+        <is>
+          <t>87.243 (1.560)</t>
+        </is>
+      </c>
+      <c r="R22" s="11" t="inlineStr">
+        <is>
+          <t>68.890 (0.998)</t>
+        </is>
+      </c>
+      <c r="S22" s="11" t="inlineStr">
+        <is>
+          <t>37.595 (1.728)</t>
+        </is>
+      </c>
+      <c r="T22" s="11" t="inlineStr">
+        <is>
+          <t>35.461 (1.196)</t>
+        </is>
+      </c>
+      <c r="U22" s="11" t="inlineStr">
+        <is>
+          <t>93.296 (0.612)</t>
+        </is>
+      </c>
+      <c r="V22" s="11" t="inlineStr">
+        <is>
+          <t>68.275 (1.331)</t>
+        </is>
+      </c>
+      <c r="W22" s="11" t="inlineStr">
+        <is>
+          <t>75.812 (0.457)</t>
+        </is>
+      </c>
+      <c r="X22" s="11" t="inlineStr">
+        <is>
+          <t>60.440 (0.664)</t>
+        </is>
+      </c>
+      <c r="Y22" s="11" t="inlineStr">
+        <is>
+          <t>94.263 (0.318)</t>
+        </is>
+      </c>
       <c r="Z22" s="11" t="n"/>
       <c r="AA22" s="11" t="n"/>
       <c r="AB22" s="11" t="n"/>
@@ -2564,14 +4326,46 @@
       <c r="K23" s="11" t="n"/>
       <c r="L23" s="11" t="n"/>
       <c r="M23" s="11" t="n"/>
-      <c r="N23" s="11" t="n"/>
-      <c r="O23" s="11" t="n"/>
-      <c r="P23" s="11" t="n"/>
-      <c r="Q23" s="11" t="n"/>
-      <c r="R23" s="11" t="n"/>
-      <c r="S23" s="11" t="n"/>
-      <c r="T23" s="11" t="n"/>
-      <c r="U23" s="11" t="n"/>
+      <c r="N23" s="11" t="inlineStr">
+        <is>
+          <t>66.016 (1.479)</t>
+        </is>
+      </c>
+      <c r="O23" s="11" t="inlineStr">
+        <is>
+          <t>35.801 (1.977)</t>
+        </is>
+      </c>
+      <c r="P23" s="11" t="inlineStr">
+        <is>
+          <t>33.602 (1.149)</t>
+        </is>
+      </c>
+      <c r="Q23" s="11" t="inlineStr">
+        <is>
+          <t>92.085 (0.746)</t>
+        </is>
+      </c>
+      <c r="R23" s="11" t="inlineStr">
+        <is>
+          <t>67.708 (3.102)</t>
+        </is>
+      </c>
+      <c r="S23" s="11" t="inlineStr">
+        <is>
+          <t>43.921 (2.578)</t>
+        </is>
+      </c>
+      <c r="T23" s="11" t="inlineStr">
+        <is>
+          <t>41.554 (2.420)</t>
+        </is>
+      </c>
+      <c r="U23" s="11" t="inlineStr">
+        <is>
+          <t>93.835 (0.498)</t>
+        </is>
+      </c>
       <c r="V23" s="11" t="n"/>
       <c r="W23" s="11" t="n"/>
       <c r="X23" s="11" t="n"/>
@@ -2589,30 +4383,126 @@
           <t>GraphSMOTE 21'</t>
         </is>
       </c>
-      <c r="B24" s="11" t="n"/>
-      <c r="C24" s="11" t="n"/>
-      <c r="D24" s="11" t="n"/>
-      <c r="E24" s="11" t="n"/>
-      <c r="F24" s="11" t="n"/>
-      <c r="G24" s="11" t="n"/>
-      <c r="H24" s="11" t="n"/>
-      <c r="I24" s="11" t="n"/>
-      <c r="J24" s="11" t="n"/>
-      <c r="K24" s="11" t="n"/>
-      <c r="L24" s="11" t="n"/>
-      <c r="M24" s="11" t="n"/>
-      <c r="N24" s="11" t="n"/>
-      <c r="O24" s="11" t="n"/>
-      <c r="P24" s="11" t="n"/>
-      <c r="Q24" s="11" t="n"/>
-      <c r="R24" s="11" t="n"/>
-      <c r="S24" s="11" t="n"/>
-      <c r="T24" s="11" t="n"/>
-      <c r="U24" s="11" t="n"/>
-      <c r="V24" s="11" t="n"/>
-      <c r="W24" s="11" t="n"/>
-      <c r="X24" s="11" t="n"/>
-      <c r="Y24" s="11" t="n"/>
+      <c r="B24" s="11" t="inlineStr">
+        <is>
+          <t>41.828 (0.237)</t>
+        </is>
+      </c>
+      <c r="C24" s="11" t="inlineStr">
+        <is>
+          <t>22.197 (0.130)</t>
+        </is>
+      </c>
+      <c r="D24" s="11" t="inlineStr">
+        <is>
+          <t>16.054 (0.051)</t>
+        </is>
+      </c>
+      <c r="E24" s="11" t="inlineStr">
+        <is>
+          <t>72.953 (3.342)</t>
+        </is>
+      </c>
+      <c r="F24" s="11" t="inlineStr">
+        <is>
+          <t>72.435 (5.802)</t>
+        </is>
+      </c>
+      <c r="G24" s="11" t="inlineStr">
+        <is>
+          <t>60.966 (7.167)</t>
+        </is>
+      </c>
+      <c r="H24" s="11" t="inlineStr">
+        <is>
+          <t>62.539 (6.991)</t>
+        </is>
+      </c>
+      <c r="I24" s="11" t="inlineStr">
+        <is>
+          <t>96.176 (0.408)</t>
+        </is>
+      </c>
+      <c r="J24" s="11" t="inlineStr">
+        <is>
+          <t>76.603 (1.306)</t>
+        </is>
+      </c>
+      <c r="K24" s="11" t="inlineStr">
+        <is>
+          <t>75.009 (1.136)</t>
+        </is>
+      </c>
+      <c r="L24" s="11" t="inlineStr">
+        <is>
+          <t>71.872 (1.383)</t>
+        </is>
+      </c>
+      <c r="M24" s="11" t="inlineStr">
+        <is>
+          <t>96.353 (0.186)</t>
+        </is>
+      </c>
+      <c r="N24" s="11" t="inlineStr">
+        <is>
+          <t>54.426 (4.321)</t>
+        </is>
+      </c>
+      <c r="O24" s="11" t="inlineStr">
+        <is>
+          <t>23.047 (2.558)</t>
+        </is>
+      </c>
+      <c r="P24" s="11" t="inlineStr">
+        <is>
+          <t>19.727 (3.600)</t>
+        </is>
+      </c>
+      <c r="Q24" s="11" t="inlineStr">
+        <is>
+          <t>85.774 (4.194)</t>
+        </is>
+      </c>
+      <c r="R24" s="11" t="inlineStr">
+        <is>
+          <t>69.642 (0.878)</t>
+        </is>
+      </c>
+      <c r="S24" s="11" t="inlineStr">
+        <is>
+          <t>44.350 (3.140)</t>
+        </is>
+      </c>
+      <c r="T24" s="11" t="inlineStr">
+        <is>
+          <t>42.295 (2.813)</t>
+        </is>
+      </c>
+      <c r="U24" s="11" t="inlineStr">
+        <is>
+          <t>94.323 (0.342)</t>
+        </is>
+      </c>
+      <c r="V24" s="11" t="inlineStr">
+        <is>
+          <t>71.934 (1.384)</t>
+        </is>
+      </c>
+      <c r="W24" s="11" t="inlineStr">
+        <is>
+          <t>71.060 (0.407)</t>
+        </is>
+      </c>
+      <c r="X24" s="11" t="inlineStr">
+        <is>
+          <t>58.242 (1.453)</t>
+        </is>
+      </c>
+      <c r="Y24" s="11" t="inlineStr">
+        <is>
+          <t>93.728 (0.184)</t>
+        </is>
+      </c>
       <c r="Z24" s="11" t="n"/>
       <c r="AA24" s="11" t="n"/>
       <c r="AB24" s="11" t="n"/>
@@ -2626,30 +4516,126 @@
           <t>ImGAGN 21'</t>
         </is>
       </c>
-      <c r="B25" s="11" t="n"/>
-      <c r="C25" s="11" t="n"/>
-      <c r="D25" s="11" t="n"/>
-      <c r="E25" s="11" t="n"/>
-      <c r="F25" s="11" t="n"/>
-      <c r="G25" s="11" t="n"/>
-      <c r="H25" s="11" t="n"/>
-      <c r="I25" s="11" t="n"/>
-      <c r="J25" s="11" t="n"/>
-      <c r="K25" s="11" t="n"/>
-      <c r="L25" s="11" t="n"/>
-      <c r="M25" s="11" t="n"/>
-      <c r="N25" s="11" t="n"/>
-      <c r="O25" s="11" t="n"/>
-      <c r="P25" s="11" t="n"/>
-      <c r="Q25" s="11" t="n"/>
-      <c r="R25" s="11" t="n"/>
-      <c r="S25" s="11" t="n"/>
-      <c r="T25" s="11" t="n"/>
-      <c r="U25" s="11" t="n"/>
-      <c r="V25" s="11" t="n"/>
-      <c r="W25" s="11" t="n"/>
-      <c r="X25" s="11" t="n"/>
-      <c r="Y25" s="11" t="n"/>
+      <c r="B25" s="11" t="inlineStr">
+        <is>
+          <t>71.015 (5.516)</t>
+        </is>
+      </c>
+      <c r="C25" s="11" t="inlineStr">
+        <is>
+          <t>63.035 (5.148)</t>
+        </is>
+      </c>
+      <c r="D25" s="11" t="inlineStr">
+        <is>
+          <t>62.559 (4.513)</t>
+        </is>
+      </c>
+      <c r="E25" s="11" t="inlineStr">
+        <is>
+          <t>90.364 (0.962)</t>
+        </is>
+      </c>
+      <c r="F25" s="11" t="inlineStr">
+        <is>
+          <t>75.688 (3.563)</t>
+        </is>
+      </c>
+      <c r="G25" s="11" t="inlineStr">
+        <is>
+          <t>72.203 (3.374)</t>
+        </is>
+      </c>
+      <c r="H25" s="11" t="inlineStr">
+        <is>
+          <t>71.385 (3.078)</t>
+        </is>
+      </c>
+      <c r="I25" s="11" t="inlineStr">
+        <is>
+          <t>92.283 (1.697)</t>
+        </is>
+      </c>
+      <c r="J25" s="11" t="inlineStr">
+        <is>
+          <t>74.230 (5.351)</t>
+        </is>
+      </c>
+      <c r="K25" s="11" t="inlineStr">
+        <is>
+          <t>76.651 (2.279)</t>
+        </is>
+      </c>
+      <c r="L25" s="11" t="inlineStr">
+        <is>
+          <t>70.499 (5.088)</t>
+        </is>
+      </c>
+      <c r="M25" s="11" t="inlineStr">
+        <is>
+          <t>92.176 (3.811)</t>
+        </is>
+      </c>
+      <c r="N25" s="11" t="inlineStr">
+        <is>
+          <t>63.785 (5.792)</t>
+        </is>
+      </c>
+      <c r="O25" s="11" t="inlineStr">
+        <is>
+          <t>65.876 (2.146)</t>
+        </is>
+      </c>
+      <c r="P25" s="11" t="inlineStr">
+        <is>
+          <t>60.587 (4.367)</t>
+        </is>
+      </c>
+      <c r="Q25" s="11" t="inlineStr">
+        <is>
+          <t>87.636 (2.269)</t>
+        </is>
+      </c>
+      <c r="R25" s="11" t="inlineStr">
+        <is>
+          <t>69.294 (4.077)</t>
+        </is>
+      </c>
+      <c r="S25" s="11" t="inlineStr">
+        <is>
+          <t>69.800 (2.360)</t>
+        </is>
+      </c>
+      <c r="T25" s="11" t="inlineStr">
+        <is>
+          <t>65.450 (4.243)</t>
+        </is>
+      </c>
+      <c r="U25" s="11" t="inlineStr">
+        <is>
+          <t>91.646 (2.082)</t>
+        </is>
+      </c>
+      <c r="V25" s="11" t="inlineStr">
+        <is>
+          <t>67.698 (1.324)</t>
+        </is>
+      </c>
+      <c r="W25" s="11" t="inlineStr">
+        <is>
+          <t>74.596 (0.910)</t>
+        </is>
+      </c>
+      <c r="X25" s="11" t="inlineStr">
+        <is>
+          <t>58.465 (1.619)</t>
+        </is>
+      </c>
+      <c r="Y25" s="11" t="inlineStr">
+        <is>
+          <t>94.000 (0.218)</t>
+        </is>
+      </c>
       <c r="Z25" s="11" t="n"/>
       <c r="AA25" s="11" t="n"/>
       <c r="AB25" s="11" t="n"/>
@@ -2663,30 +4649,126 @@
           <t>GraphENS 22'</t>
         </is>
       </c>
-      <c r="B26" s="11" t="n"/>
-      <c r="C26" s="11" t="n"/>
-      <c r="D26" s="11" t="n"/>
-      <c r="E26" s="11" t="n"/>
-      <c r="F26" s="11" t="n"/>
-      <c r="G26" s="11" t="n"/>
-      <c r="H26" s="11" t="n"/>
-      <c r="I26" s="11" t="n"/>
-      <c r="J26" s="11" t="n"/>
-      <c r="K26" s="11" t="n"/>
-      <c r="L26" s="11" t="n"/>
-      <c r="M26" s="11" t="n"/>
-      <c r="N26" s="11" t="n"/>
-      <c r="O26" s="11" t="n"/>
-      <c r="P26" s="11" t="n"/>
-      <c r="Q26" s="11" t="n"/>
-      <c r="R26" s="11" t="n"/>
-      <c r="S26" s="11" t="n"/>
-      <c r="T26" s="11" t="n"/>
-      <c r="U26" s="11" t="n"/>
-      <c r="V26" s="11" t="n"/>
-      <c r="W26" s="11" t="n"/>
-      <c r="X26" s="11" t="n"/>
-      <c r="Y26" s="11" t="n"/>
+      <c r="B26" s="11" t="inlineStr">
+        <is>
+          <t>83.528 (1.889)</t>
+        </is>
+      </c>
+      <c r="C26" s="11" t="inlineStr">
+        <is>
+          <t>83.432 (1.005)</t>
+        </is>
+      </c>
+      <c r="D26" s="11" t="inlineStr">
+        <is>
+          <t>80.740 (1.929)</t>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr">
+        <is>
+          <t>96.372 (1.563)</t>
+        </is>
+      </c>
+      <c r="F26" s="11" t="inlineStr">
+        <is>
+          <t>82.829 (3.450)</t>
+        </is>
+      </c>
+      <c r="G26" s="11" t="inlineStr">
+        <is>
+          <t>83.366 (1.812)</t>
+        </is>
+      </c>
+      <c r="H26" s="11" t="inlineStr">
+        <is>
+          <t>79.856 (3.403)</t>
+        </is>
+      </c>
+      <c r="I26" s="11" t="inlineStr">
+        <is>
+          <t>96.148 (2.141)</t>
+        </is>
+      </c>
+      <c r="J26" s="11" t="inlineStr">
+        <is>
+          <t>78.930 (4.943)</t>
+        </is>
+      </c>
+      <c r="K26" s="11" t="inlineStr">
+        <is>
+          <t>80.890 (1.920)</t>
+        </is>
+      </c>
+      <c r="L26" s="11" t="inlineStr">
+        <is>
+          <t>75.420 (4.744)</t>
+        </is>
+      </c>
+      <c r="M26" s="11" t="inlineStr">
+        <is>
+          <t>95.119 (2.761)</t>
+        </is>
+      </c>
+      <c r="N26" s="11" t="inlineStr">
+        <is>
+          <t>69.668 (2.683)</t>
+        </is>
+      </c>
+      <c r="O26" s="11" t="inlineStr">
+        <is>
+          <t>71.121 (1.097)</t>
+        </is>
+      </c>
+      <c r="P26" s="11" t="inlineStr">
+        <is>
+          <t>64.385 (2.398)</t>
+        </is>
+      </c>
+      <c r="Q26" s="11" t="inlineStr">
+        <is>
+          <t>95.122 (1.390)</t>
+        </is>
+      </c>
+      <c r="R26" s="11" t="inlineStr">
+        <is>
+          <t>70.097 (2.063)</t>
+        </is>
+      </c>
+      <c r="S26" s="11" t="inlineStr">
+        <is>
+          <t>70.917 (1.274)</t>
+        </is>
+      </c>
+      <c r="T26" s="11" t="inlineStr">
+        <is>
+          <t>64.774 (1.610)</t>
+        </is>
+      </c>
+      <c r="U26" s="11" t="inlineStr">
+        <is>
+          <t>95.208 (0.955)</t>
+        </is>
+      </c>
+      <c r="V26" s="11" t="inlineStr">
+        <is>
+          <t>67.926 (1.210)</t>
+        </is>
+      </c>
+      <c r="W26" s="11" t="inlineStr">
+        <is>
+          <t>75.697 (0.488)</t>
+        </is>
+      </c>
+      <c r="X26" s="11" t="inlineStr">
+        <is>
+          <t>60.011 (1.097)</t>
+        </is>
+      </c>
+      <c r="Y26" s="11" t="inlineStr">
+        <is>
+          <t>94.176 (0.370)</t>
+        </is>
+      </c>
       <c r="Z26" s="11" t="n"/>
       <c r="AA26" s="11" t="n"/>
       <c r="AB26" s="11" t="n"/>
@@ -2700,30 +4782,126 @@
           <t>TAM 22'</t>
         </is>
       </c>
-      <c r="B27" s="11" t="n"/>
-      <c r="C27" s="11" t="n"/>
-      <c r="D27" s="11" t="n"/>
-      <c r="E27" s="11" t="n"/>
-      <c r="F27" s="11" t="n"/>
-      <c r="G27" s="11" t="n"/>
-      <c r="H27" s="11" t="n"/>
-      <c r="I27" s="11" t="n"/>
-      <c r="J27" s="11" t="n"/>
-      <c r="K27" s="11" t="n"/>
-      <c r="L27" s="11" t="n"/>
-      <c r="M27" s="11" t="n"/>
-      <c r="N27" s="11" t="n"/>
-      <c r="O27" s="11" t="n"/>
-      <c r="P27" s="11" t="n"/>
-      <c r="Q27" s="11" t="n"/>
-      <c r="R27" s="11" t="n"/>
-      <c r="S27" s="11" t="n"/>
-      <c r="T27" s="11" t="n"/>
-      <c r="U27" s="11" t="n"/>
-      <c r="V27" s="11" t="n"/>
-      <c r="W27" s="11" t="n"/>
-      <c r="X27" s="11" t="n"/>
-      <c r="Y27" s="11" t="n"/>
+      <c r="B27" s="11" t="inlineStr">
+        <is>
+          <t>84.176 (0.500)</t>
+        </is>
+      </c>
+      <c r="C27" s="11" t="inlineStr">
+        <is>
+          <t>83.251 (0.485)</t>
+        </is>
+      </c>
+      <c r="D27" s="11" t="inlineStr">
+        <is>
+          <t>81.505 (0.581)</t>
+        </is>
+      </c>
+      <c r="E27" s="11" t="inlineStr">
+        <is>
+          <t>97.040 (0.085)</t>
+        </is>
+      </c>
+      <c r="F27" s="11" t="inlineStr">
+        <is>
+          <t>84.479 (0.261)</t>
+        </is>
+      </c>
+      <c r="G27" s="11" t="inlineStr">
+        <is>
+          <t>83.891 (0.147)</t>
+        </is>
+      </c>
+      <c r="H27" s="11" t="inlineStr">
+        <is>
+          <t>81.794 (0.293)</t>
+        </is>
+      </c>
+      <c r="I27" s="11" t="inlineStr">
+        <is>
+          <t>97.159 (0.086)</t>
+        </is>
+      </c>
+      <c r="J27" s="11" t="inlineStr">
+        <is>
+          <t>84.470 (0.520)</t>
+        </is>
+      </c>
+      <c r="K27" s="11" t="inlineStr">
+        <is>
+          <t>82.481 (0.608)</t>
+        </is>
+      </c>
+      <c r="L27" s="11" t="inlineStr">
+        <is>
+          <t>79.972 (0.711)</t>
+        </is>
+      </c>
+      <c r="M27" s="11" t="inlineStr">
+        <is>
+          <t>97.060 (0.048)</t>
+        </is>
+      </c>
+      <c r="N27" s="11" t="inlineStr">
+        <is>
+          <t>72.433 (1.977)</t>
+        </is>
+      </c>
+      <c r="O27" s="11" t="inlineStr">
+        <is>
+          <t>70.104 (0.926)</t>
+        </is>
+      </c>
+      <c r="P27" s="11" t="inlineStr">
+        <is>
+          <t>63.572 (1.590)</t>
+        </is>
+      </c>
+      <c r="Q27" s="11" t="inlineStr">
+        <is>
+          <t>95.286 (0.678)</t>
+        </is>
+      </c>
+      <c r="R27" s="11" t="inlineStr">
+        <is>
+          <t>70.877 (2.186)</t>
+        </is>
+      </c>
+      <c r="S27" s="11" t="inlineStr">
+        <is>
+          <t>69.823 (1.539)</t>
+        </is>
+      </c>
+      <c r="T27" s="11" t="inlineStr">
+        <is>
+          <t>63.509 (2.377)</t>
+        </is>
+      </c>
+      <c r="U27" s="11" t="inlineStr">
+        <is>
+          <t>94.845 (1.010)</t>
+        </is>
+      </c>
+      <c r="V27" s="11" t="inlineStr">
+        <is>
+          <t>67.133 (1.128)</t>
+        </is>
+      </c>
+      <c r="W27" s="11" t="inlineStr">
+        <is>
+          <t>74.454 (0.292)</t>
+        </is>
+      </c>
+      <c r="X27" s="11" t="inlineStr">
+        <is>
+          <t>56.995 (1.746)</t>
+        </is>
+      </c>
+      <c r="Y27" s="11" t="inlineStr">
+        <is>
+          <t>94.208 (0.347)</t>
+        </is>
+      </c>
       <c r="Z27" s="11" t="n"/>
       <c r="AA27" s="11" t="n"/>
       <c r="AB27" s="11" t="n"/>
@@ -2848,30 +5026,126 @@
           <t>GraphSHA 23‘</t>
         </is>
       </c>
-      <c r="B31" s="11" t="n"/>
-      <c r="C31" s="11" t="n"/>
-      <c r="D31" s="11" t="n"/>
-      <c r="E31" s="11" t="n"/>
-      <c r="F31" s="11" t="n"/>
-      <c r="G31" s="11" t="n"/>
-      <c r="H31" s="11" t="n"/>
-      <c r="I31" s="11" t="n"/>
-      <c r="J31" s="11" t="n"/>
-      <c r="K31" s="11" t="n"/>
-      <c r="L31" s="11" t="n"/>
-      <c r="M31" s="11" t="n"/>
-      <c r="N31" s="11" t="n"/>
-      <c r="O31" s="11" t="n"/>
-      <c r="P31" s="11" t="n"/>
-      <c r="Q31" s="11" t="n"/>
-      <c r="R31" s="11" t="n"/>
-      <c r="S31" s="11" t="n"/>
-      <c r="T31" s="11" t="n"/>
-      <c r="U31" s="11" t="n"/>
-      <c r="V31" s="11" t="n"/>
-      <c r="W31" s="11" t="n"/>
-      <c r="X31" s="11" t="n"/>
-      <c r="Y31" s="11" t="n"/>
+      <c r="B31" s="11" t="inlineStr">
+        <is>
+          <t>73.980 (7.997)</t>
+        </is>
+      </c>
+      <c r="C31" s="11" t="inlineStr">
+        <is>
+          <t>67.877 (1.514)</t>
+        </is>
+      </c>
+      <c r="D31" s="11" t="inlineStr">
+        <is>
+          <t>66.776 (4.721)</t>
+        </is>
+      </c>
+      <c r="E31" s="11" t="inlineStr">
+        <is>
+          <t>96.359 (1.314)</t>
+        </is>
+      </c>
+      <c r="F31" s="11" t="inlineStr">
+        <is>
+          <t>82.435 (1.039)</t>
+        </is>
+      </c>
+      <c r="G31" s="11" t="inlineStr">
+        <is>
+          <t>76.358 (1.400)</t>
+        </is>
+      </c>
+      <c r="H31" s="11" t="inlineStr">
+        <is>
+          <t>77.854 (1.398)</t>
+        </is>
+      </c>
+      <c r="I31" s="11" t="inlineStr">
+        <is>
+          <t>97.128 (0.088)</t>
+        </is>
+      </c>
+      <c r="J31" s="11" t="inlineStr">
+        <is>
+          <t>79.001 (4.993)</t>
+        </is>
+      </c>
+      <c r="K31" s="11" t="inlineStr">
+        <is>
+          <t>80.935 (1.946)</t>
+        </is>
+      </c>
+      <c r="L31" s="11" t="inlineStr">
+        <is>
+          <t>75.503 (4.806)</t>
+        </is>
+      </c>
+      <c r="M31" s="11" t="inlineStr">
+        <is>
+          <t>95.113 (2.757)</t>
+        </is>
+      </c>
+      <c r="N31" s="11" t="inlineStr">
+        <is>
+          <t>72.370 (1.278)</t>
+        </is>
+      </c>
+      <c r="O31" s="11" t="inlineStr">
+        <is>
+          <t>67.768 (0.798)</t>
+        </is>
+      </c>
+      <c r="P31" s="11" t="inlineStr">
+        <is>
+          <t>65.585 (0.687)</t>
+        </is>
+      </c>
+      <c r="Q31" s="11" t="inlineStr">
+        <is>
+          <t>95.428 (0.109)</t>
+        </is>
+      </c>
+      <c r="R31" s="11" t="inlineStr">
+        <is>
+          <t>72.031 (0.820)</t>
+        </is>
+      </c>
+      <c r="S31" s="11" t="inlineStr">
+        <is>
+          <t>69.669 (0.518)</t>
+        </is>
+      </c>
+      <c r="T31" s="11" t="inlineStr">
+        <is>
+          <t>66.270 (0.602)</t>
+        </is>
+      </c>
+      <c r="U31" s="11" t="inlineStr">
+        <is>
+          <t>95.592 (0.092)</t>
+        </is>
+      </c>
+      <c r="V31" s="11" t="inlineStr">
+        <is>
+          <t>68.503 (1.382)</t>
+        </is>
+      </c>
+      <c r="W31" s="11" t="inlineStr">
+        <is>
+          <t>75.756 (0.496)</t>
+        </is>
+      </c>
+      <c r="X31" s="11" t="inlineStr">
+        <is>
+          <t>60.161 (1.167)</t>
+        </is>
+      </c>
+      <c r="Y31" s="11" t="inlineStr">
+        <is>
+          <t>94.200 (0.380)</t>
+        </is>
+      </c>
       <c r="Z31" s="11" t="n"/>
       <c r="AA31" s="11" t="n"/>
       <c r="AB31" s="11" t="n"/>

--- a/Imbalance Benchmark.xlsx
+++ b/Imbalance Benchmark.xlsx
@@ -1015,366 +1015,75 @@
           <t>Vanilla (GCN)</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>62.204 (3.567)</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>47.955 (5.255)</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>43.972 (7.747)</t>
-        </is>
-      </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>91.553 (0.798)</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>76.363 (0.129)</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="inlineStr">
-        <is>
-          <t>69.165 (0.257)</t>
-        </is>
-      </c>
-      <c r="H4" s="11" t="inlineStr">
-        <is>
-          <t>71.153 (0.301)</t>
-        </is>
-      </c>
-      <c r="I4" s="11" t="inlineStr">
-        <is>
-          <t>95.039 (0.084)</t>
-        </is>
-      </c>
-      <c r="J4" s="11" t="inlineStr">
-        <is>
-          <t>80.412 (0.777)</t>
-        </is>
-      </c>
-      <c r="K4" s="11" t="inlineStr">
-        <is>
-          <t>79.981 (0.629)</t>
-        </is>
-      </c>
-      <c r="L4" s="11" t="inlineStr">
-        <is>
-          <t>78.262 (0.909)</t>
-        </is>
-      </c>
-      <c r="M4" s="11" t="inlineStr">
-        <is>
-          <t>96.079 (0.471)</t>
-        </is>
-      </c>
-      <c r="N4" s="11" t="inlineStr">
-        <is>
-          <t>42.481 (0.242)</t>
-        </is>
-      </c>
-      <c r="O4" s="11" t="inlineStr">
-        <is>
-          <t>38.657 (0.200)</t>
-        </is>
-      </c>
-      <c r="P4" s="11" t="inlineStr">
-        <is>
-          <t>30.766 (0.213)</t>
-        </is>
-      </c>
-      <c r="Q4" s="11" t="inlineStr">
-        <is>
-          <t>80.258 (0.321)</t>
-        </is>
-      </c>
-      <c r="R4" s="11" t="inlineStr">
-        <is>
-          <t>52.963 (0.549)</t>
-        </is>
-      </c>
-      <c r="S4" s="11" t="inlineStr">
-        <is>
-          <t>47.611 (0.484)</t>
-        </is>
-      </c>
-      <c r="T4" s="11" t="inlineStr">
-        <is>
-          <t>43.711 (0.541)</t>
-        </is>
-      </c>
-      <c r="U4" s="11" t="inlineStr">
-        <is>
-          <t>86.567 (0.187)</t>
-        </is>
-      </c>
-      <c r="V4" s="11" t="inlineStr">
-        <is>
-          <t>66.389 (0.855)</t>
-        </is>
-      </c>
-      <c r="W4" s="11" t="inlineStr">
-        <is>
-          <t>62.624 (0.600)</t>
-        </is>
-      </c>
-      <c r="X4" s="11" t="inlineStr">
-        <is>
-          <t>61.832 (0.776)</t>
-        </is>
-      </c>
-      <c r="Y4" s="11" t="inlineStr">
-        <is>
-          <t>89.738 (0.105)</t>
-        </is>
-      </c>
-      <c r="Z4" s="11" t="inlineStr">
-        <is>
-          <t>47.306 (0.721)</t>
-        </is>
-      </c>
-      <c r="AA4" s="11" t="inlineStr">
-        <is>
-          <t>43.021 (0.546)</t>
-        </is>
-      </c>
-      <c r="AB4" s="11" t="inlineStr">
-        <is>
-          <t>34.077 (0.769)</t>
-        </is>
-      </c>
-      <c r="AC4" s="11" t="inlineStr">
-        <is>
-          <t>79.125 (1.414)</t>
-        </is>
-      </c>
-      <c r="AD4" s="11" t="inlineStr">
-        <is>
-          <t>60.569 (0.189)</t>
-        </is>
-      </c>
-      <c r="AE4" s="11" t="inlineStr">
-        <is>
-          <t>52.404 (0.147)</t>
-        </is>
-      </c>
-      <c r="AF4" s="11" t="inlineStr">
-        <is>
-          <t>45.713 (0.155)</t>
-        </is>
-      </c>
-      <c r="AG4" s="11" t="inlineStr">
-        <is>
-          <t>92.229 (0.090)</t>
-        </is>
-      </c>
-      <c r="AH4" s="11" t="inlineStr">
-        <is>
-          <t>82.875 (0.153)</t>
-        </is>
-      </c>
-      <c r="AI4" s="11" t="inlineStr">
-        <is>
-          <t>83.126 (0.062)</t>
-        </is>
-      </c>
-      <c r="AJ4" s="11" t="inlineStr">
-        <is>
-          <t>82.029 (0.157)</t>
-        </is>
-      </c>
-      <c r="AK4" s="11" t="inlineStr">
-        <is>
-          <t>94.546 (0.041)</t>
-        </is>
-      </c>
-      <c r="AL4" s="11" t="inlineStr">
-        <is>
-          <t>25.678 (0.115)</t>
-        </is>
-      </c>
-      <c r="AM4" s="11" t="inlineStr">
-        <is>
-          <t>27.017 (0.117)</t>
-        </is>
-      </c>
-      <c r="AN4" s="11" t="inlineStr">
-        <is>
-          <t>14.790 (0.110)</t>
-        </is>
-      </c>
-      <c r="AO4" s="11" t="inlineStr">
-        <is>
-          <t>57.857 (0.654)</t>
-        </is>
-      </c>
-      <c r="AP4" s="11" t="inlineStr">
-        <is>
-          <t>26.351 (0.236)</t>
-        </is>
-      </c>
-      <c r="AQ4" s="11" t="inlineStr">
-        <is>
-          <t>26.751 (0.220)</t>
-        </is>
-      </c>
-      <c r="AR4" s="11" t="inlineStr">
-        <is>
-          <t>16.667 (0.523)</t>
-        </is>
-      </c>
-      <c r="AS4" s="11" t="inlineStr">
-        <is>
-          <t>57.703 (0.418)</t>
-        </is>
-      </c>
-      <c r="AT4" s="11" t="inlineStr">
-        <is>
-          <t>26.758 (1.889)</t>
-        </is>
-      </c>
-      <c r="AU4" s="11" t="inlineStr">
-        <is>
-          <t>28.040 (1.602)</t>
-        </is>
-      </c>
-      <c r="AV4" s="11" t="inlineStr">
-        <is>
-          <t>23.992 (1.975)</t>
-        </is>
-      </c>
-      <c r="AW4" s="11" t="inlineStr">
-        <is>
-          <t>63.484 (0.661)</t>
-        </is>
-      </c>
-      <c r="AX4" s="11" t="inlineStr">
-        <is>
-          <t>15.171 (0.096)</t>
-        </is>
-      </c>
-      <c r="AY4" s="11" t="inlineStr">
-        <is>
-          <t>20.616 (0.094)</t>
-        </is>
-      </c>
-      <c r="AZ4" s="11" t="inlineStr">
-        <is>
-          <t>8.274 (0.166)</t>
-        </is>
-      </c>
-      <c r="BA4" s="11" t="inlineStr">
-        <is>
-          <t>51.160 (0.055)</t>
-        </is>
-      </c>
-      <c r="BB4" s="11" t="inlineStr">
-        <is>
-          <t>17.156 (0.168)</t>
-        </is>
-      </c>
-      <c r="BC4" s="11" t="inlineStr">
-        <is>
-          <t>20.834 (0.167)</t>
-        </is>
-      </c>
-      <c r="BD4" s="11" t="inlineStr">
-        <is>
-          <t>9.828 (0.485)</t>
-        </is>
-      </c>
-      <c r="BE4" s="11" t="inlineStr">
-        <is>
-          <t>51.695 (0.077)</t>
-        </is>
-      </c>
-      <c r="BF4" s="11" t="inlineStr">
-        <is>
-          <t>21.464 (0.871)</t>
-        </is>
-      </c>
-      <c r="BG4" s="11" t="inlineStr">
-        <is>
-          <t>21.466 (0.872)</t>
-        </is>
-      </c>
-      <c r="BH4" s="11" t="inlineStr">
-        <is>
-          <t>18.801 (1.616)</t>
-        </is>
-      </c>
-      <c r="BI4" s="11" t="inlineStr">
-        <is>
-          <t>51.320 (0.950)</t>
-        </is>
-      </c>
-      <c r="BJ4" s="11" t="inlineStr">
-        <is>
-          <t>21.704 (0.215)</t>
-        </is>
-      </c>
-      <c r="BK4" s="11" t="inlineStr">
-        <is>
-          <t>20.224 (0.124)</t>
-        </is>
-      </c>
-      <c r="BL4" s="11" t="inlineStr">
-        <is>
-          <t>9.007 (0.657)</t>
-        </is>
-      </c>
-      <c r="BM4" s="11" t="inlineStr">
-        <is>
-          <t>50.785 (0.785)</t>
-        </is>
-      </c>
-      <c r="BN4" s="11" t="inlineStr">
-        <is>
-          <t>24.056 (0.139)</t>
-        </is>
-      </c>
-      <c r="BO4" s="11" t="inlineStr">
-        <is>
-          <t>20.617 (0.098)</t>
-        </is>
-      </c>
-      <c r="BP4" s="11" t="inlineStr">
-        <is>
-          <t>12.182 (0.665)</t>
-        </is>
-      </c>
-      <c r="BQ4" s="11" t="inlineStr">
-        <is>
-          <t>52.054 (0.362)</t>
-        </is>
-      </c>
-      <c r="BR4" s="11" t="inlineStr">
-        <is>
-          <t>23.072 (0.378)</t>
-        </is>
-      </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>22.649 (0.328)</t>
-        </is>
-      </c>
-      <c r="BT4" t="inlineStr">
-        <is>
-          <t>21.905 (0.355)</t>
-        </is>
-      </c>
-      <c r="BU4" t="inlineStr">
-        <is>
-          <t>53.215 (0.582)</t>
-        </is>
-      </c>
+      <c r="B4" s="11" t="n"/>
+      <c r="C4" s="11" t="n"/>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="11" t="n"/>
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="11" t="n"/>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="11" t="n"/>
+      <c r="K4" s="11" t="n"/>
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
+      <c r="N4" s="11" t="n"/>
+      <c r="O4" s="11" t="n"/>
+      <c r="P4" s="11" t="n"/>
+      <c r="Q4" s="11" t="n"/>
+      <c r="R4" s="11" t="n"/>
+      <c r="S4" s="11" t="n"/>
+      <c r="T4" s="11" t="n"/>
+      <c r="U4" s="11" t="n"/>
+      <c r="V4" s="11" t="n"/>
+      <c r="W4" s="11" t="n"/>
+      <c r="X4" s="11" t="n"/>
+      <c r="Y4" s="11" t="n"/>
+      <c r="Z4" s="11" t="n"/>
+      <c r="AA4" s="11" t="n"/>
+      <c r="AB4" s="11" t="n"/>
+      <c r="AC4" s="11" t="n"/>
+      <c r="AD4" s="11" t="n"/>
+      <c r="AE4" s="11" t="n"/>
+      <c r="AF4" s="11" t="n"/>
+      <c r="AG4" s="11" t="n"/>
+      <c r="AH4" s="11" t="n"/>
+      <c r="AI4" s="11" t="n"/>
+      <c r="AJ4" s="11" t="n"/>
+      <c r="AK4" s="11" t="n"/>
+      <c r="AL4" s="11" t="n"/>
+      <c r="AM4" s="11" t="n"/>
+      <c r="AN4" s="11" t="n"/>
+      <c r="AO4" s="11" t="n"/>
+      <c r="AP4" s="11" t="n"/>
+      <c r="AQ4" s="11" t="n"/>
+      <c r="AR4" s="11" t="n"/>
+      <c r="AS4" s="11" t="n"/>
+      <c r="AT4" s="11" t="n"/>
+      <c r="AU4" s="11" t="n"/>
+      <c r="AV4" s="11" t="n"/>
+      <c r="AW4" s="11" t="n"/>
+      <c r="AX4" s="11" t="n"/>
+      <c r="AY4" s="11" t="n"/>
+      <c r="AZ4" s="11" t="n"/>
+      <c r="BA4" s="11" t="n"/>
+      <c r="BB4" s="11" t="n"/>
+      <c r="BC4" s="11" t="n"/>
+      <c r="BD4" s="11" t="n"/>
+      <c r="BE4" s="11" t="n"/>
+      <c r="BF4" s="11" t="n"/>
+      <c r="BG4" s="11" t="n"/>
+      <c r="BH4" s="11" t="n"/>
+      <c r="BI4" s="11" t="n"/>
+      <c r="BJ4" s="11" t="n"/>
+      <c r="BK4" s="11" t="n"/>
+      <c r="BL4" s="11" t="n"/>
+      <c r="BM4" s="11" t="n"/>
+      <c r="BN4" s="11" t="n"/>
+      <c r="BO4" s="11" t="n"/>
+      <c r="BP4" s="11" t="n"/>
+      <c r="BQ4" s="11" t="n"/>
+      <c r="BR4" s="11" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
@@ -1382,298 +1091,74 @@
           <t>DRGCN 20‘</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>61.987 (2.461)</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>49.108 (3.515)</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>47.466 (3.998)</t>
-        </is>
-      </c>
-      <c r="E5" s="11" t="inlineStr">
-        <is>
-          <t>89.798 (0.541)</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>71.349 (0.773)</t>
-        </is>
-      </c>
-      <c r="G5" s="11" t="inlineStr">
-        <is>
-          <t>63.038 (0.990)</t>
-        </is>
-      </c>
-      <c r="H5" s="11" t="inlineStr">
-        <is>
-          <t>64.434 (1.517)</t>
-        </is>
-      </c>
-      <c r="I5" s="11" t="inlineStr">
-        <is>
-          <t>92.675 (0.297)</t>
-        </is>
-      </c>
-      <c r="J5" s="11" t="inlineStr">
-        <is>
-          <t>77.780 (1.219)</t>
-        </is>
-      </c>
-      <c r="K5" s="11" t="inlineStr">
-        <is>
-          <t>77.201 (0.782)</t>
-        </is>
-      </c>
-      <c r="L5" s="11" t="inlineStr">
-        <is>
-          <t>75.455 (0.972)</t>
-        </is>
-      </c>
-      <c r="M5" s="11" t="inlineStr">
-        <is>
-          <t>95.007 (0.304)</t>
-        </is>
-      </c>
-      <c r="N5" s="11" t="inlineStr">
-        <is>
-          <t>45.691 (2.791)</t>
-        </is>
-      </c>
-      <c r="O5" s="11" t="inlineStr">
-        <is>
-          <t>41.398 (2.337)</t>
-        </is>
-      </c>
-      <c r="P5" s="11" t="inlineStr">
-        <is>
-          <t>34.830 (2.797)</t>
-        </is>
-      </c>
-      <c r="Q5" s="11" t="inlineStr">
-        <is>
-          <t>79.581 (1.237)</t>
-        </is>
-      </c>
-      <c r="R5" s="11" t="inlineStr">
-        <is>
-          <t>55.220 (1.817)</t>
-        </is>
-      </c>
-      <c r="S5" s="11" t="inlineStr">
-        <is>
-          <t>49.864 (1.681)</t>
-        </is>
-      </c>
-      <c r="T5" s="11" t="inlineStr">
-        <is>
-          <t>47.501 (1.463)</t>
-        </is>
-      </c>
-      <c r="U5" s="11" t="inlineStr">
-        <is>
-          <t>84.918 (0.628)</t>
-        </is>
-      </c>
-      <c r="V5" s="11" t="inlineStr">
-        <is>
-          <t>66.985 (1.703)</t>
-        </is>
-      </c>
-      <c r="W5" s="11" t="inlineStr">
-        <is>
-          <t>63.054 (0.818)</t>
-        </is>
-      </c>
-      <c r="X5" s="11" t="inlineStr">
-        <is>
-          <t>62.649 (1.093)</t>
-        </is>
-      </c>
-      <c r="Y5" s="11" t="inlineStr">
-        <is>
-          <t>89.322 (0.220)</t>
-        </is>
-      </c>
-      <c r="Z5" s="11" t="inlineStr">
-        <is>
-          <t>49.802 (4.329)</t>
-        </is>
-      </c>
-      <c r="AA5" s="11" t="inlineStr">
-        <is>
-          <t>44.868 (3.234)</t>
-        </is>
-      </c>
-      <c r="AB5" s="11" t="inlineStr">
-        <is>
-          <t>36.439 (4.286)</t>
-        </is>
-      </c>
-      <c r="AC5" s="11" t="inlineStr">
-        <is>
-          <t>84.190 (2.661)</t>
-        </is>
-      </c>
-      <c r="AD5" s="11" t="inlineStr">
-        <is>
-          <t>62.587 (4.622)</t>
-        </is>
-      </c>
-      <c r="AE5" s="11" t="inlineStr">
-        <is>
-          <t>56.403 (3.908)</t>
-        </is>
-      </c>
-      <c r="AF5" s="11" t="inlineStr">
-        <is>
-          <t>53.834 (4.775)</t>
-        </is>
-      </c>
-      <c r="AG5" s="11" t="inlineStr">
-        <is>
-          <t>92.043 (0.347)</t>
-        </is>
-      </c>
+      <c r="B5" s="11" t="n"/>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="11" t="n"/>
+      <c r="I5" s="11" t="n"/>
+      <c r="J5" s="11" t="n"/>
+      <c r="K5" s="11" t="n"/>
+      <c r="L5" s="11" t="n"/>
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="11" t="n"/>
+      <c r="O5" s="11" t="n"/>
+      <c r="P5" s="11" t="n"/>
+      <c r="Q5" s="11" t="n"/>
+      <c r="R5" s="11" t="n"/>
+      <c r="S5" s="11" t="n"/>
+      <c r="T5" s="11" t="n"/>
+      <c r="U5" s="11" t="n"/>
+      <c r="V5" s="11" t="n"/>
+      <c r="W5" s="11" t="n"/>
+      <c r="X5" s="11" t="n"/>
+      <c r="Y5" s="11" t="n"/>
+      <c r="Z5" s="11" t="n"/>
+      <c r="AA5" s="11" t="n"/>
+      <c r="AB5" s="11" t="n"/>
+      <c r="AC5" s="11" t="n"/>
+      <c r="AD5" s="11" t="n"/>
+      <c r="AE5" s="11" t="n"/>
+      <c r="AF5" s="11" t="n"/>
+      <c r="AG5" s="11" t="n"/>
       <c r="AH5" s="11" t="n"/>
       <c r="AI5" s="11" t="n"/>
       <c r="AJ5" s="11" t="n"/>
       <c r="AK5" s="11" t="n"/>
-      <c r="AL5" s="11" t="inlineStr">
-        <is>
-          <t>25.792 (0.436)</t>
-        </is>
-      </c>
-      <c r="AM5" s="11" t="inlineStr">
-        <is>
-          <t>27.114 (0.435)</t>
-        </is>
-      </c>
-      <c r="AN5" s="11" t="inlineStr">
-        <is>
-          <t>15.019 (0.262)</t>
-        </is>
-      </c>
-      <c r="AO5" s="11" t="inlineStr">
-        <is>
-          <t>55.790 (1.064)</t>
-        </is>
-      </c>
-      <c r="AP5" s="11" t="inlineStr">
-        <is>
-          <t>26.400 (0.354)</t>
-        </is>
-      </c>
-      <c r="AQ5" s="11" t="inlineStr">
-        <is>
-          <t>26.785 (0.347)</t>
-        </is>
-      </c>
-      <c r="AR5" s="11" t="inlineStr">
-        <is>
-          <t>17.215 (0.440)</t>
-        </is>
-      </c>
-      <c r="AS5" s="11" t="inlineStr">
-        <is>
-          <t>56.192 (0.660)</t>
-        </is>
-      </c>
+      <c r="AL5" s="11" t="n"/>
+      <c r="AM5" s="11" t="n"/>
+      <c r="AN5" s="11" t="n"/>
+      <c r="AO5" s="11" t="n"/>
+      <c r="AP5" s="11" t="n"/>
+      <c r="AQ5" s="11" t="n"/>
+      <c r="AR5" s="11" t="n"/>
+      <c r="AS5" s="11" t="n"/>
       <c r="AT5" s="11" t="n"/>
       <c r="AU5" s="11" t="n"/>
       <c r="AV5" s="11" t="n"/>
       <c r="AW5" s="11" t="n"/>
-      <c r="AX5" s="11" t="inlineStr">
-        <is>
-          <t>15.315 (0.425)</t>
-        </is>
-      </c>
-      <c r="AY5" s="11" t="inlineStr">
-        <is>
-          <t>20.568 (0.376)</t>
-        </is>
-      </c>
-      <c r="AZ5" s="11" t="inlineStr">
-        <is>
-          <t>8.826 (1.089)</t>
-        </is>
-      </c>
-      <c r="BA5" s="11" t="inlineStr">
-        <is>
-          <t>49.242 (0.391)</t>
-        </is>
-      </c>
-      <c r="BB5" s="11" t="inlineStr">
-        <is>
-          <t>17.108 (0.805)</t>
-        </is>
-      </c>
-      <c r="BC5" s="11" t="inlineStr">
-        <is>
-          <t>19.982 (0.447)</t>
-        </is>
-      </c>
-      <c r="BD5" s="11" t="inlineStr">
-        <is>
-          <t>11.010 (0.879)</t>
-        </is>
-      </c>
-      <c r="BE5" s="11" t="inlineStr">
-        <is>
-          <t>49.419 (0.675)</t>
-        </is>
-      </c>
+      <c r="AX5" s="11" t="n"/>
+      <c r="AY5" s="11" t="n"/>
+      <c r="AZ5" s="11" t="n"/>
+      <c r="BA5" s="11" t="n"/>
+      <c r="BB5" s="11" t="n"/>
+      <c r="BC5" s="11" t="n"/>
+      <c r="BD5" s="11" t="n"/>
+      <c r="BE5" s="11" t="n"/>
       <c r="BF5" s="11" t="n"/>
       <c r="BG5" s="11" t="n"/>
       <c r="BH5" s="11" t="n"/>
       <c r="BI5" s="11" t="n"/>
-      <c r="BJ5" s="11" t="inlineStr">
-        <is>
-          <t>23.029 (0.592)</t>
-        </is>
-      </c>
-      <c r="BK5" s="11" t="inlineStr">
-        <is>
-          <t>21.034 (0.356)</t>
-        </is>
-      </c>
-      <c r="BL5" s="11" t="inlineStr">
-        <is>
-          <t>12.375 (1.048)</t>
-        </is>
-      </c>
-      <c r="BM5" s="11" t="inlineStr">
-        <is>
-          <t>54.866 (0.250)</t>
-        </is>
-      </c>
-      <c r="BN5" s="11" t="inlineStr">
-        <is>
-          <t>25.026 (0.231)</t>
-        </is>
-      </c>
-      <c r="BO5" s="11" t="inlineStr">
-        <is>
-          <t>22.101 (0.206)</t>
-        </is>
-      </c>
-      <c r="BP5" s="11" t="inlineStr">
-        <is>
-          <t>16.425 (0.573)</t>
-        </is>
-      </c>
-      <c r="BQ5" s="11" t="inlineStr">
-        <is>
-          <t>55.196 (0.277)</t>
-        </is>
-      </c>
+      <c r="BJ5" s="11" t="n"/>
+      <c r="BK5" s="11" t="n"/>
+      <c r="BL5" s="11" t="n"/>
+      <c r="BM5" s="11" t="n"/>
+      <c r="BN5" s="11" t="n"/>
+      <c r="BO5" s="11" t="n"/>
+      <c r="BP5" s="11" t="n"/>
+      <c r="BQ5" s="11" t="n"/>
       <c r="BR5" s="11" t="n"/>
     </row>
     <row r="6">
@@ -1682,366 +1167,75 @@
           <t>GraphSMOTE 21'</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>69.806 (0.458)</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>58.913 (0.549)</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>58.926 (0.542)</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>93.289 (0.137)</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="inlineStr">
-        <is>
-          <t>77.213 (0.273)</t>
-        </is>
-      </c>
-      <c r="G6" s="11" t="inlineStr">
-        <is>
-          <t>70.536 (0.415)</t>
-        </is>
-      </c>
-      <c r="H6" s="11" t="inlineStr">
-        <is>
-          <t>72.710 (0.311)</t>
-        </is>
-      </c>
-      <c r="I6" s="11" t="inlineStr">
-        <is>
-          <t>95.143 (0.155)</t>
-        </is>
-      </c>
-      <c r="J6" s="11" t="inlineStr">
-        <is>
-          <t>78.918 (0.483)</t>
-        </is>
-      </c>
-      <c r="K6" s="11" t="inlineStr">
-        <is>
-          <t>78.041 (0.437)</t>
-        </is>
-      </c>
-      <c r="L6" s="11" t="inlineStr">
-        <is>
-          <t>77.027 (0.415)</t>
-        </is>
-      </c>
-      <c r="M6" s="11" t="inlineStr">
-        <is>
-          <t>95.876 (0.349)</t>
-        </is>
-      </c>
-      <c r="N6" s="11" t="inlineStr">
-        <is>
-          <t>45.724 (0.798)</t>
-        </is>
-      </c>
-      <c r="O6" s="11" t="inlineStr">
-        <is>
-          <t>41.601 (0.741)</t>
-        </is>
-      </c>
-      <c r="P6" s="11" t="inlineStr">
-        <is>
-          <t>35.398 (0.933)</t>
-        </is>
-      </c>
-      <c r="Q6" s="11" t="inlineStr">
-        <is>
-          <t>82.563 (0.365)</t>
-        </is>
-      </c>
-      <c r="R6" s="11" t="inlineStr">
-        <is>
-          <t>53.549 (0.945)</t>
-        </is>
-      </c>
-      <c r="S6" s="11" t="inlineStr">
-        <is>
-          <t>48.272 (0.905)</t>
-        </is>
-      </c>
-      <c r="T6" s="11" t="inlineStr">
-        <is>
-          <t>45.209 (0.951)</t>
-        </is>
-      </c>
-      <c r="U6" s="11" t="inlineStr">
-        <is>
-          <t>86.585 (0.274)</t>
-        </is>
-      </c>
-      <c r="V6" s="11" t="inlineStr">
-        <is>
-          <t>65.504 (0.415)</t>
-        </is>
-      </c>
-      <c r="W6" s="11" t="inlineStr">
-        <is>
-          <t>62.160 (0.413)</t>
-        </is>
-      </c>
-      <c r="X6" s="11" t="inlineStr">
-        <is>
-          <t>61.199 (0.444)</t>
-        </is>
-      </c>
-      <c r="Y6" s="11" t="inlineStr">
-        <is>
-          <t>89.477 (0.126)</t>
-        </is>
-      </c>
-      <c r="Z6" s="11" t="inlineStr">
-        <is>
-          <t>47.971 (0.756)</t>
-        </is>
-      </c>
-      <c r="AA6" s="11" t="inlineStr">
-        <is>
-          <t>43.518 (0.569)</t>
-        </is>
-      </c>
-      <c r="AB6" s="11" t="inlineStr">
-        <is>
-          <t>34.784 (0.801)</t>
-        </is>
-      </c>
-      <c r="AC6" s="11" t="inlineStr">
-        <is>
-          <t>78.881 (1.272)</t>
-        </is>
-      </c>
-      <c r="AD6" s="11" t="inlineStr">
-        <is>
-          <t>60.112 (0.270)</t>
-        </is>
-      </c>
-      <c r="AE6" s="11" t="inlineStr">
-        <is>
-          <t>52.041 (0.210)</t>
-        </is>
-      </c>
-      <c r="AF6" s="11" t="inlineStr">
-        <is>
-          <t>45.348 (0.213)</t>
-        </is>
-      </c>
-      <c r="AG6" s="11" t="inlineStr">
-        <is>
-          <t>91.765 (0.092)</t>
-        </is>
-      </c>
-      <c r="AH6" s="11" t="inlineStr">
-        <is>
-          <t>81.846 (0.190)</t>
-        </is>
-      </c>
-      <c r="AI6" s="11" t="inlineStr">
-        <is>
-          <t>82.106 (0.143)</t>
-        </is>
-      </c>
-      <c r="AJ6" s="11" t="inlineStr">
-        <is>
-          <t>80.925 (0.181)</t>
-        </is>
-      </c>
-      <c r="AK6" s="11" t="inlineStr">
-        <is>
-          <t>93.938 (0.061)</t>
-        </is>
-      </c>
-      <c r="AL6" s="11" t="inlineStr">
-        <is>
-          <t>25.602 (0.121)</t>
-        </is>
-      </c>
-      <c r="AM6" s="11" t="inlineStr">
-        <is>
-          <t>26.914 (0.129)</t>
-        </is>
-      </c>
-      <c r="AN6" s="11" t="inlineStr">
-        <is>
-          <t>15.129 (0.157)</t>
-        </is>
-      </c>
-      <c r="AO6" s="11" t="inlineStr">
-        <is>
-          <t>56.822 (0.532)</t>
-        </is>
-      </c>
-      <c r="AP6" s="11" t="inlineStr">
-        <is>
-          <t>27.226 (0.206)</t>
-        </is>
-      </c>
-      <c r="AQ6" s="11" t="inlineStr">
-        <is>
-          <t>27.539 (0.201)</t>
-        </is>
-      </c>
-      <c r="AR6" s="11" t="inlineStr">
-        <is>
-          <t>18.719 (0.262)</t>
-        </is>
-      </c>
-      <c r="AS6" s="11" t="inlineStr">
-        <is>
-          <t>56.923 (0.226)</t>
-        </is>
-      </c>
-      <c r="AT6" s="11" t="inlineStr">
-        <is>
-          <t>25.052 (2.005)</t>
-        </is>
-      </c>
-      <c r="AU6" s="11" t="inlineStr">
-        <is>
-          <t>26.833 (2.006)</t>
-        </is>
-      </c>
-      <c r="AV6" s="11" t="inlineStr">
-        <is>
-          <t>22.931 (1.311)</t>
-        </is>
-      </c>
-      <c r="AW6" s="11" t="inlineStr">
-        <is>
-          <t>60.331 (3.339)</t>
-        </is>
-      </c>
-      <c r="AX6" s="11" t="inlineStr">
-        <is>
-          <t>15.409 (0.101)</t>
-        </is>
-      </c>
-      <c r="AY6" s="11" t="inlineStr">
-        <is>
-          <t>20.672 (0.142)</t>
-        </is>
-      </c>
-      <c r="AZ6" s="11" t="inlineStr">
-        <is>
-          <t>9.307 (0.292)</t>
-        </is>
-      </c>
-      <c r="BA6" s="11" t="inlineStr">
-        <is>
-          <t>51.493 (0.105)</t>
-        </is>
-      </c>
-      <c r="BB6" s="11" t="inlineStr">
-        <is>
-          <t>16.788 (0.143)</t>
-        </is>
-      </c>
-      <c r="BC6" s="11" t="inlineStr">
-        <is>
-          <t>20.632 (0.128)</t>
-        </is>
-      </c>
-      <c r="BD6" s="11" t="inlineStr">
-        <is>
-          <t>8.356 (0.364)</t>
-        </is>
-      </c>
-      <c r="BE6" s="11" t="inlineStr">
-        <is>
-          <t>51.705 (0.056)</t>
-        </is>
-      </c>
-      <c r="BF6" s="11" t="inlineStr">
-        <is>
-          <t>21.324 (0.217)</t>
-        </is>
-      </c>
-      <c r="BG6" s="11" t="inlineStr">
-        <is>
-          <t>21.338 (0.220)</t>
-        </is>
-      </c>
-      <c r="BH6" s="11" t="inlineStr">
-        <is>
-          <t>14.706 (1.383)</t>
-        </is>
-      </c>
-      <c r="BI6" s="11" t="inlineStr">
-        <is>
-          <t>51.209 (0.334)</t>
-        </is>
-      </c>
-      <c r="BJ6" s="11" t="inlineStr">
-        <is>
-          <t>21.760 (0.209)</t>
-        </is>
-      </c>
-      <c r="BK6" s="11" t="inlineStr">
-        <is>
-          <t>20.272 (0.117)</t>
-        </is>
-      </c>
-      <c r="BL6" s="11" t="inlineStr">
-        <is>
-          <t>9.052 (0.761)</t>
-        </is>
-      </c>
-      <c r="BM6" s="11" t="inlineStr">
-        <is>
-          <t>52.506 (2.313)</t>
-        </is>
-      </c>
-      <c r="BN6" s="11" t="inlineStr">
-        <is>
-          <t>25.077 (0.305)</t>
-        </is>
-      </c>
-      <c r="BO6" s="11" t="inlineStr">
-        <is>
-          <t>21.731 (0.311)</t>
-        </is>
-      </c>
-      <c r="BP6" s="11" t="inlineStr">
-        <is>
-          <t>16.260 (0.838)</t>
-        </is>
-      </c>
-      <c r="BQ6" s="11" t="inlineStr">
-        <is>
-          <t>53.792 (0.267)</t>
-        </is>
-      </c>
-      <c r="BR6" s="11" t="inlineStr">
-        <is>
-          <t>25.959 (0.305)</t>
-        </is>
-      </c>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>22.041 (0.320)</t>
-        </is>
-      </c>
-      <c r="BT6" t="inlineStr">
-        <is>
-          <t>21.132 (0.711)</t>
-        </is>
-      </c>
-      <c r="BU6" t="inlineStr">
-        <is>
-          <t>53.695 (0.360)</t>
-        </is>
-      </c>
+      <c r="B6" s="11" t="n"/>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="11" t="n"/>
+      <c r="F6" s="11" t="n"/>
+      <c r="G6" s="11" t="n"/>
+      <c r="H6" s="11" t="n"/>
+      <c r="I6" s="11" t="n"/>
+      <c r="J6" s="11" t="n"/>
+      <c r="K6" s="11" t="n"/>
+      <c r="L6" s="11" t="n"/>
+      <c r="M6" s="11" t="n"/>
+      <c r="N6" s="11" t="n"/>
+      <c r="O6" s="11" t="n"/>
+      <c r="P6" s="11" t="n"/>
+      <c r="Q6" s="11" t="n"/>
+      <c r="R6" s="11" t="n"/>
+      <c r="S6" s="11" t="n"/>
+      <c r="T6" s="11" t="n"/>
+      <c r="U6" s="11" t="n"/>
+      <c r="V6" s="11" t="n"/>
+      <c r="W6" s="11" t="n"/>
+      <c r="X6" s="11" t="n"/>
+      <c r="Y6" s="11" t="n"/>
+      <c r="Z6" s="11" t="n"/>
+      <c r="AA6" s="11" t="n"/>
+      <c r="AB6" s="11" t="n"/>
+      <c r="AC6" s="11" t="n"/>
+      <c r="AD6" s="11" t="n"/>
+      <c r="AE6" s="11" t="n"/>
+      <c r="AF6" s="11" t="n"/>
+      <c r="AG6" s="11" t="n"/>
+      <c r="AH6" s="11" t="n"/>
+      <c r="AI6" s="11" t="n"/>
+      <c r="AJ6" s="11" t="n"/>
+      <c r="AK6" s="11" t="n"/>
+      <c r="AL6" s="11" t="n"/>
+      <c r="AM6" s="11" t="n"/>
+      <c r="AN6" s="11" t="n"/>
+      <c r="AO6" s="11" t="n"/>
+      <c r="AP6" s="11" t="n"/>
+      <c r="AQ6" s="11" t="n"/>
+      <c r="AR6" s="11" t="n"/>
+      <c r="AS6" s="11" t="n"/>
+      <c r="AT6" s="11" t="n"/>
+      <c r="AU6" s="11" t="n"/>
+      <c r="AV6" s="11" t="n"/>
+      <c r="AW6" s="11" t="n"/>
+      <c r="AX6" s="11" t="n"/>
+      <c r="AY6" s="11" t="n"/>
+      <c r="AZ6" s="11" t="n"/>
+      <c r="BA6" s="11" t="n"/>
+      <c r="BB6" s="11" t="n"/>
+      <c r="BC6" s="11" t="n"/>
+      <c r="BD6" s="11" t="n"/>
+      <c r="BE6" s="11" t="n"/>
+      <c r="BF6" s="11" t="n"/>
+      <c r="BG6" s="11" t="n"/>
+      <c r="BH6" s="11" t="n"/>
+      <c r="BI6" s="11" t="n"/>
+      <c r="BJ6" s="11" t="n"/>
+      <c r="BK6" s="11" t="n"/>
+      <c r="BL6" s="11" t="n"/>
+      <c r="BM6" s="11" t="n"/>
+      <c r="BN6" s="11" t="n"/>
+      <c r="BO6" s="11" t="n"/>
+      <c r="BP6" s="11" t="n"/>
+      <c r="BQ6" s="11" t="n"/>
+      <c r="BR6" s="11" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -2049,366 +1243,75 @@
           <t>ImGAGN 21'</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>66.155 (3.542)</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>57.013 (4.296)</t>
-        </is>
-      </c>
-      <c r="D7" s="11" t="inlineStr">
-        <is>
-          <t>55.033 (5.322)</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>88.377 (1.385)</t>
-        </is>
-      </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>73.475 (3.066)</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>67.782 (3.464)</t>
-        </is>
-      </c>
-      <c r="H7" s="11" t="inlineStr">
-        <is>
-          <t>68.693 (3.929)</t>
-        </is>
-      </c>
-      <c r="I7" s="11" t="inlineStr">
-        <is>
-          <t>92.894 (0.452)</t>
-        </is>
-      </c>
-      <c r="J7" s="11" t="inlineStr">
-        <is>
-          <t>80.578 (0.645)</t>
-        </is>
-      </c>
-      <c r="K7" s="11" t="inlineStr">
-        <is>
-          <t>80.204 (0.412)</t>
-        </is>
-      </c>
-      <c r="L7" s="11" t="inlineStr">
-        <is>
-          <t>78.600 (0.609)</t>
-        </is>
-      </c>
-      <c r="M7" s="11" t="inlineStr">
-        <is>
-          <t>96.494 (0.174)</t>
-        </is>
-      </c>
-      <c r="N7" s="11" t="inlineStr">
-        <is>
-          <t>53.604 (3.324)</t>
-        </is>
-      </c>
-      <c r="O7" s="11" t="inlineStr">
-        <is>
-          <t>48.704 (3.158)</t>
-        </is>
-      </c>
-      <c r="P7" s="11" t="inlineStr">
-        <is>
-          <t>43.924 (4.613)</t>
-        </is>
-      </c>
-      <c r="Q7" s="11" t="inlineStr">
-        <is>
-          <t>81.371 (0.685)</t>
-        </is>
-      </c>
-      <c r="R7" s="11" t="inlineStr">
-        <is>
-          <t>55.287 (3.000)</t>
-        </is>
-      </c>
-      <c r="S7" s="11" t="inlineStr">
-        <is>
-          <t>50.404 (3.034)</t>
-        </is>
-      </c>
-      <c r="T7" s="11" t="inlineStr">
-        <is>
-          <t>48.402 (3.580)</t>
-        </is>
-      </c>
-      <c r="U7" s="11" t="inlineStr">
-        <is>
-          <t>83.518 (0.506)</t>
-        </is>
-      </c>
-      <c r="V7" s="11" t="inlineStr">
-        <is>
-          <t>66.269 (0.602)</t>
-        </is>
-      </c>
-      <c r="W7" s="11" t="inlineStr">
-        <is>
-          <t>62.551 (0.375)</t>
-        </is>
-      </c>
-      <c r="X7" s="11" t="inlineStr">
-        <is>
-          <t>61.696 (0.536)</t>
-        </is>
-      </c>
-      <c r="Y7" s="11" t="inlineStr">
-        <is>
-          <t>89.965 (0.127)</t>
-        </is>
-      </c>
-      <c r="Z7" s="11" t="inlineStr">
-        <is>
-          <t>64.027 (0.615)</t>
-        </is>
-      </c>
-      <c r="AA7" s="11" t="inlineStr">
-        <is>
-          <t>55.558 (0.436)</t>
-        </is>
-      </c>
-      <c r="AB7" s="11" t="inlineStr">
-        <is>
-          <t>50.736 (1.931)</t>
-        </is>
-      </c>
-      <c r="AC7" s="11" t="inlineStr">
-        <is>
-          <t>87.515 (1.149)</t>
-        </is>
-      </c>
-      <c r="AD7" s="11" t="inlineStr">
-        <is>
-          <t>72.158 (1.509)</t>
-        </is>
-      </c>
-      <c r="AE7" s="11" t="inlineStr">
-        <is>
-          <t>67.338 (1.140)</t>
-        </is>
-      </c>
-      <c r="AF7" s="11" t="inlineStr">
-        <is>
-          <t>67.802 (1.410)</t>
-        </is>
-      </c>
-      <c r="AG7" s="11" t="inlineStr">
-        <is>
-          <t>90.533 (1.690)</t>
-        </is>
-      </c>
-      <c r="AH7" s="11" t="inlineStr">
-        <is>
-          <t>82.780 (0.111)</t>
-        </is>
-      </c>
-      <c r="AI7" s="11" t="inlineStr">
-        <is>
-          <t>83.109 (0.076)</t>
-        </is>
-      </c>
-      <c r="AJ7" s="11" t="inlineStr">
-        <is>
-          <t>81.963 (0.116)</t>
-        </is>
-      </c>
-      <c r="AK7" s="11" t="inlineStr">
-        <is>
-          <t>94.518 (0.033)</t>
-        </is>
-      </c>
-      <c r="AL7" s="11" t="inlineStr">
-        <is>
-          <t>23.720 (2.854)</t>
-        </is>
-      </c>
-      <c r="AM7" s="11" t="inlineStr">
-        <is>
-          <t>24.759 (2.934)</t>
-        </is>
-      </c>
-      <c r="AN7" s="11" t="inlineStr">
-        <is>
-          <t>14.116 (2.745)</t>
-        </is>
-      </c>
-      <c r="AO7" s="11" t="inlineStr">
-        <is>
-          <t>52.726 (2.838)</t>
-        </is>
-      </c>
-      <c r="AP7" s="11" t="inlineStr">
-        <is>
-          <t>24.376 (2.861)</t>
-        </is>
-      </c>
-      <c r="AQ7" s="11" t="inlineStr">
-        <is>
-          <t>24.499 (2.710)</t>
-        </is>
-      </c>
-      <c r="AR7" s="11" t="inlineStr">
-        <is>
-          <t>16.937 (2.138)</t>
-        </is>
-      </c>
-      <c r="AS7" s="11" t="inlineStr">
-        <is>
-          <t>53.114 (2.755)</t>
-        </is>
-      </c>
-      <c r="AT7" s="11" t="inlineStr">
-        <is>
-          <t>29.185 (2.256)</t>
-        </is>
-      </c>
-      <c r="AU7" s="11" t="inlineStr">
-        <is>
-          <t>29.654 (1.782)</t>
-        </is>
-      </c>
-      <c r="AV7" s="11" t="inlineStr">
-        <is>
-          <t>26.454 (2.533)</t>
-        </is>
-      </c>
-      <c r="AW7" s="11" t="inlineStr">
-        <is>
-          <t>64.903 (0.861)</t>
-        </is>
-      </c>
-      <c r="AX7" s="11" t="inlineStr">
-        <is>
-          <t>17.298 (3.160)</t>
-        </is>
-      </c>
-      <c r="AY7" s="11" t="inlineStr">
-        <is>
-          <t>19.813 (0.625)</t>
-        </is>
-      </c>
-      <c r="AZ7" s="11" t="inlineStr">
-        <is>
-          <t>10.620 (4.190)</t>
-        </is>
-      </c>
-      <c r="BA7" s="11" t="inlineStr">
-        <is>
-          <t>49.439 (0.706)</t>
-        </is>
-      </c>
-      <c r="BB7" s="11" t="inlineStr">
-        <is>
-          <t>18.750 (1.803)</t>
-        </is>
-      </c>
-      <c r="BC7" s="11" t="inlineStr">
-        <is>
-          <t>20.140 (0.736)</t>
-        </is>
-      </c>
-      <c r="BD7" s="11" t="inlineStr">
-        <is>
-          <t>13.905 (2.765)</t>
-        </is>
-      </c>
-      <c r="BE7" s="11" t="inlineStr">
-        <is>
-          <t>49.977 (0.739)</t>
-        </is>
-      </c>
-      <c r="BF7" s="11" t="inlineStr">
-        <is>
-          <t>21.610 (0.842)</t>
-        </is>
-      </c>
-      <c r="BG7" s="11" t="inlineStr">
-        <is>
-          <t>21.612 (0.842)</t>
-        </is>
-      </c>
-      <c r="BH7" s="11" t="inlineStr">
-        <is>
-          <t>18.757 (1.737)</t>
-        </is>
-      </c>
-      <c r="BI7" s="11" t="inlineStr">
-        <is>
-          <t>51.276 (0.527)</t>
-        </is>
-      </c>
-      <c r="BJ7" s="11" t="inlineStr">
-        <is>
-          <t>24.103 (1.264)</t>
-        </is>
-      </c>
-      <c r="BK7" s="11" t="inlineStr">
-        <is>
-          <t>22.210 (1.013)</t>
-        </is>
-      </c>
-      <c r="BL7" s="11" t="inlineStr">
-        <is>
-          <t>18.843 (2.869)</t>
-        </is>
-      </c>
-      <c r="BM7" s="11" t="inlineStr">
-        <is>
-          <t>53.603 (1.512)</t>
-        </is>
-      </c>
-      <c r="BN7" s="11" t="inlineStr">
-        <is>
-          <t>24.536 (3.377)</t>
-        </is>
-      </c>
-      <c r="BO7" s="11" t="inlineStr">
-        <is>
-          <t>23.831 (1.727)</t>
-        </is>
-      </c>
-      <c r="BP7" s="11" t="inlineStr">
-        <is>
-          <t>21.036 (3.160)</t>
-        </is>
-      </c>
-      <c r="BQ7" s="11" t="inlineStr">
-        <is>
-          <t>54.923 (1.989)</t>
-        </is>
-      </c>
-      <c r="BR7" s="11" t="inlineStr">
-        <is>
-          <t>22.554 (0.942)</t>
-        </is>
-      </c>
-      <c r="BS7" t="inlineStr">
-        <is>
-          <t>22.572 (0.595)</t>
-        </is>
-      </c>
-      <c r="BT7" t="inlineStr">
-        <is>
-          <t>21.550 (0.860)</t>
-        </is>
-      </c>
-      <c r="BU7" t="inlineStr">
-        <is>
-          <t>53.662 (1.045)</t>
-        </is>
-      </c>
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="11" t="n"/>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="11" t="n"/>
+      <c r="I7" s="11" t="n"/>
+      <c r="J7" s="11" t="n"/>
+      <c r="K7" s="11" t="n"/>
+      <c r="L7" s="11" t="n"/>
+      <c r="M7" s="11" t="n"/>
+      <c r="N7" s="11" t="n"/>
+      <c r="O7" s="11" t="n"/>
+      <c r="P7" s="11" t="n"/>
+      <c r="Q7" s="11" t="n"/>
+      <c r="R7" s="11" t="n"/>
+      <c r="S7" s="11" t="n"/>
+      <c r="T7" s="11" t="n"/>
+      <c r="U7" s="11" t="n"/>
+      <c r="V7" s="11" t="n"/>
+      <c r="W7" s="11" t="n"/>
+      <c r="X7" s="11" t="n"/>
+      <c r="Y7" s="11" t="n"/>
+      <c r="Z7" s="11" t="n"/>
+      <c r="AA7" s="11" t="n"/>
+      <c r="AB7" s="11" t="n"/>
+      <c r="AC7" s="11" t="n"/>
+      <c r="AD7" s="11" t="n"/>
+      <c r="AE7" s="11" t="n"/>
+      <c r="AF7" s="11" t="n"/>
+      <c r="AG7" s="11" t="n"/>
+      <c r="AH7" s="11" t="n"/>
+      <c r="AI7" s="11" t="n"/>
+      <c r="AJ7" s="11" t="n"/>
+      <c r="AK7" s="11" t="n"/>
+      <c r="AL7" s="11" t="n"/>
+      <c r="AM7" s="11" t="n"/>
+      <c r="AN7" s="11" t="n"/>
+      <c r="AO7" s="11" t="n"/>
+      <c r="AP7" s="11" t="n"/>
+      <c r="AQ7" s="11" t="n"/>
+      <c r="AR7" s="11" t="n"/>
+      <c r="AS7" s="11" t="n"/>
+      <c r="AT7" s="11" t="n"/>
+      <c r="AU7" s="11" t="n"/>
+      <c r="AV7" s="11" t="n"/>
+      <c r="AW7" s="11" t="n"/>
+      <c r="AX7" s="11" t="n"/>
+      <c r="AY7" s="11" t="n"/>
+      <c r="AZ7" s="11" t="n"/>
+      <c r="BA7" s="11" t="n"/>
+      <c r="BB7" s="11" t="n"/>
+      <c r="BC7" s="11" t="n"/>
+      <c r="BD7" s="11" t="n"/>
+      <c r="BE7" s="11" t="n"/>
+      <c r="BF7" s="11" t="n"/>
+      <c r="BG7" s="11" t="n"/>
+      <c r="BH7" s="11" t="n"/>
+      <c r="BI7" s="11" t="n"/>
+      <c r="BJ7" s="11" t="n"/>
+      <c r="BK7" s="11" t="n"/>
+      <c r="BL7" s="11" t="n"/>
+      <c r="BM7" s="11" t="n"/>
+      <c r="BN7" s="11" t="n"/>
+      <c r="BO7" s="11" t="n"/>
+      <c r="BP7" s="11" t="n"/>
+      <c r="BQ7" s="11" t="n"/>
+      <c r="BR7" s="11" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
@@ -2416,366 +1319,75 @@
           <t>GraphENS 22'</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr">
-        <is>
-          <t>77.676 (0.578)</t>
-        </is>
-      </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>76.251 (0.702)</t>
-        </is>
-      </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>74.905 (0.657)</t>
-        </is>
-      </c>
-      <c r="E8" s="11" t="inlineStr">
-        <is>
-          <t>95.552 (0.131)</t>
-        </is>
-      </c>
-      <c r="F8" s="11" t="inlineStr">
-        <is>
-          <t>79.344 (0.494)</t>
-        </is>
-      </c>
-      <c r="G8" s="11" t="inlineStr">
-        <is>
-          <t>78.543 (0.546)</t>
-        </is>
-      </c>
-      <c r="H8" s="11" t="inlineStr">
-        <is>
-          <t>77.164 (0.501)</t>
-        </is>
-      </c>
-      <c r="I8" s="11" t="inlineStr">
-        <is>
-          <t>96.315 (0.131)</t>
-        </is>
-      </c>
-      <c r="J8" s="11" t="inlineStr">
-        <is>
-          <t>80.412 (0.777)</t>
-        </is>
-      </c>
-      <c r="K8" s="11" t="inlineStr">
-        <is>
-          <t>79.981 (0.629)</t>
-        </is>
-      </c>
-      <c r="L8" s="11" t="inlineStr">
-        <is>
-          <t>78.262 (0.909)</t>
-        </is>
-      </c>
-      <c r="M8" s="11" t="inlineStr">
-        <is>
-          <t>96.079 (0.471)</t>
-        </is>
-      </c>
-      <c r="N8" s="11" t="inlineStr">
-        <is>
-          <t>62.845 (0.723)</t>
-        </is>
-      </c>
-      <c r="O8" s="11" t="inlineStr">
-        <is>
-          <t>58.081 (0.592)</t>
-        </is>
-      </c>
-      <c r="P8" s="11" t="inlineStr">
-        <is>
-          <t>56.582 (0.600)</t>
-        </is>
-      </c>
-      <c r="Q8" s="11" t="inlineStr">
-        <is>
-          <t>85.909 (0.320)</t>
-        </is>
-      </c>
-      <c r="R8" s="11" t="inlineStr">
-        <is>
-          <t>61.975 (0.764)</t>
-        </is>
-      </c>
-      <c r="S8" s="11" t="inlineStr">
-        <is>
-          <t>58.757 (0.953)</t>
-        </is>
-      </c>
-      <c r="T8" s="11" t="inlineStr">
-        <is>
-          <t>57.797 (0.959)</t>
-        </is>
-      </c>
-      <c r="U8" s="11" t="inlineStr">
-        <is>
-          <t>87.458 (0.434)</t>
-        </is>
-      </c>
-      <c r="V8" s="11" t="inlineStr">
-        <is>
-          <t>66.419 (0.857)</t>
-        </is>
-      </c>
-      <c r="W8" s="11" t="inlineStr">
-        <is>
-          <t>62.648 (0.598)</t>
-        </is>
-      </c>
-      <c r="X8" s="11" t="inlineStr">
-        <is>
-          <t>61.861 (0.774)</t>
-        </is>
-      </c>
-      <c r="Y8" s="11" t="inlineStr">
-        <is>
-          <t>89.737 (0.106)</t>
-        </is>
-      </c>
-      <c r="Z8" s="11" t="inlineStr">
-        <is>
-          <t>76.689 (0.310)</t>
-        </is>
-      </c>
-      <c r="AA8" s="11" t="inlineStr">
-        <is>
-          <t>73.622 (0.433)</t>
-        </is>
-      </c>
-      <c r="AB8" s="11" t="inlineStr">
-        <is>
-          <t>74.357 (0.401)</t>
-        </is>
-      </c>
-      <c r="AC8" s="11" t="inlineStr">
-        <is>
-          <t>91.381 (0.142)</t>
-        </is>
-      </c>
-      <c r="AD8" s="11" t="inlineStr">
-        <is>
-          <t>80.837 (0.168)</t>
-        </is>
-      </c>
-      <c r="AE8" s="11" t="inlineStr">
-        <is>
-          <t>79.472 (0.269)</t>
-        </is>
-      </c>
-      <c r="AF8" s="11" t="inlineStr">
-        <is>
-          <t>79.714 (0.240)</t>
-        </is>
-      </c>
-      <c r="AG8" s="11" t="inlineStr">
-        <is>
-          <t>93.260 (0.107)</t>
-        </is>
-      </c>
-      <c r="AH8" s="11" t="inlineStr">
-        <is>
-          <t>82.868 (0.152)</t>
-        </is>
-      </c>
-      <c r="AI8" s="11" t="inlineStr">
-        <is>
-          <t>83.123 (0.075)</t>
-        </is>
-      </c>
-      <c r="AJ8" s="11" t="inlineStr">
-        <is>
-          <t>82.027 (0.160)</t>
-        </is>
-      </c>
-      <c r="AK8" s="11" t="inlineStr">
-        <is>
-          <t>94.545 (0.042)</t>
-        </is>
-      </c>
-      <c r="AL8" s="11" t="inlineStr">
-        <is>
-          <t>26.264 (2.415)</t>
-        </is>
-      </c>
-      <c r="AM8" s="11" t="inlineStr">
-        <is>
-          <t>27.120 (2.607)</t>
-        </is>
-      </c>
-      <c r="AN8" s="11" t="inlineStr">
-        <is>
-          <t>20.801 (0.638)</t>
-        </is>
-      </c>
-      <c r="AO8" s="11" t="inlineStr">
-        <is>
-          <t>58.148 (1.915)</t>
-        </is>
-      </c>
-      <c r="AP8" s="11" t="inlineStr">
-        <is>
-          <t>24.338 (1.621)</t>
-        </is>
-      </c>
-      <c r="AQ8" s="11" t="inlineStr">
-        <is>
-          <t>24.799 (1.637)</t>
-        </is>
-      </c>
-      <c r="AR8" s="11" t="inlineStr">
-        <is>
-          <t>19.581 (0.990)</t>
-        </is>
-      </c>
-      <c r="AS8" s="11" t="inlineStr">
-        <is>
-          <t>58.538 (2.610)</t>
-        </is>
-      </c>
-      <c r="AT8" s="11" t="inlineStr">
-        <is>
-          <t>26.758 (1.889)</t>
-        </is>
-      </c>
-      <c r="AU8" s="11" t="inlineStr">
-        <is>
-          <t>28.040 (1.602)</t>
-        </is>
-      </c>
-      <c r="AV8" s="11" t="inlineStr">
-        <is>
-          <t>23.992 (1.975)</t>
-        </is>
-      </c>
-      <c r="AW8" s="11" t="inlineStr">
-        <is>
-          <t>63.484 (0.661)</t>
-        </is>
-      </c>
-      <c r="AX8" s="11" t="inlineStr">
-        <is>
-          <t>20.651 (2.303)</t>
-        </is>
-      </c>
-      <c r="AY8" s="11" t="inlineStr">
-        <is>
-          <t>22.028 (1.489)</t>
-        </is>
-      </c>
-      <c r="AZ8" s="11" t="inlineStr">
-        <is>
-          <t>17.959 (1.890)</t>
-        </is>
-      </c>
-      <c r="BA8" s="11" t="inlineStr">
-        <is>
-          <t>52.872 (0.551)</t>
-        </is>
-      </c>
-      <c r="BB8" s="11" t="inlineStr">
-        <is>
-          <t>20.046 (1.610)</t>
-        </is>
-      </c>
-      <c r="BC8" s="11" t="inlineStr">
-        <is>
-          <t>21.029 (1.000)</t>
-        </is>
-      </c>
-      <c r="BD8" s="11" t="inlineStr">
-        <is>
-          <t>16.731 (1.727)</t>
-        </is>
-      </c>
-      <c r="BE8" s="11" t="inlineStr">
-        <is>
-          <t>52.334 (0.770)</t>
-        </is>
-      </c>
-      <c r="BF8" s="11" t="inlineStr">
-        <is>
-          <t>21.464 (0.871)</t>
-        </is>
-      </c>
-      <c r="BG8" s="11" t="inlineStr">
-        <is>
-          <t>21.466 (0.872)</t>
-        </is>
-      </c>
-      <c r="BH8" s="11" t="inlineStr">
-        <is>
-          <t>18.801 (1.616)</t>
-        </is>
-      </c>
-      <c r="BI8" s="11" t="inlineStr">
-        <is>
-          <t>51.320 (0.950)</t>
-        </is>
-      </c>
-      <c r="BJ8" s="11" t="inlineStr">
-        <is>
-          <t>20.671 (2.472)</t>
-        </is>
-      </c>
-      <c r="BK8" s="11" t="inlineStr">
-        <is>
-          <t>20.990 (1.426)</t>
-        </is>
-      </c>
-      <c r="BL8" s="11" t="inlineStr">
-        <is>
-          <t>18.473 (2.445)</t>
-        </is>
-      </c>
-      <c r="BM8" s="11" t="inlineStr">
-        <is>
-          <t>50.914 (1.266)</t>
-        </is>
-      </c>
-      <c r="BN8" s="11" t="inlineStr">
-        <is>
-          <t>25.026 (0.380)</t>
-        </is>
-      </c>
-      <c r="BO8" s="11" t="inlineStr">
-        <is>
-          <t>25.642 (0.490)</t>
-        </is>
-      </c>
-      <c r="BP8" s="11" t="inlineStr">
-        <is>
-          <t>23.303 (0.382)</t>
-        </is>
-      </c>
-      <c r="BQ8" s="11" t="inlineStr">
-        <is>
-          <t>56.098 (0.132)</t>
-        </is>
-      </c>
-      <c r="BR8" s="11" t="inlineStr">
-        <is>
-          <t>23.074 (0.376)</t>
-        </is>
-      </c>
-      <c r="BS8" t="inlineStr">
-        <is>
-          <t>22.651 (0.326)</t>
-        </is>
-      </c>
-      <c r="BT8" t="inlineStr">
-        <is>
-          <t>21.906 (0.353)</t>
-        </is>
-      </c>
-      <c r="BU8" t="inlineStr">
-        <is>
-          <t>53.215 (0.582)</t>
-        </is>
-      </c>
+      <c r="B8" s="11" t="n"/>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+      <c r="H8" s="11" t="n"/>
+      <c r="I8" s="11" t="n"/>
+      <c r="J8" s="11" t="n"/>
+      <c r="K8" s="11" t="n"/>
+      <c r="L8" s="11" t="n"/>
+      <c r="M8" s="11" t="n"/>
+      <c r="N8" s="11" t="n"/>
+      <c r="O8" s="11" t="n"/>
+      <c r="P8" s="11" t="n"/>
+      <c r="Q8" s="11" t="n"/>
+      <c r="R8" s="11" t="n"/>
+      <c r="S8" s="11" t="n"/>
+      <c r="T8" s="11" t="n"/>
+      <c r="U8" s="11" t="n"/>
+      <c r="V8" s="11" t="n"/>
+      <c r="W8" s="11" t="n"/>
+      <c r="X8" s="11" t="n"/>
+      <c r="Y8" s="11" t="n"/>
+      <c r="Z8" s="11" t="n"/>
+      <c r="AA8" s="11" t="n"/>
+      <c r="AB8" s="11" t="n"/>
+      <c r="AC8" s="11" t="n"/>
+      <c r="AD8" s="11" t="n"/>
+      <c r="AE8" s="11" t="n"/>
+      <c r="AF8" s="11" t="n"/>
+      <c r="AG8" s="11" t="n"/>
+      <c r="AH8" s="11" t="n"/>
+      <c r="AI8" s="11" t="n"/>
+      <c r="AJ8" s="11" t="n"/>
+      <c r="AK8" s="11" t="n"/>
+      <c r="AL8" s="11" t="n"/>
+      <c r="AM8" s="11" t="n"/>
+      <c r="AN8" s="11" t="n"/>
+      <c r="AO8" s="11" t="n"/>
+      <c r="AP8" s="11" t="n"/>
+      <c r="AQ8" s="11" t="n"/>
+      <c r="AR8" s="11" t="n"/>
+      <c r="AS8" s="11" t="n"/>
+      <c r="AT8" s="11" t="n"/>
+      <c r="AU8" s="11" t="n"/>
+      <c r="AV8" s="11" t="n"/>
+      <c r="AW8" s="11" t="n"/>
+      <c r="AX8" s="11" t="n"/>
+      <c r="AY8" s="11" t="n"/>
+      <c r="AZ8" s="11" t="n"/>
+      <c r="BA8" s="11" t="n"/>
+      <c r="BB8" s="11" t="n"/>
+      <c r="BC8" s="11" t="n"/>
+      <c r="BD8" s="11" t="n"/>
+      <c r="BE8" s="11" t="n"/>
+      <c r="BF8" s="11" t="n"/>
+      <c r="BG8" s="11" t="n"/>
+      <c r="BH8" s="11" t="n"/>
+      <c r="BI8" s="11" t="n"/>
+      <c r="BJ8" s="11" t="n"/>
+      <c r="BK8" s="11" t="n"/>
+      <c r="BL8" s="11" t="n"/>
+      <c r="BM8" s="11" t="n"/>
+      <c r="BN8" s="11" t="n"/>
+      <c r="BO8" s="11" t="n"/>
+      <c r="BP8" s="11" t="n"/>
+      <c r="BQ8" s="11" t="n"/>
+      <c r="BR8" s="11" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
@@ -2783,374 +1395,87 @@
           <t>TAM 22'</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>79.362 (0.561)</t>
-        </is>
-      </c>
-      <c r="C9" s="11" t="inlineStr">
-        <is>
-          <t>78.112 (0.393)</t>
-        </is>
-      </c>
-      <c r="D9" s="11" t="inlineStr">
-        <is>
-          <t>77.070 (0.572)</t>
-        </is>
-      </c>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>96.237 (0.044)</t>
-        </is>
-      </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>80.693 (0.267)</t>
-        </is>
-      </c>
-      <c r="G9" s="11" t="inlineStr">
-        <is>
-          <t>80.292 (0.374)</t>
-        </is>
-      </c>
-      <c r="H9" s="11" t="inlineStr">
-        <is>
-          <t>78.825 (0.324)</t>
-        </is>
-      </c>
-      <c r="I9" s="11" t="inlineStr">
-        <is>
-          <t>96.737 (0.073)</t>
-        </is>
-      </c>
-      <c r="J9" s="11" t="inlineStr">
-        <is>
-          <t>81.332 (0.619)</t>
-        </is>
-      </c>
-      <c r="K9" s="11" t="inlineStr">
-        <is>
-          <t>80.978 (0.329)</t>
-        </is>
-      </c>
-      <c r="L9" s="11" t="inlineStr">
-        <is>
-          <t>79.339 (0.610)</t>
-        </is>
-      </c>
-      <c r="M9" s="11" t="inlineStr">
-        <is>
-          <t>96.845 (0.044)</t>
-        </is>
-      </c>
-      <c r="N9" s="11" t="inlineStr">
-        <is>
-          <t>64.298 (0.456)</t>
-        </is>
-      </c>
-      <c r="O9" s="11" t="inlineStr">
-        <is>
-          <t>59.099 (0.433)</t>
-        </is>
-      </c>
-      <c r="P9" s="11" t="inlineStr">
-        <is>
-          <t>57.665 (0.457)</t>
-        </is>
-      </c>
-      <c r="Q9" s="11" t="inlineStr">
-        <is>
-          <t>87.222 (0.245)</t>
-        </is>
-      </c>
-      <c r="R9" s="11" t="inlineStr">
-        <is>
-          <t>64.157 (0.240)</t>
-        </is>
-      </c>
-      <c r="S9" s="11" t="inlineStr">
-        <is>
-          <t>60.876 (0.257)</t>
-        </is>
-      </c>
-      <c r="T9" s="11" t="inlineStr">
-        <is>
-          <t>60.119 (0.311)</t>
-        </is>
-      </c>
-      <c r="U9" s="11" t="inlineStr">
-        <is>
-          <t>88.405 (0.194)</t>
-        </is>
-      </c>
-      <c r="V9" s="11" t="inlineStr">
-        <is>
-          <t>66.258 (0.517)</t>
-        </is>
-      </c>
-      <c r="W9" s="11" t="inlineStr">
-        <is>
-          <t>62.993 (0.262)</t>
-        </is>
-      </c>
-      <c r="X9" s="11" t="inlineStr">
-        <is>
-          <t>61.945 (0.326)</t>
-        </is>
-      </c>
-      <c r="Y9" s="11" t="inlineStr">
-        <is>
-          <t>89.765 (0.077)</t>
-        </is>
-      </c>
-      <c r="Z9" s="11" t="inlineStr">
-        <is>
-          <t>80.527 (0.175)</t>
-        </is>
-      </c>
-      <c r="AA9" s="11" t="inlineStr">
-        <is>
-          <t>78.983 (0.269)</t>
-        </is>
-      </c>
-      <c r="AB9" s="11" t="inlineStr">
-        <is>
-          <t>79.337 (0.206)</t>
-        </is>
-      </c>
-      <c r="AC9" s="11" t="inlineStr">
-        <is>
-          <t>93.141 (0.049)</t>
-        </is>
-      </c>
-      <c r="AD9" s="11" t="inlineStr">
-        <is>
-          <t>81.467 (0.153)</t>
-        </is>
-      </c>
-      <c r="AE9" s="11" t="inlineStr">
-        <is>
-          <t>81.200 (0.183)</t>
-        </is>
-      </c>
-      <c r="AF9" s="11" t="inlineStr">
-        <is>
-          <t>80.750 (0.150)</t>
-        </is>
-      </c>
-      <c r="AG9" s="11" t="inlineStr">
-        <is>
-          <t>93.712 (0.070)</t>
-        </is>
-      </c>
-      <c r="AH9" s="11" t="inlineStr">
-        <is>
-          <t>74.561 (0.779)</t>
-        </is>
-      </c>
-      <c r="AI9" s="11" t="inlineStr">
-        <is>
-          <t>77.262 (0.623)</t>
-        </is>
-      </c>
-      <c r="AJ9" s="11" t="inlineStr">
-        <is>
-          <t>74.232 (0.769)</t>
-        </is>
-      </c>
-      <c r="AK9" s="11" t="inlineStr">
-        <is>
-          <t>92.622 (0.119)</t>
-        </is>
-      </c>
-      <c r="AL9" s="11" t="inlineStr">
-        <is>
-          <t>23.471 (1.733)</t>
-        </is>
-      </c>
-      <c r="AM9" s="11" t="inlineStr">
-        <is>
-          <t>23.964 (1.936)</t>
-        </is>
-      </c>
-      <c r="AN9" s="11" t="inlineStr">
-        <is>
-          <t>20.370 (1.485)</t>
-        </is>
-      </c>
-      <c r="AO9" s="11" t="inlineStr">
-        <is>
-          <t>56.806 (2.372)</t>
-        </is>
-      </c>
-      <c r="AP9" s="11" t="inlineStr">
-        <is>
-          <t>23.271 (1.376)</t>
-        </is>
-      </c>
-      <c r="AQ9" s="11" t="inlineStr">
-        <is>
-          <t>23.822 (1.459)</t>
-        </is>
-      </c>
-      <c r="AR9" s="11" t="inlineStr">
-        <is>
-          <t>19.994 (1.210)</t>
-        </is>
-      </c>
-      <c r="AS9" s="11" t="inlineStr">
-        <is>
-          <t>58.711 (1.956)</t>
-        </is>
-      </c>
-      <c r="AT9" s="11" t="inlineStr">
-        <is>
-          <t>28.558 (1.239)</t>
-        </is>
-      </c>
-      <c r="AU9" s="11" t="inlineStr">
-        <is>
-          <t>28.819 (0.758)</t>
-        </is>
-      </c>
-      <c r="AV9" s="11" t="inlineStr">
-        <is>
-          <t>25.400 (1.863)</t>
-        </is>
-      </c>
-      <c r="AW9" s="11" t="inlineStr">
-        <is>
-          <t>60.110 (1.556)</t>
-        </is>
-      </c>
-      <c r="AX9" s="11" t="inlineStr">
-        <is>
-          <t>23.476 (1.235)</t>
-        </is>
-      </c>
-      <c r="AY9" s="11" t="inlineStr">
-        <is>
-          <t>22.741 (0.840)</t>
-        </is>
-      </c>
-      <c r="AZ9" s="11" t="inlineStr">
-        <is>
-          <t>20.275 (1.481)</t>
-        </is>
-      </c>
-      <c r="BA9" s="11" t="inlineStr">
-        <is>
-          <t>52.985 (0.464)</t>
-        </is>
-      </c>
-      <c r="BB9" s="11" t="inlineStr">
-        <is>
-          <t>21.168 (0.945)</t>
-        </is>
-      </c>
-      <c r="BC9" s="11" t="inlineStr">
-        <is>
-          <t>21.112 (0.490)</t>
-        </is>
-      </c>
-      <c r="BD9" s="11" t="inlineStr">
-        <is>
-          <t>17.286 (0.940)</t>
-        </is>
-      </c>
-      <c r="BE9" s="11" t="inlineStr">
-        <is>
-          <t>51.169 (1.175)</t>
-        </is>
-      </c>
-      <c r="BF9" s="11" t="inlineStr">
-        <is>
-          <t>21.509 (0.936)</t>
-        </is>
-      </c>
-      <c r="BG9" s="11" t="inlineStr">
-        <is>
-          <t>21.513 (0.935)</t>
-        </is>
-      </c>
-      <c r="BH9" s="11" t="inlineStr">
-        <is>
-          <t>18.430 (2.121)</t>
-        </is>
-      </c>
-      <c r="BI9" s="11" t="inlineStr">
-        <is>
-          <t>51.671 (0.780)</t>
-        </is>
-      </c>
-      <c r="BJ9" s="11" t="inlineStr">
-        <is>
-          <t>21.916 (0.178)</t>
-        </is>
-      </c>
-      <c r="BK9" s="11" t="inlineStr">
-        <is>
-          <t>21.974 (0.146)</t>
-        </is>
-      </c>
-      <c r="BL9" s="11" t="inlineStr">
-        <is>
-          <t>21.331 (0.312)</t>
-        </is>
-      </c>
-      <c r="BM9" s="11" t="inlineStr">
-        <is>
-          <t>52.416 (0.143)</t>
-        </is>
-      </c>
-      <c r="BN9" s="11" t="inlineStr">
-        <is>
-          <t>24.530 (0.327)</t>
-        </is>
-      </c>
-      <c r="BO9" s="11" t="inlineStr">
-        <is>
-          <t>25.835 (0.296)</t>
-        </is>
-      </c>
-      <c r="BP9" s="11" t="inlineStr">
-        <is>
-          <t>24.012 (0.538)</t>
-        </is>
-      </c>
-      <c r="BQ9" s="11" t="inlineStr">
-        <is>
-          <t>55.718 (0.169)</t>
-        </is>
-      </c>
-      <c r="BR9" s="11" t="inlineStr">
-        <is>
-          <t>23.539 (0.503)</t>
-        </is>
-      </c>
-      <c r="BS9" t="inlineStr">
-        <is>
-          <t>22.928 (0.452)</t>
-        </is>
-      </c>
-      <c r="BT9" t="inlineStr">
-        <is>
-          <t>22.102 (0.535)</t>
-        </is>
-      </c>
-      <c r="BU9" t="inlineStr">
-        <is>
-          <t>51.840 (0.457)</t>
-        </is>
-      </c>
+      <c r="B9" s="11" t="n"/>
+      <c r="C9" s="11" t="n"/>
+      <c r="D9" s="11" t="n"/>
+      <c r="E9" s="11" t="n"/>
+      <c r="F9" s="11" t="n"/>
+      <c r="G9" s="11" t="n"/>
+      <c r="H9" s="11" t="n"/>
+      <c r="I9" s="11" t="n"/>
+      <c r="J9" s="11" t="n"/>
+      <c r="K9" s="11" t="n"/>
+      <c r="L9" s="11" t="n"/>
+      <c r="M9" s="11" t="n"/>
+      <c r="N9" s="11" t="n"/>
+      <c r="O9" s="11" t="n"/>
+      <c r="P9" s="11" t="n"/>
+      <c r="Q9" s="11" t="n"/>
+      <c r="R9" s="11" t="n"/>
+      <c r="S9" s="11" t="n"/>
+      <c r="T9" s="11" t="n"/>
+      <c r="U9" s="11" t="n"/>
+      <c r="V9" s="11" t="n"/>
+      <c r="W9" s="11" t="n"/>
+      <c r="X9" s="11" t="n"/>
+      <c r="Y9" s="11" t="n"/>
+      <c r="Z9" s="11" t="n"/>
+      <c r="AA9" s="11" t="n"/>
+      <c r="AB9" s="11" t="n"/>
+      <c r="AC9" s="11" t="n"/>
+      <c r="AD9" s="11" t="n"/>
+      <c r="AE9" s="11" t="n"/>
+      <c r="AF9" s="11" t="n"/>
+      <c r="AG9" s="11" t="n"/>
+      <c r="AH9" s="11" t="n"/>
+      <c r="AI9" s="11" t="n"/>
+      <c r="AJ9" s="11" t="n"/>
+      <c r="AK9" s="11" t="n"/>
+      <c r="AL9" s="11" t="n"/>
+      <c r="AM9" s="11" t="n"/>
+      <c r="AN9" s="11" t="n"/>
+      <c r="AO9" s="11" t="n"/>
+      <c r="AP9" s="11" t="n"/>
+      <c r="AQ9" s="11" t="n"/>
+      <c r="AR9" s="11" t="n"/>
+      <c r="AS9" s="11" t="n"/>
+      <c r="AT9" s="11" t="n"/>
+      <c r="AU9" s="11" t="n"/>
+      <c r="AV9" s="11" t="n"/>
+      <c r="AW9" s="11" t="n"/>
+      <c r="AX9" s="11" t="n"/>
+      <c r="AY9" s="11" t="n"/>
+      <c r="AZ9" s="11" t="n"/>
+      <c r="BA9" s="11" t="n"/>
+      <c r="BB9" s="11" t="n"/>
+      <c r="BC9" s="11" t="n"/>
+      <c r="BD9" s="11" t="n"/>
+      <c r="BE9" s="11" t="n"/>
+      <c r="BF9" s="11" t="n"/>
+      <c r="BG9" s="11" t="n"/>
+      <c r="BH9" s="11" t="n"/>
+      <c r="BI9" s="11" t="n"/>
+      <c r="BJ9" s="11" t="n"/>
+      <c r="BK9" s="11" t="n"/>
+      <c r="BL9" s="11" t="n"/>
+      <c r="BM9" s="11" t="n"/>
+      <c r="BN9" s="11" t="n"/>
+      <c r="BO9" s="11" t="n"/>
+      <c r="BP9" s="11" t="n"/>
+      <c r="BQ9" s="11" t="n"/>
+      <c r="BR9" s="11" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>Lte4g 22'</t>
-        </is>
-      </c>
-      <c r="B10" s="11" t="n"/>
+          <t>-0.062990</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>79.223934</t>
+        </is>
+      </c>
       <c r="C10" s="11" t="n"/>
       <c r="D10" s="11" t="n"/>
       <c r="E10" s="11" t="n"/>
@@ -3299,10 +1624,14 @@
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>GraphSANN 23'</t>
-        </is>
-      </c>
-      <c r="B12" s="11" t="n"/>
+          <t>0.218676</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>66.692207</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="n"/>
       <c r="D12" s="11" t="n"/>
       <c r="E12" s="11" t="n"/>
@@ -3378,366 +1707,83 @@
           <t>GraphSHA 23‘</t>
         </is>
       </c>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>78.660 (0.461)</t>
-        </is>
-      </c>
+      <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>75.243 (0.542)</t>
+          <t>36.086</t>
         </is>
       </c>
       <c r="D13" s="11" t="inlineStr">
         <is>
-          <t>75.864 (0.581)</t>
-        </is>
-      </c>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>95.725 (0.107)</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>80.032 (0.463)</t>
-        </is>
-      </c>
-      <c r="G13" s="11" t="inlineStr">
-        <is>
-          <t>77.105 (0.397)</t>
-        </is>
-      </c>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>77.661 (0.462)</t>
-        </is>
-      </c>
-      <c r="I13" s="11" t="inlineStr">
-        <is>
-          <t>96.265 (0.045)</t>
-        </is>
-      </c>
-      <c r="J13" s="11" t="inlineStr">
-        <is>
-          <t>80.412 (0.777)</t>
-        </is>
-      </c>
-      <c r="K13" s="11" t="inlineStr">
-        <is>
-          <t>79.981 (0.629)</t>
-        </is>
-      </c>
-      <c r="L13" s="11" t="inlineStr">
-        <is>
-          <t>78.259 (0.910)</t>
-        </is>
-      </c>
-      <c r="M13" s="11" t="inlineStr">
-        <is>
-          <t>96.079 (0.471)</t>
-        </is>
-      </c>
-      <c r="N13" s="11" t="inlineStr">
-        <is>
-          <t>57.628 (0.819)</t>
-        </is>
-      </c>
-      <c r="O13" s="11" t="inlineStr">
-        <is>
-          <t>53.920 (0.685)</t>
-        </is>
-      </c>
-      <c r="P13" s="11" t="inlineStr">
-        <is>
-          <t>51.990 (0.677)</t>
-        </is>
-      </c>
-      <c r="Q13" s="11" t="inlineStr">
-        <is>
-          <t>85.099 (0.164)</t>
-        </is>
-      </c>
-      <c r="R13" s="11" t="inlineStr">
-        <is>
-          <t>60.511 (0.608)</t>
-        </is>
-      </c>
-      <c r="S13" s="11" t="inlineStr">
-        <is>
-          <t>56.978 (0.743)</t>
-        </is>
-      </c>
-      <c r="T13" s="11" t="inlineStr">
-        <is>
-          <t>55.756 (0.848)</t>
-        </is>
-      </c>
-      <c r="U13" s="11" t="inlineStr">
-        <is>
-          <t>87.356 (0.222)</t>
-        </is>
-      </c>
-      <c r="V13" s="11" t="inlineStr">
-        <is>
-          <t>66.397 (0.847)</t>
-        </is>
-      </c>
-      <c r="W13" s="11" t="inlineStr">
-        <is>
-          <t>62.630 (0.593)</t>
-        </is>
-      </c>
-      <c r="X13" s="11" t="inlineStr">
-        <is>
-          <t>61.839 (0.767)</t>
-        </is>
-      </c>
-      <c r="Y13" s="11" t="inlineStr">
-        <is>
-          <t>89.738 (0.106)</t>
-        </is>
-      </c>
-      <c r="Z13" s="11" t="inlineStr">
-        <is>
-          <t>70.682 (2.421)</t>
-        </is>
-      </c>
-      <c r="AA13" s="11" t="inlineStr">
-        <is>
-          <t>65.283 (0.562)</t>
-        </is>
-      </c>
-      <c r="AB13" s="11" t="inlineStr">
-        <is>
-          <t>64.660 (1.017)</t>
-        </is>
-      </c>
-      <c r="AC13" s="11" t="inlineStr">
-        <is>
-          <t>90.087 (3.594)</t>
-        </is>
-      </c>
-      <c r="AD13" s="11" t="inlineStr">
-        <is>
-          <t>77.940 (0.363)</t>
-        </is>
-      </c>
-      <c r="AE13" s="11" t="inlineStr">
-        <is>
-          <t>75.177 (0.393)</t>
-        </is>
-      </c>
-      <c r="AF13" s="11" t="inlineStr">
-        <is>
-          <t>76.170 (0.371)</t>
-        </is>
-      </c>
-      <c r="AG13" s="11" t="inlineStr">
-        <is>
-          <t>93.144 (0.102)</t>
-        </is>
-      </c>
-      <c r="AH13" s="11" t="inlineStr">
-        <is>
-          <t>82.865 (0.144)</t>
-        </is>
-      </c>
-      <c r="AI13" s="11" t="inlineStr">
-        <is>
-          <t>83.127 (0.066)</t>
-        </is>
-      </c>
-      <c r="AJ13" s="11" t="inlineStr">
-        <is>
-          <t>82.023 (0.151)</t>
-        </is>
-      </c>
-      <c r="AK13" s="11" t="inlineStr">
-        <is>
-          <t>94.542 (0.040)</t>
-        </is>
-      </c>
-      <c r="AL13" s="11" t="inlineStr">
-        <is>
-          <t>24.143 (1.296)</t>
-        </is>
-      </c>
-      <c r="AM13" s="11" t="inlineStr">
-        <is>
-          <t>24.797 (1.362)</t>
-        </is>
-      </c>
-      <c r="AN13" s="11" t="inlineStr">
-        <is>
-          <t>19.955 (1.818)</t>
-        </is>
-      </c>
-      <c r="AO13" s="11" t="inlineStr">
-        <is>
-          <t>55.995 (2.910)</t>
-        </is>
-      </c>
-      <c r="AP13" s="11" t="inlineStr">
-        <is>
-          <t>23.731 (1.967)</t>
-        </is>
-      </c>
-      <c r="AQ13" s="11" t="inlineStr">
-        <is>
-          <t>24.165 (2.164)</t>
-        </is>
-      </c>
-      <c r="AR13" s="11" t="inlineStr">
-        <is>
-          <t>19.643 (1.262)</t>
-        </is>
-      </c>
-      <c r="AS13" s="11" t="inlineStr">
-        <is>
-          <t>58.193 (2.518)</t>
-        </is>
-      </c>
-      <c r="AT13" s="11" t="inlineStr">
-        <is>
-          <t>26.758 (1.889)</t>
-        </is>
-      </c>
-      <c r="AU13" s="11" t="inlineStr">
-        <is>
-          <t>28.040 (1.602)</t>
-        </is>
-      </c>
-      <c r="AV13" s="11" t="inlineStr">
-        <is>
-          <t>23.992 (1.975)</t>
-        </is>
-      </c>
-      <c r="AW13" s="11" t="inlineStr">
-        <is>
-          <t>63.484 (0.661)</t>
-        </is>
-      </c>
-      <c r="AX13" s="11" t="inlineStr">
-        <is>
-          <t>20.784 (2.194)</t>
-        </is>
-      </c>
-      <c r="AY13" s="11" t="inlineStr">
-        <is>
-          <t>22.053 (1.486)</t>
-        </is>
-      </c>
-      <c r="AZ13" s="11" t="inlineStr">
-        <is>
-          <t>17.873 (1.993)</t>
-        </is>
-      </c>
-      <c r="BA13" s="11" t="inlineStr">
-        <is>
-          <t>52.872 (0.550)</t>
-        </is>
-      </c>
-      <c r="BB13" s="11" t="inlineStr">
-        <is>
-          <t>20.046 (1.610)</t>
-        </is>
-      </c>
-      <c r="BC13" s="11" t="inlineStr">
-        <is>
-          <t>21.029 (1.000)</t>
-        </is>
-      </c>
-      <c r="BD13" s="11" t="inlineStr">
-        <is>
-          <t>16.731 (1.727)</t>
-        </is>
-      </c>
-      <c r="BE13" s="11" t="inlineStr">
-        <is>
-          <t>52.334 (0.770)</t>
-        </is>
-      </c>
-      <c r="BF13" s="11" t="inlineStr">
-        <is>
-          <t>21.464 (0.871)</t>
-        </is>
-      </c>
-      <c r="BG13" s="11" t="inlineStr">
-        <is>
-          <t>21.466 (0.872)</t>
-        </is>
-      </c>
-      <c r="BH13" s="11" t="inlineStr">
-        <is>
-          <t>18.801 (1.616)</t>
-        </is>
-      </c>
-      <c r="BI13" s="11" t="inlineStr">
-        <is>
-          <t>51.320 (0.950)</t>
-        </is>
-      </c>
-      <c r="BJ13" s="11" t="inlineStr">
-        <is>
-          <t>20.821 (2.645)</t>
-        </is>
-      </c>
-      <c r="BK13" s="11" t="inlineStr">
-        <is>
-          <t>20.835 (1.337)</t>
-        </is>
-      </c>
-      <c r="BL13" s="11" t="inlineStr">
-        <is>
-          <t>18.051 (2.327)</t>
-        </is>
-      </c>
-      <c r="BM13" s="11" t="inlineStr">
-        <is>
-          <t>50.718 (0.984)</t>
-        </is>
-      </c>
-      <c r="BN13" s="11" t="inlineStr">
-        <is>
-          <t>23.592 (1.009)</t>
-        </is>
-      </c>
-      <c r="BO13" s="11" t="inlineStr">
-        <is>
-          <t>22.539 (0.824)</t>
-        </is>
-      </c>
-      <c r="BP13" s="11" t="inlineStr">
-        <is>
-          <t>20.361 (0.970)</t>
-        </is>
-      </c>
-      <c r="BQ13" s="11" t="inlineStr">
-        <is>
-          <t>52.481 (1.053)</t>
-        </is>
-      </c>
-      <c r="BR13" s="11" t="inlineStr">
-        <is>
-          <t>23.072 (0.378)</t>
-        </is>
-      </c>
-      <c r="BS13" t="inlineStr">
-        <is>
-          <t>22.649 (0.328)</t>
-        </is>
-      </c>
-      <c r="BT13" t="inlineStr">
-        <is>
-          <t>21.905 (0.355)</t>
-        </is>
-      </c>
-      <c r="BU13" t="inlineStr">
-        <is>
-          <t>53.215 (0.582)</t>
-        </is>
-      </c>
+          <t>206.812</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="n"/>
+      <c r="F13" s="11" t="n"/>
+      <c r="G13" s="11" t="n"/>
+      <c r="H13" s="11" t="n"/>
+      <c r="I13" s="11" t="n"/>
+      <c r="J13" s="11" t="n"/>
+      <c r="K13" s="11" t="n"/>
+      <c r="L13" s="11" t="n"/>
+      <c r="M13" s="11" t="n"/>
+      <c r="N13" s="11" t="n"/>
+      <c r="O13" s="11" t="n"/>
+      <c r="P13" s="11" t="n"/>
+      <c r="Q13" s="11" t="n"/>
+      <c r="R13" s="11" t="n"/>
+      <c r="S13" s="11" t="n"/>
+      <c r="T13" s="11" t="n"/>
+      <c r="U13" s="11" t="n"/>
+      <c r="V13" s="11" t="n"/>
+      <c r="W13" s="11" t="n"/>
+      <c r="X13" s="11" t="n"/>
+      <c r="Y13" s="11" t="n"/>
+      <c r="Z13" s="11" t="n"/>
+      <c r="AA13" s="11" t="n"/>
+      <c r="AB13" s="11" t="n"/>
+      <c r="AC13" s="11" t="n"/>
+      <c r="AD13" s="11" t="n"/>
+      <c r="AE13" s="11" t="n"/>
+      <c r="AF13" s="11" t="n"/>
+      <c r="AG13" s="11" t="n"/>
+      <c r="AH13" s="11" t="n"/>
+      <c r="AI13" s="11" t="n"/>
+      <c r="AJ13" s="11" t="n"/>
+      <c r="AK13" s="11" t="n"/>
+      <c r="AL13" s="11" t="n"/>
+      <c r="AM13" s="11" t="n"/>
+      <c r="AN13" s="11" t="n"/>
+      <c r="AO13" s="11" t="n"/>
+      <c r="AP13" s="11" t="n"/>
+      <c r="AQ13" s="11" t="n"/>
+      <c r="AR13" s="11" t="n"/>
+      <c r="AS13" s="11" t="n"/>
+      <c r="AT13" s="11" t="n"/>
+      <c r="AU13" s="11" t="n"/>
+      <c r="AV13" s="11" t="n"/>
+      <c r="AW13" s="11" t="n"/>
+      <c r="AX13" s="11" t="n"/>
+      <c r="AY13" s="11" t="n"/>
+      <c r="AZ13" s="11" t="n"/>
+      <c r="BA13" s="11" t="n"/>
+      <c r="BB13" s="11" t="n"/>
+      <c r="BC13" s="11" t="n"/>
+      <c r="BD13" s="11" t="n"/>
+      <c r="BE13" s="11" t="n"/>
+      <c r="BF13" s="11" t="n"/>
+      <c r="BG13" s="11" t="n"/>
+      <c r="BH13" s="11" t="n"/>
+      <c r="BI13" s="11" t="n"/>
+      <c r="BJ13" s="11" t="n"/>
+      <c r="BK13" s="11" t="n"/>
+      <c r="BL13" s="11" t="n"/>
+      <c r="BM13" s="11" t="n"/>
+      <c r="BN13" s="11" t="n"/>
+      <c r="BO13" s="11" t="n"/>
+      <c r="BP13" s="11" t="n"/>
+      <c r="BQ13" s="11" t="n"/>
+      <c r="BR13" s="11" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n"/>
@@ -3818,8 +1864,16 @@
         </is>
       </c>
       <c r="B15" s="11" t="n"/>
-      <c r="C15" s="11" t="n"/>
-      <c r="D15" s="11" t="n"/>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <t>10.228</t>
+        </is>
+      </c>
+      <c r="D15" s="11" t="inlineStr">
+        <is>
+          <t>206.812</t>
+        </is>
+      </c>
       <c r="E15" s="11" t="n"/>
       <c r="F15" s="11" t="n"/>
       <c r="G15" s="11" t="n"/>
@@ -4181,126 +2235,30 @@
           <t>Vanilla (GCN)</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr">
-        <is>
-          <t>41.923 (0.174)</t>
-        </is>
-      </c>
-      <c r="C22" s="11" t="inlineStr">
-        <is>
-          <t>22.249 (0.096)</t>
-        </is>
-      </c>
-      <c r="D22" s="11" t="inlineStr">
-        <is>
-          <t>16.082 (0.040)</t>
-        </is>
-      </c>
-      <c r="E22" s="11" t="inlineStr">
-        <is>
-          <t>70.818 (3.622)</t>
-        </is>
-      </c>
-      <c r="F22" s="11" t="inlineStr">
-        <is>
-          <t>47.676 (6.569)</t>
-        </is>
-      </c>
-      <c r="G22" s="11" t="inlineStr">
-        <is>
-          <t>26.858 (7.457)</t>
-        </is>
-      </c>
-      <c r="H22" s="11" t="inlineStr">
-        <is>
-          <t>21.922 (9.125)</t>
-        </is>
-      </c>
-      <c r="I22" s="11" t="inlineStr">
-        <is>
-          <t>85.235 (6.452)</t>
-        </is>
-      </c>
-      <c r="J22" s="11" t="inlineStr">
-        <is>
-          <t>78.844 (4.909)</t>
-        </is>
-      </c>
-      <c r="K22" s="11" t="inlineStr">
-        <is>
-          <t>80.748 (2.008)</t>
-        </is>
-      </c>
-      <c r="L22" s="11" t="inlineStr">
-        <is>
-          <t>75.301 (4.694)</t>
-        </is>
-      </c>
-      <c r="M22" s="11" t="inlineStr">
-        <is>
-          <t>95.038 (2.707)</t>
-        </is>
-      </c>
-      <c r="N22" s="11" t="inlineStr">
-        <is>
-          <t>56.133 (1.784)</t>
-        </is>
-      </c>
-      <c r="O22" s="11" t="inlineStr">
-        <is>
-          <t>22.828 (2.072)</t>
-        </is>
-      </c>
-      <c r="P22" s="11" t="inlineStr">
-        <is>
-          <t>19.920 (2.575)</t>
-        </is>
-      </c>
-      <c r="Q22" s="11" t="inlineStr">
-        <is>
-          <t>87.243 (1.560)</t>
-        </is>
-      </c>
-      <c r="R22" s="11" t="inlineStr">
-        <is>
-          <t>68.890 (0.998)</t>
-        </is>
-      </c>
-      <c r="S22" s="11" t="inlineStr">
-        <is>
-          <t>37.595 (1.728)</t>
-        </is>
-      </c>
-      <c r="T22" s="11" t="inlineStr">
-        <is>
-          <t>35.461 (1.196)</t>
-        </is>
-      </c>
-      <c r="U22" s="11" t="inlineStr">
-        <is>
-          <t>93.296 (0.612)</t>
-        </is>
-      </c>
-      <c r="V22" s="11" t="inlineStr">
-        <is>
-          <t>68.275 (1.331)</t>
-        </is>
-      </c>
-      <c r="W22" s="11" t="inlineStr">
-        <is>
-          <t>75.812 (0.457)</t>
-        </is>
-      </c>
-      <c r="X22" s="11" t="inlineStr">
-        <is>
-          <t>60.440 (0.664)</t>
-        </is>
-      </c>
-      <c r="Y22" s="11" t="inlineStr">
-        <is>
-          <t>94.263 (0.318)</t>
-        </is>
-      </c>
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="11" t="n"/>
+      <c r="F22" s="11" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="11" t="n"/>
+      <c r="J22" s="11" t="n"/>
+      <c r="K22" s="11" t="n"/>
+      <c r="L22" s="11" t="n"/>
+      <c r="M22" s="11" t="n"/>
+      <c r="N22" s="11" t="n"/>
+      <c r="O22" s="11" t="n"/>
+      <c r="P22" s="11" t="n"/>
+      <c r="Q22" s="11" t="n"/>
+      <c r="R22" s="11" t="n"/>
+      <c r="S22" s="11" t="n"/>
+      <c r="T22" s="11" t="n"/>
+      <c r="U22" s="11" t="n"/>
+      <c r="V22" s="11" t="n"/>
+      <c r="W22" s="11" t="n"/>
+      <c r="X22" s="11" t="n"/>
+      <c r="Y22" s="11" t="n"/>
       <c r="Z22" s="11" t="n"/>
       <c r="AA22" s="11" t="n"/>
       <c r="AB22" s="11" t="n"/>
@@ -4326,46 +2284,14 @@
       <c r="K23" s="11" t="n"/>
       <c r="L23" s="11" t="n"/>
       <c r="M23" s="11" t="n"/>
-      <c r="N23" s="11" t="inlineStr">
-        <is>
-          <t>66.016 (1.479)</t>
-        </is>
-      </c>
-      <c r="O23" s="11" t="inlineStr">
-        <is>
-          <t>35.801 (1.977)</t>
-        </is>
-      </c>
-      <c r="P23" s="11" t="inlineStr">
-        <is>
-          <t>33.602 (1.149)</t>
-        </is>
-      </c>
-      <c r="Q23" s="11" t="inlineStr">
-        <is>
-          <t>92.085 (0.746)</t>
-        </is>
-      </c>
-      <c r="R23" s="11" t="inlineStr">
-        <is>
-          <t>67.708 (3.102)</t>
-        </is>
-      </c>
-      <c r="S23" s="11" t="inlineStr">
-        <is>
-          <t>43.921 (2.578)</t>
-        </is>
-      </c>
-      <c r="T23" s="11" t="inlineStr">
-        <is>
-          <t>41.554 (2.420)</t>
-        </is>
-      </c>
-      <c r="U23" s="11" t="inlineStr">
-        <is>
-          <t>93.835 (0.498)</t>
-        </is>
-      </c>
+      <c r="N23" s="11" t="n"/>
+      <c r="O23" s="11" t="n"/>
+      <c r="P23" s="11" t="n"/>
+      <c r="Q23" s="11" t="n"/>
+      <c r="R23" s="11" t="n"/>
+      <c r="S23" s="11" t="n"/>
+      <c r="T23" s="11" t="n"/>
+      <c r="U23" s="11" t="n"/>
       <c r="V23" s="11" t="n"/>
       <c r="W23" s="11" t="n"/>
       <c r="X23" s="11" t="n"/>
@@ -4383,126 +2309,30 @@
           <t>GraphSMOTE 21'</t>
         </is>
       </c>
-      <c r="B24" s="11" t="inlineStr">
-        <is>
-          <t>41.828 (0.237)</t>
-        </is>
-      </c>
-      <c r="C24" s="11" t="inlineStr">
-        <is>
-          <t>22.197 (0.130)</t>
-        </is>
-      </c>
-      <c r="D24" s="11" t="inlineStr">
-        <is>
-          <t>16.054 (0.051)</t>
-        </is>
-      </c>
-      <c r="E24" s="11" t="inlineStr">
-        <is>
-          <t>72.953 (3.342)</t>
-        </is>
-      </c>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t>72.435 (5.802)</t>
-        </is>
-      </c>
-      <c r="G24" s="11" t="inlineStr">
-        <is>
-          <t>60.966 (7.167)</t>
-        </is>
-      </c>
-      <c r="H24" s="11" t="inlineStr">
-        <is>
-          <t>62.539 (6.991)</t>
-        </is>
-      </c>
-      <c r="I24" s="11" t="inlineStr">
-        <is>
-          <t>96.176 (0.408)</t>
-        </is>
-      </c>
-      <c r="J24" s="11" t="inlineStr">
-        <is>
-          <t>76.603 (1.306)</t>
-        </is>
-      </c>
-      <c r="K24" s="11" t="inlineStr">
-        <is>
-          <t>75.009 (1.136)</t>
-        </is>
-      </c>
-      <c r="L24" s="11" t="inlineStr">
-        <is>
-          <t>71.872 (1.383)</t>
-        </is>
-      </c>
-      <c r="M24" s="11" t="inlineStr">
-        <is>
-          <t>96.353 (0.186)</t>
-        </is>
-      </c>
-      <c r="N24" s="11" t="inlineStr">
-        <is>
-          <t>54.426 (4.321)</t>
-        </is>
-      </c>
-      <c r="O24" s="11" t="inlineStr">
-        <is>
-          <t>23.047 (2.558)</t>
-        </is>
-      </c>
-      <c r="P24" s="11" t="inlineStr">
-        <is>
-          <t>19.727 (3.600)</t>
-        </is>
-      </c>
-      <c r="Q24" s="11" t="inlineStr">
-        <is>
-          <t>85.774 (4.194)</t>
-        </is>
-      </c>
-      <c r="R24" s="11" t="inlineStr">
-        <is>
-          <t>69.642 (0.878)</t>
-        </is>
-      </c>
-      <c r="S24" s="11" t="inlineStr">
-        <is>
-          <t>44.350 (3.140)</t>
-        </is>
-      </c>
-      <c r="T24" s="11" t="inlineStr">
-        <is>
-          <t>42.295 (2.813)</t>
-        </is>
-      </c>
-      <c r="U24" s="11" t="inlineStr">
-        <is>
-          <t>94.323 (0.342)</t>
-        </is>
-      </c>
-      <c r="V24" s="11" t="inlineStr">
-        <is>
-          <t>71.934 (1.384)</t>
-        </is>
-      </c>
-      <c r="W24" s="11" t="inlineStr">
-        <is>
-          <t>71.060 (0.407)</t>
-        </is>
-      </c>
-      <c r="X24" s="11" t="inlineStr">
-        <is>
-          <t>58.242 (1.453)</t>
-        </is>
-      </c>
-      <c r="Y24" s="11" t="inlineStr">
-        <is>
-          <t>93.728 (0.184)</t>
-        </is>
-      </c>
+      <c r="B24" s="11" t="n"/>
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="11" t="n"/>
+      <c r="E24" s="11" t="n"/>
+      <c r="F24" s="11" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="11" t="n"/>
+      <c r="J24" s="11" t="n"/>
+      <c r="K24" s="11" t="n"/>
+      <c r="L24" s="11" t="n"/>
+      <c r="M24" s="11" t="n"/>
+      <c r="N24" s="11" t="n"/>
+      <c r="O24" s="11" t="n"/>
+      <c r="P24" s="11" t="n"/>
+      <c r="Q24" s="11" t="n"/>
+      <c r="R24" s="11" t="n"/>
+      <c r="S24" s="11" t="n"/>
+      <c r="T24" s="11" t="n"/>
+      <c r="U24" s="11" t="n"/>
+      <c r="V24" s="11" t="n"/>
+      <c r="W24" s="11" t="n"/>
+      <c r="X24" s="11" t="n"/>
+      <c r="Y24" s="11" t="n"/>
       <c r="Z24" s="11" t="n"/>
       <c r="AA24" s="11" t="n"/>
       <c r="AB24" s="11" t="n"/>
@@ -4516,126 +2346,30 @@
           <t>ImGAGN 21'</t>
         </is>
       </c>
-      <c r="B25" s="11" t="inlineStr">
-        <is>
-          <t>71.015 (5.516)</t>
-        </is>
-      </c>
-      <c r="C25" s="11" t="inlineStr">
-        <is>
-          <t>63.035 (5.148)</t>
-        </is>
-      </c>
-      <c r="D25" s="11" t="inlineStr">
-        <is>
-          <t>62.559 (4.513)</t>
-        </is>
-      </c>
-      <c r="E25" s="11" t="inlineStr">
-        <is>
-          <t>90.364 (0.962)</t>
-        </is>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>75.688 (3.563)</t>
-        </is>
-      </c>
-      <c r="G25" s="11" t="inlineStr">
-        <is>
-          <t>72.203 (3.374)</t>
-        </is>
-      </c>
-      <c r="H25" s="11" t="inlineStr">
-        <is>
-          <t>71.385 (3.078)</t>
-        </is>
-      </c>
-      <c r="I25" s="11" t="inlineStr">
-        <is>
-          <t>92.283 (1.697)</t>
-        </is>
-      </c>
-      <c r="J25" s="11" t="inlineStr">
-        <is>
-          <t>74.230 (5.351)</t>
-        </is>
-      </c>
-      <c r="K25" s="11" t="inlineStr">
-        <is>
-          <t>76.651 (2.279)</t>
-        </is>
-      </c>
-      <c r="L25" s="11" t="inlineStr">
-        <is>
-          <t>70.499 (5.088)</t>
-        </is>
-      </c>
-      <c r="M25" s="11" t="inlineStr">
-        <is>
-          <t>92.176 (3.811)</t>
-        </is>
-      </c>
-      <c r="N25" s="11" t="inlineStr">
-        <is>
-          <t>63.785 (5.792)</t>
-        </is>
-      </c>
-      <c r="O25" s="11" t="inlineStr">
-        <is>
-          <t>65.876 (2.146)</t>
-        </is>
-      </c>
-      <c r="P25" s="11" t="inlineStr">
-        <is>
-          <t>60.587 (4.367)</t>
-        </is>
-      </c>
-      <c r="Q25" s="11" t="inlineStr">
-        <is>
-          <t>87.636 (2.269)</t>
-        </is>
-      </c>
-      <c r="R25" s="11" t="inlineStr">
-        <is>
-          <t>69.294 (4.077)</t>
-        </is>
-      </c>
-      <c r="S25" s="11" t="inlineStr">
-        <is>
-          <t>69.800 (2.360)</t>
-        </is>
-      </c>
-      <c r="T25" s="11" t="inlineStr">
-        <is>
-          <t>65.450 (4.243)</t>
-        </is>
-      </c>
-      <c r="U25" s="11" t="inlineStr">
-        <is>
-          <t>91.646 (2.082)</t>
-        </is>
-      </c>
-      <c r="V25" s="11" t="inlineStr">
-        <is>
-          <t>67.698 (1.324)</t>
-        </is>
-      </c>
-      <c r="W25" s="11" t="inlineStr">
-        <is>
-          <t>74.596 (0.910)</t>
-        </is>
-      </c>
-      <c r="X25" s="11" t="inlineStr">
-        <is>
-          <t>58.465 (1.619)</t>
-        </is>
-      </c>
-      <c r="Y25" s="11" t="inlineStr">
-        <is>
-          <t>94.000 (0.218)</t>
-        </is>
-      </c>
+      <c r="B25" s="11" t="n"/>
+      <c r="C25" s="11" t="n"/>
+      <c r="D25" s="11" t="n"/>
+      <c r="E25" s="11" t="n"/>
+      <c r="F25" s="11" t="n"/>
+      <c r="G25" s="11" t="n"/>
+      <c r="H25" s="11" t="n"/>
+      <c r="I25" s="11" t="n"/>
+      <c r="J25" s="11" t="n"/>
+      <c r="K25" s="11" t="n"/>
+      <c r="L25" s="11" t="n"/>
+      <c r="M25" s="11" t="n"/>
+      <c r="N25" s="11" t="n"/>
+      <c r="O25" s="11" t="n"/>
+      <c r="P25" s="11" t="n"/>
+      <c r="Q25" s="11" t="n"/>
+      <c r="R25" s="11" t="n"/>
+      <c r="S25" s="11" t="n"/>
+      <c r="T25" s="11" t="n"/>
+      <c r="U25" s="11" t="n"/>
+      <c r="V25" s="11" t="n"/>
+      <c r="W25" s="11" t="n"/>
+      <c r="X25" s="11" t="n"/>
+      <c r="Y25" s="11" t="n"/>
       <c r="Z25" s="11" t="n"/>
       <c r="AA25" s="11" t="n"/>
       <c r="AB25" s="11" t="n"/>
@@ -4649,126 +2383,30 @@
           <t>GraphENS 22'</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr">
-        <is>
-          <t>83.528 (1.889)</t>
-        </is>
-      </c>
-      <c r="C26" s="11" t="inlineStr">
-        <is>
-          <t>83.432 (1.005)</t>
-        </is>
-      </c>
-      <c r="D26" s="11" t="inlineStr">
-        <is>
-          <t>80.740 (1.929)</t>
-        </is>
-      </c>
-      <c r="E26" s="11" t="inlineStr">
-        <is>
-          <t>96.372 (1.563)</t>
-        </is>
-      </c>
-      <c r="F26" s="11" t="inlineStr">
-        <is>
-          <t>82.829 (3.450)</t>
-        </is>
-      </c>
-      <c r="G26" s="11" t="inlineStr">
-        <is>
-          <t>83.366 (1.812)</t>
-        </is>
-      </c>
-      <c r="H26" s="11" t="inlineStr">
-        <is>
-          <t>79.856 (3.403)</t>
-        </is>
-      </c>
-      <c r="I26" s="11" t="inlineStr">
-        <is>
-          <t>96.148 (2.141)</t>
-        </is>
-      </c>
-      <c r="J26" s="11" t="inlineStr">
-        <is>
-          <t>78.930 (4.943)</t>
-        </is>
-      </c>
-      <c r="K26" s="11" t="inlineStr">
-        <is>
-          <t>80.890 (1.920)</t>
-        </is>
-      </c>
-      <c r="L26" s="11" t="inlineStr">
-        <is>
-          <t>75.420 (4.744)</t>
-        </is>
-      </c>
-      <c r="M26" s="11" t="inlineStr">
-        <is>
-          <t>95.119 (2.761)</t>
-        </is>
-      </c>
-      <c r="N26" s="11" t="inlineStr">
-        <is>
-          <t>69.668 (2.683)</t>
-        </is>
-      </c>
-      <c r="O26" s="11" t="inlineStr">
-        <is>
-          <t>71.121 (1.097)</t>
-        </is>
-      </c>
-      <c r="P26" s="11" t="inlineStr">
-        <is>
-          <t>64.385 (2.398)</t>
-        </is>
-      </c>
-      <c r="Q26" s="11" t="inlineStr">
-        <is>
-          <t>95.122 (1.390)</t>
-        </is>
-      </c>
-      <c r="R26" s="11" t="inlineStr">
-        <is>
-          <t>70.097 (2.063)</t>
-        </is>
-      </c>
-      <c r="S26" s="11" t="inlineStr">
-        <is>
-          <t>70.917 (1.274)</t>
-        </is>
-      </c>
-      <c r="T26" s="11" t="inlineStr">
-        <is>
-          <t>64.774 (1.610)</t>
-        </is>
-      </c>
-      <c r="U26" s="11" t="inlineStr">
-        <is>
-          <t>95.208 (0.955)</t>
-        </is>
-      </c>
-      <c r="V26" s="11" t="inlineStr">
-        <is>
-          <t>67.926 (1.210)</t>
-        </is>
-      </c>
-      <c r="W26" s="11" t="inlineStr">
-        <is>
-          <t>75.697 (0.488)</t>
-        </is>
-      </c>
-      <c r="X26" s="11" t="inlineStr">
-        <is>
-          <t>60.011 (1.097)</t>
-        </is>
-      </c>
-      <c r="Y26" s="11" t="inlineStr">
-        <is>
-          <t>94.176 (0.370)</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="n"/>
+      <c r="C26" s="11" t="n"/>
+      <c r="D26" s="11" t="n"/>
+      <c r="E26" s="11" t="n"/>
+      <c r="F26" s="11" t="n"/>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="11" t="n"/>
+      <c r="I26" s="11" t="n"/>
+      <c r="J26" s="11" t="n"/>
+      <c r="K26" s="11" t="n"/>
+      <c r="L26" s="11" t="n"/>
+      <c r="M26" s="11" t="n"/>
+      <c r="N26" s="11" t="n"/>
+      <c r="O26" s="11" t="n"/>
+      <c r="P26" s="11" t="n"/>
+      <c r="Q26" s="11" t="n"/>
+      <c r="R26" s="11" t="n"/>
+      <c r="S26" s="11" t="n"/>
+      <c r="T26" s="11" t="n"/>
+      <c r="U26" s="11" t="n"/>
+      <c r="V26" s="11" t="n"/>
+      <c r="W26" s="11" t="n"/>
+      <c r="X26" s="11" t="n"/>
+      <c r="Y26" s="11" t="n"/>
       <c r="Z26" s="11" t="n"/>
       <c r="AA26" s="11" t="n"/>
       <c r="AB26" s="11" t="n"/>
@@ -4782,126 +2420,30 @@
           <t>TAM 22'</t>
         </is>
       </c>
-      <c r="B27" s="11" t="inlineStr">
-        <is>
-          <t>84.176 (0.500)</t>
-        </is>
-      </c>
-      <c r="C27" s="11" t="inlineStr">
-        <is>
-          <t>83.251 (0.485)</t>
-        </is>
-      </c>
-      <c r="D27" s="11" t="inlineStr">
-        <is>
-          <t>81.505 (0.581)</t>
-        </is>
-      </c>
-      <c r="E27" s="11" t="inlineStr">
-        <is>
-          <t>97.040 (0.085)</t>
-        </is>
-      </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>84.479 (0.261)</t>
-        </is>
-      </c>
-      <c r="G27" s="11" t="inlineStr">
-        <is>
-          <t>83.891 (0.147)</t>
-        </is>
-      </c>
-      <c r="H27" s="11" t="inlineStr">
-        <is>
-          <t>81.794 (0.293)</t>
-        </is>
-      </c>
-      <c r="I27" s="11" t="inlineStr">
-        <is>
-          <t>97.159 (0.086)</t>
-        </is>
-      </c>
-      <c r="J27" s="11" t="inlineStr">
-        <is>
-          <t>84.470 (0.520)</t>
-        </is>
-      </c>
-      <c r="K27" s="11" t="inlineStr">
-        <is>
-          <t>82.481 (0.608)</t>
-        </is>
-      </c>
-      <c r="L27" s="11" t="inlineStr">
-        <is>
-          <t>79.972 (0.711)</t>
-        </is>
-      </c>
-      <c r="M27" s="11" t="inlineStr">
-        <is>
-          <t>97.060 (0.048)</t>
-        </is>
-      </c>
-      <c r="N27" s="11" t="inlineStr">
-        <is>
-          <t>72.433 (1.977)</t>
-        </is>
-      </c>
-      <c r="O27" s="11" t="inlineStr">
-        <is>
-          <t>70.104 (0.926)</t>
-        </is>
-      </c>
-      <c r="P27" s="11" t="inlineStr">
-        <is>
-          <t>63.572 (1.590)</t>
-        </is>
-      </c>
-      <c r="Q27" s="11" t="inlineStr">
-        <is>
-          <t>95.286 (0.678)</t>
-        </is>
-      </c>
-      <c r="R27" s="11" t="inlineStr">
-        <is>
-          <t>70.877 (2.186)</t>
-        </is>
-      </c>
-      <c r="S27" s="11" t="inlineStr">
-        <is>
-          <t>69.823 (1.539)</t>
-        </is>
-      </c>
-      <c r="T27" s="11" t="inlineStr">
-        <is>
-          <t>63.509 (2.377)</t>
-        </is>
-      </c>
-      <c r="U27" s="11" t="inlineStr">
-        <is>
-          <t>94.845 (1.010)</t>
-        </is>
-      </c>
-      <c r="V27" s="11" t="inlineStr">
-        <is>
-          <t>67.133 (1.128)</t>
-        </is>
-      </c>
-      <c r="W27" s="11" t="inlineStr">
-        <is>
-          <t>74.454 (0.292)</t>
-        </is>
-      </c>
-      <c r="X27" s="11" t="inlineStr">
-        <is>
-          <t>56.995 (1.746)</t>
-        </is>
-      </c>
-      <c r="Y27" s="11" t="inlineStr">
-        <is>
-          <t>94.208 (0.347)</t>
-        </is>
-      </c>
+      <c r="B27" s="11" t="n"/>
+      <c r="C27" s="11" t="n"/>
+      <c r="D27" s="11" t="n"/>
+      <c r="E27" s="11" t="n"/>
+      <c r="F27" s="11" t="n"/>
+      <c r="G27" s="11" t="n"/>
+      <c r="H27" s="11" t="n"/>
+      <c r="I27" s="11" t="n"/>
+      <c r="J27" s="11" t="n"/>
+      <c r="K27" s="11" t="n"/>
+      <c r="L27" s="11" t="n"/>
+      <c r="M27" s="11" t="n"/>
+      <c r="N27" s="11" t="n"/>
+      <c r="O27" s="11" t="n"/>
+      <c r="P27" s="11" t="n"/>
+      <c r="Q27" s="11" t="n"/>
+      <c r="R27" s="11" t="n"/>
+      <c r="S27" s="11" t="n"/>
+      <c r="T27" s="11" t="n"/>
+      <c r="U27" s="11" t="n"/>
+      <c r="V27" s="11" t="n"/>
+      <c r="W27" s="11" t="n"/>
+      <c r="X27" s="11" t="n"/>
+      <c r="Y27" s="11" t="n"/>
       <c r="Z27" s="11" t="n"/>
       <c r="AA27" s="11" t="n"/>
       <c r="AB27" s="11" t="n"/>
@@ -5026,126 +2568,30 @@
           <t>GraphSHA 23‘</t>
         </is>
       </c>
-      <c r="B31" s="11" t="inlineStr">
-        <is>
-          <t>73.980 (7.997)</t>
-        </is>
-      </c>
-      <c r="C31" s="11" t="inlineStr">
-        <is>
-          <t>67.877 (1.514)</t>
-        </is>
-      </c>
-      <c r="D31" s="11" t="inlineStr">
-        <is>
-          <t>66.776 (4.721)</t>
-        </is>
-      </c>
-      <c r="E31" s="11" t="inlineStr">
-        <is>
-          <t>96.359 (1.314)</t>
-        </is>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>82.435 (1.039)</t>
-        </is>
-      </c>
-      <c r="G31" s="11" t="inlineStr">
-        <is>
-          <t>76.358 (1.400)</t>
-        </is>
-      </c>
-      <c r="H31" s="11" t="inlineStr">
-        <is>
-          <t>77.854 (1.398)</t>
-        </is>
-      </c>
-      <c r="I31" s="11" t="inlineStr">
-        <is>
-          <t>97.128 (0.088)</t>
-        </is>
-      </c>
-      <c r="J31" s="11" t="inlineStr">
-        <is>
-          <t>79.001 (4.993)</t>
-        </is>
-      </c>
-      <c r="K31" s="11" t="inlineStr">
-        <is>
-          <t>80.935 (1.946)</t>
-        </is>
-      </c>
-      <c r="L31" s="11" t="inlineStr">
-        <is>
-          <t>75.503 (4.806)</t>
-        </is>
-      </c>
-      <c r="M31" s="11" t="inlineStr">
-        <is>
-          <t>95.113 (2.757)</t>
-        </is>
-      </c>
-      <c r="N31" s="11" t="inlineStr">
-        <is>
-          <t>72.370 (1.278)</t>
-        </is>
-      </c>
-      <c r="O31" s="11" t="inlineStr">
-        <is>
-          <t>67.768 (0.798)</t>
-        </is>
-      </c>
-      <c r="P31" s="11" t="inlineStr">
-        <is>
-          <t>65.585 (0.687)</t>
-        </is>
-      </c>
-      <c r="Q31" s="11" t="inlineStr">
-        <is>
-          <t>95.428 (0.109)</t>
-        </is>
-      </c>
-      <c r="R31" s="11" t="inlineStr">
-        <is>
-          <t>72.031 (0.820)</t>
-        </is>
-      </c>
-      <c r="S31" s="11" t="inlineStr">
-        <is>
-          <t>69.669 (0.518)</t>
-        </is>
-      </c>
-      <c r="T31" s="11" t="inlineStr">
-        <is>
-          <t>66.270 (0.602)</t>
-        </is>
-      </c>
-      <c r="U31" s="11" t="inlineStr">
-        <is>
-          <t>95.592 (0.092)</t>
-        </is>
-      </c>
-      <c r="V31" s="11" t="inlineStr">
-        <is>
-          <t>68.503 (1.382)</t>
-        </is>
-      </c>
-      <c r="W31" s="11" t="inlineStr">
-        <is>
-          <t>75.756 (0.496)</t>
-        </is>
-      </c>
-      <c r="X31" s="11" t="inlineStr">
-        <is>
-          <t>60.161 (1.167)</t>
-        </is>
-      </c>
-      <c r="Y31" s="11" t="inlineStr">
-        <is>
-          <t>94.200 (0.380)</t>
-        </is>
-      </c>
+      <c r="B31" s="11" t="n"/>
+      <c r="C31" s="11" t="n"/>
+      <c r="D31" s="11" t="n"/>
+      <c r="E31" s="11" t="n"/>
+      <c r="F31" s="11" t="n"/>
+      <c r="G31" s="11" t="n"/>
+      <c r="H31" s="11" t="n"/>
+      <c r="I31" s="11" t="n"/>
+      <c r="J31" s="11" t="n"/>
+      <c r="K31" s="11" t="n"/>
+      <c r="L31" s="11" t="n"/>
+      <c r="M31" s="11" t="n"/>
+      <c r="N31" s="11" t="n"/>
+      <c r="O31" s="11" t="n"/>
+      <c r="P31" s="11" t="n"/>
+      <c r="Q31" s="11" t="n"/>
+      <c r="R31" s="11" t="n"/>
+      <c r="S31" s="11" t="n"/>
+      <c r="T31" s="11" t="n"/>
+      <c r="U31" s="11" t="n"/>
+      <c r="V31" s="11" t="n"/>
+      <c r="W31" s="11" t="n"/>
+      <c r="X31" s="11" t="n"/>
+      <c r="Y31" s="11" t="n"/>
       <c r="Z31" s="11" t="n"/>
       <c r="AA31" s="11" t="n"/>
       <c r="AB31" s="11" t="n"/>
